--- a/Control Calidad - DATAMUJERES-Violencia.xlsx
+++ b/Control Calidad - DATAMUJERES-Violencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24B9E3-1853-45D3-B770-0F495AC9629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8ED559-D631-40C6-AC85-60D92C54635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Agricultura" sheetId="2" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:colOff>46355</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
@@ -681,7 +681,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>535305</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144146</xdr:rowOff>
+      <xdr:rowOff>140971</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -751,15 +751,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
+      <xdr:colOff>45085</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65406</xdr:rowOff>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>772795</xdr:colOff>
+      <xdr:colOff>769620</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>125096</xdr:rowOff>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -835,7 +835,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1248410</xdr:colOff>
+      <xdr:colOff>1245235</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1310,7 +1310,7 @@
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Control Calidad - DATAMUJERES-Violencia.xlsx
+++ b/Control Calidad - DATAMUJERES-Violencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69193738-D3D1-4637-ABC1-845ADAC5D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93762F0-D722-4DE8-A968-07EC8AB128E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Violencia" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="290">
   <si>
     <t>Link</t>
   </si>
@@ -912,6 +912,21 @@
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000007415884?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99</t>
   </si>
+  <si>
+    <t>Ajustar</t>
+  </si>
+  <si>
+    <t>Cambiar pestañas años</t>
+  </si>
+  <si>
+    <t>faltan</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ajustar</t>
+  </si>
 </sst>
 </file>
 
@@ -1535,36 +1550,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1713,6 +1698,36 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -2316,28 +2331,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}" name="Tabla1" displayName="Tabla1" ref="A10:Z761" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}" name="Tabla1" displayName="Tabla1" ref="A10:Z761" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A10:Z761" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}">
     <filterColumn colId="1">
       <filters>
-        <filter val="27.10"/>
+        <filter val="27.5"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{9405359C-2D08-4927-8309-AD9E156D9026}" name="Corr" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{9405359C-2D08-4927-8309-AD9E156D9026}" name="Corr" dataDxfId="12">
       <calculatedColumnFormula>+A10+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6916B56A-1FFB-47BD-AB36-C9A1F4A1884F}" name="Tabla Madre" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{6916B56A-1FFB-47BD-AB36-C9A1F4A1884F}" name="Tabla Madre" dataDxfId="11">
       <calculatedColumnFormula>+B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B08D57A8-E4F6-4FC0-AA6C-FF06B6F6F3AD}" name="Informe" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{B08D57A8-E4F6-4FC0-AA6C-FF06B6F6F3AD}" name="Informe" dataDxfId="10">
       <calculatedColumnFormula>+F11&amp;" - "&amp;J11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4492D037-8C82-4A30-94B4-E87C336E7F84}" name="Link" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{4492D037-8C82-4A30-94B4-E87C336E7F84}" name="Link" dataDxfId="9">
       <calculatedColumnFormula>+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D01B13B5-7D0C-4839-9CEA-E2750FCB0A15}" name="n" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{D01B13B5-7D0C-4839-9CEA-E2750FCB0A15}" name="n" dataDxfId="8">
       <calculatedColumnFormula>+E10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{A77C718B-68FC-4AEF-8628-75AB8ED02148}" name="Tipo Gráfico">
@@ -2349,7 +2364,7 @@
     <tableColumn id="8" xr3:uid="{A05ABD01-363D-469E-BC6E-DFA18A48460B}" name="MOVIL">
       <calculatedColumnFormula>+H10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{379B7179-374F-40B7-A6A4-EEB465D3F44C}" name="ID FILTRO" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{379B7179-374F-40B7-A6A4-EEB465D3F44C}" name="ID FILTRO" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{301DB08E-353F-4613-B84F-C3785CA0ECB2}" name="DESCRIPCION FILTRO"/>
     <tableColumn id="24" xr3:uid="{E2E0E145-C64C-46D1-A0D3-B4110A165F85}" name="TÍTULO"/>
     <tableColumn id="11" xr3:uid="{61C8F038-F680-4E4C-A469-5287470550AE}" name="LINK COPIADO COMO TEXTO" dataCellStyle="Hipervínculo">
@@ -2368,29 +2383,29 @@
     <tableColumn id="15" xr3:uid="{BDA73192-7FF4-40A6-A659-15014FD04C96}" name="Separación miles"/>
     <tableColumn id="16" xr3:uid="{4B5A268A-7E38-445B-83D9-7577A5B1ECF7}" name="Sin decimales"/>
     <tableColumn id="25" xr3:uid="{6E9C46C1-C1B6-4151-89B5-8F25EA57823F}" name="widges"/>
-    <tableColumn id="17" xr3:uid="{BDCE3429-9A69-428E-8B05-222179C803BA}" name="Observación" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{BDCE3429-9A69-428E-8B05-222179C803BA}" name="Observación" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}" name="Tabla13" displayName="Tabla13" ref="A10:U37" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}" name="Tabla13" displayName="Tabla13" ref="A10:U37" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A10:U37" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{EE0CEE91-9BF9-45E9-B3F6-D5CF168DC104}" name="Corr" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{EE0CEE91-9BF9-45E9-B3F6-D5CF168DC104}" name="Corr" dataDxfId="4">
       <calculatedColumnFormula>+A10+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{763C848B-35E0-4F75-94EB-67F9CB588602}" name="Tabla Madre" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{763C848B-35E0-4F75-94EB-67F9CB588602}" name="Tabla Madre" dataDxfId="3">
       <calculatedColumnFormula>+B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{74E9E8E8-5783-471B-A382-817661045923}" name="Informe" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{74E9E8E8-5783-471B-A382-817661045923}" name="Informe" dataDxfId="2">
       <calculatedColumnFormula>+F11&amp;" - "&amp;I11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{543015FD-B734-45F7-851D-91014B209BC3}" name="Link" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{543015FD-B734-45F7-851D-91014B209BC3}" name="Link" dataDxfId="1">
       <calculatedColumnFormula>+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A41C7425-CB0B-4741-9894-F0814D0AAB70}" name="n" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{A41C7425-CB0B-4741-9894-F0814D0AAB70}" name="n" dataDxfId="0">
       <calculatedColumnFormula>+E10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{19738F97-30C0-4618-9639-0488ECAA7F9D}" name="Tipo Gráfico">
@@ -2721,11 +2736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6890B1-E2BF-4865-91A1-1A07BA057A6F}">
   <dimension ref="A1:Z761"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="J525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K576" sqref="K576"/>
+      <selection pane="bottomRight" activeCell="L561" sqref="L561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24888,7 +24903,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <f t="shared" si="101"/>
         <v>8</v>
@@ -24932,7 +24947,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <f t="shared" si="101"/>
         <v>9</v>
@@ -24976,7 +24991,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <f t="shared" si="101"/>
         <v>10</v>
@@ -25020,7 +25035,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <f t="shared" si="101"/>
         <v>11</v>
@@ -25064,7 +25079,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <f t="shared" si="101"/>
         <v>12</v>
@@ -25108,7 +25123,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <f t="shared" si="101"/>
         <v>13</v>
@@ -25152,7 +25167,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <f t="shared" si="101"/>
         <v>14</v>
@@ -25196,7 +25211,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <f t="shared" si="101"/>
         <v>15</v>
@@ -25240,7 +25255,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <f t="shared" si="101"/>
         <v>16</v>
@@ -25284,7 +25299,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="105">
         <v>1</v>
       </c>
@@ -25326,7 +25341,7 @@
         <v>II 02 - No sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -25370,7 +25385,7 @@
         <v>II 02 - Sin Datos</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -25414,7 +25429,7 @@
         <v>II 02 - Sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="24">
         <v>1</v>
       </c>
@@ -25454,8 +25469,47 @@
         <f t="shared" si="108"/>
         <v>II 01 - Tarapacá</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M525" t="s">
+        <v>57</v>
+      </c>
+      <c r="N525" t="s">
+        <v>58</v>
+      </c>
+      <c r="O525" t="s">
+        <v>285</v>
+      </c>
+      <c r="P525" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q525" t="s">
+        <v>285</v>
+      </c>
+      <c r="R525" t="s">
+        <v>62</v>
+      </c>
+      <c r="S525" t="s">
+        <v>62</v>
+      </c>
+      <c r="T525" t="s">
+        <v>287</v>
+      </c>
+      <c r="U525" t="s">
+        <v>288</v>
+      </c>
+      <c r="V525" t="s">
+        <v>62</v>
+      </c>
+      <c r="W525" t="s">
+        <v>62</v>
+      </c>
+      <c r="X525" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y525" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="526" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -25499,7 +25553,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -25543,7 +25597,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <f t="shared" si="101"/>
         <v>4</v>
@@ -26905,7 +26959,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" s="115">
         <v>1</v>
       </c>
@@ -26947,7 +27001,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -26991,7 +27045,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -27035,7 +27089,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <f t="shared" ref="A562:A625" si="115">+A561+1</f>
         <v>4</v>
@@ -27079,7 +27133,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -27123,7 +27177,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -27167,7 +27221,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -27211,7 +27265,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -27255,7 +27309,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -27299,7 +27353,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -27343,7 +27397,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -27387,7 +27441,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -27431,7 +27485,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -27475,7 +27529,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -27519,7 +27573,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -27563,7 +27617,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -27607,7 +27661,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <f t="shared" si="115"/>
         <v>17</v>
@@ -27651,7 +27705,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="120">
         <v>1</v>
       </c>
@@ -27693,7 +27747,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -27737,7 +27791,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <f t="shared" si="115"/>
         <v>3</v>
@@ -27781,7 +27835,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <f t="shared" si="115"/>
         <v>4</v>
@@ -27825,7 +27879,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -27869,7 +27923,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -27913,7 +27967,7 @@
         <v>II 01 - O Higgins</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -27957,7 +28011,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -28001,7 +28055,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -28045,7 +28099,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -28089,7 +28143,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -28133,7 +28187,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -28177,7 +28231,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -28221,7 +28275,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -28265,7 +28319,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -28309,7 +28363,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -28353,7 +28407,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="120">
         <v>1</v>
       </c>
@@ -28396,7 +28450,7 @@
         <v>II 02 - Tarapacá</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -28440,7 +28494,7 @@
         <v>II 02 - Antofagasta</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <f t="shared" si="115"/>
         <v>3</v>
@@ -28484,7 +28538,7 @@
         <v>II 02 - Atacama</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <f t="shared" si="115"/>
         <v>4</v>
@@ -28528,7 +28582,7 @@
         <v>II 02 - Coquimbo</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -28572,7 +28626,7 @@
         <v>II 02 - Valparaíso</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -28616,7 +28670,7 @@
         <v>II 02 - O Higgins</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -28660,7 +28714,7 @@
         <v>II 02 - Maule</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -28704,7 +28758,7 @@
         <v>II 02 - Biobío</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -28748,7 +28802,7 @@
         <v>II 02 - Araucanía</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -28792,7 +28846,7 @@
         <v>II 02 - Los Lagos</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -28836,7 +28890,7 @@
         <v>II 02 - Aysén</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -28880,7 +28934,7 @@
         <v>II 02 - Magallanes</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -28924,7 +28978,7 @@
         <v>II 02 - Metropolitana</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -28968,7 +29022,7 @@
         <v>II 02 - Los Ríos</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -29012,7 +29066,7 @@
         <v>II 02 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -30809,4351 +30863,4350 @@
       </c>
     </row>
     <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A648" s="131" t="e">
-        <f>+#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B648" s="131" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C648" s="132" t="e">
+      <c r="A648" s="131">
+        <v>1</v>
+      </c>
+      <c r="B648" s="131">
+        <f>+B647</f>
+        <v>27.17</v>
+      </c>
+      <c r="C648" s="132" t="str">
         <f t="shared" ref="C648:C703" si="137">+F648&amp;" - "&amp;J648</f>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D648" s="133" t="str">
         <f t="shared" ref="D648:D703" si="138">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I648</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E648" s="134" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F648" s="135" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G648" s="135" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H648" s="135" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
+      <c r="E648" s="134">
+        <f>+E644</f>
+        <v>4</v>
+      </c>
+      <c r="F648" s="135" t="str">
+        <f>+F644</f>
+        <v>II 04</v>
+      </c>
+      <c r="G648" s="135" t="str">
+        <f>+G644</f>
+        <v>Prevalencia</v>
+      </c>
+      <c r="H648" s="135" t="str">
+        <f>+H644</f>
+        <v>Casos de violencia psicológica</v>
       </c>
       <c r="I648" s="131"/>
       <c r="J648" s="135"/>
       <c r="K648" s="135"/>
-      <c r="L648" s="1" t="e">
+      <c r="L648" s="1" t="str">
         <f t="shared" ref="L648:L703" si="139">+HYPERLINK(D648,C648)</f>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A649" s="2" t="e">
+      <c r="A649" s="2">
         <f t="shared" ref="A649:A703" si="140">+A648+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B649" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="B649" s="2">
         <f t="shared" ref="B649:B703" si="141">+B648</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C649" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C649" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D649" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E649" s="4" t="e">
+      <c r="E649" s="4">
         <f t="shared" ref="E649:E703" si="142">+E648</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F649" t="e">
+        <v>4</v>
+      </c>
+      <c r="F649" t="str">
         <f t="shared" ref="F649:F703" si="143">+F648</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G649" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G649" t="str">
         <f t="shared" ref="G649:G703" si="144">+G648</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H649" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H649" t="str">
         <f t="shared" ref="H649:H703" si="145">+H648</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L649" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L649" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A650" s="2" t="e">
+      <c r="A650" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B650" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="B650" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C650" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C650" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D650" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E650" s="4" t="e">
+      <c r="E650" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F650" t="e">
+        <v>4</v>
+      </c>
+      <c r="F650" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G650" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G650" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H650" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H650" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L650" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L650" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A651" s="2" t="e">
+      <c r="A651" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B651" s="2" t="e">
+        <v>4</v>
+      </c>
+      <c r="B651" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C651" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C651" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D651" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E651" s="4" t="e">
+      <c r="E651" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F651" t="e">
+        <v>4</v>
+      </c>
+      <c r="F651" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G651" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G651" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H651" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H651" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L651" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L651" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A652" s="2" t="e">
+      <c r="A652" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B652" s="2" t="e">
+        <v>5</v>
+      </c>
+      <c r="B652" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C652" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C652" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D652" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E652" s="4" t="e">
+      <c r="E652" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F652" t="e">
+        <v>4</v>
+      </c>
+      <c r="F652" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G652" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G652" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H652" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H652" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L652" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L652" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A653" s="2" t="e">
+      <c r="A653" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B653" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="B653" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C653" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C653" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D653" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E653" s="4" t="e">
+      <c r="E653" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F653" t="e">
+        <v>4</v>
+      </c>
+      <c r="F653" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G653" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G653" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H653" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H653" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L653" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L653" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A654" s="2" t="e">
+      <c r="A654" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B654" s="2" t="e">
+        <v>7</v>
+      </c>
+      <c r="B654" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C654" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C654" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D654" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E654" s="4" t="e">
+      <c r="E654" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F654" t="e">
+        <v>4</v>
+      </c>
+      <c r="F654" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G654" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G654" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H654" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H654" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L654" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L654" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A655" s="2" t="e">
+      <c r="A655" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B655" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="B655" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C655" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C655" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D655" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E655" s="4" t="e">
+      <c r="E655" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F655" t="e">
+        <v>4</v>
+      </c>
+      <c r="F655" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G655" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G655" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H655" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H655" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L655" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L655" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A656" s="2" t="e">
+      <c r="A656" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B656" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="B656" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C656" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C656" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D656" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E656" s="4" t="e">
+      <c r="E656" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F656" t="e">
+        <v>4</v>
+      </c>
+      <c r="F656" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G656" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G656" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H656" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H656" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L656" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L656" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A657" s="2" t="e">
+      <c r="A657" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B657" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="B657" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C657" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C657" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D657" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E657" s="4" t="e">
+      <c r="E657" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F657" t="e">
+        <v>4</v>
+      </c>
+      <c r="F657" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G657" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G657" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H657" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H657" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L657" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L657" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A658" s="2" t="e">
+      <c r="A658" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B658" s="2" t="e">
+        <v>11</v>
+      </c>
+      <c r="B658" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C658" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C658" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D658" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E658" s="4" t="e">
+      <c r="E658" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F658" t="e">
+        <v>4</v>
+      </c>
+      <c r="F658" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G658" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G658" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H658" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H658" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L658" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L658" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A659" s="2" t="e">
+      <c r="A659" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B659" s="2" t="e">
+        <v>12</v>
+      </c>
+      <c r="B659" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C659" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C659" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D659" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E659" s="4" t="e">
+      <c r="E659" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F659" t="e">
+        <v>4</v>
+      </c>
+      <c r="F659" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G659" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G659" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H659" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H659" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L659" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L659" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A660" s="2" t="e">
+      <c r="A660" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B660" s="2" t="e">
+        <v>13</v>
+      </c>
+      <c r="B660" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C660" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C660" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D660" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E660" s="4" t="e">
+      <c r="E660" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F660" t="e">
+        <v>4</v>
+      </c>
+      <c r="F660" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G660" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G660" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H660" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H660" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L660" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L660" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A661" s="2" t="e">
+      <c r="A661" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B661" s="2" t="e">
+        <v>14</v>
+      </c>
+      <c r="B661" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C661" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C661" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D661" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E661" s="4" t="e">
+      <c r="E661" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F661" t="e">
+        <v>4</v>
+      </c>
+      <c r="F661" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G661" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G661" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H661" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H661" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L661" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L661" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A662" s="2" t="e">
+      <c r="A662" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B662" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="B662" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C662" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C662" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D662" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E662" s="4" t="e">
+      <c r="E662" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F662" t="e">
+        <v>4</v>
+      </c>
+      <c r="F662" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G662" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G662" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H662" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H662" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L662" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L662" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A663" s="2" t="e">
+      <c r="A663" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B663" s="2" t="e">
+        <v>16</v>
+      </c>
+      <c r="B663" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C663" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C663" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D663" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E663" s="4" t="e">
+      <c r="E663" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F663" t="e">
+        <v>4</v>
+      </c>
+      <c r="F663" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G663" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G663" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H663" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H663" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L663" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L663" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A664" s="2" t="e">
+      <c r="A664" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B664" s="2" t="e">
+        <v>17</v>
+      </c>
+      <c r="B664" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C664" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C664" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D664" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E664" s="4" t="e">
+      <c r="E664" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F664" t="e">
+        <v>4</v>
+      </c>
+      <c r="F664" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G664" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G664" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H664" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H664" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L664" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L664" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A665" s="2" t="e">
+      <c r="A665" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B665" s="2" t="e">
+        <v>18</v>
+      </c>
+      <c r="B665" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C665" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C665" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D665" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E665" s="4" t="e">
+      <c r="E665" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F665" t="e">
+        <v>4</v>
+      </c>
+      <c r="F665" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G665" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G665" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H665" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H665" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L665" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L665" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A666" s="2" t="e">
+      <c r="A666" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B666" s="2" t="e">
+        <v>19</v>
+      </c>
+      <c r="B666" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C666" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C666" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D666" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E666" s="4" t="e">
+      <c r="E666" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F666" t="e">
+        <v>4</v>
+      </c>
+      <c r="F666" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G666" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G666" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H666" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H666" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L666" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L666" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A667" s="2" t="e">
+      <c r="A667" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B667" s="2" t="e">
+        <v>20</v>
+      </c>
+      <c r="B667" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C667" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C667" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D667" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E667" s="4" t="e">
+      <c r="E667" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F667" t="e">
+        <v>4</v>
+      </c>
+      <c r="F667" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G667" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G667" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H667" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H667" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L667" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L667" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A668" s="2" t="e">
+      <c r="A668" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B668" s="2" t="e">
+        <v>21</v>
+      </c>
+      <c r="B668" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C668" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C668" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D668" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E668" s="4" t="e">
+      <c r="E668" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F668" t="e">
+        <v>4</v>
+      </c>
+      <c r="F668" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G668" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G668" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H668" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H668" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L668" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L668" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A669" s="2" t="e">
+      <c r="A669" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B669" s="2" t="e">
+        <v>22</v>
+      </c>
+      <c r="B669" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C669" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C669" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D669" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E669" s="4" t="e">
+      <c r="E669" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F669" t="e">
+        <v>4</v>
+      </c>
+      <c r="F669" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G669" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G669" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H669" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H669" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L669" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L669" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A670" s="2" t="e">
+      <c r="A670" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B670" s="2" t="e">
+        <v>23</v>
+      </c>
+      <c r="B670" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C670" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C670" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D670" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E670" s="4" t="e">
+      <c r="E670" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F670" t="e">
+        <v>4</v>
+      </c>
+      <c r="F670" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G670" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G670" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H670" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H670" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L670" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L670" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A671" s="2" t="e">
+      <c r="A671" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B671" s="2" t="e">
+        <v>24</v>
+      </c>
+      <c r="B671" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C671" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C671" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D671" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E671" s="4" t="e">
+      <c r="E671" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F671" t="e">
+        <v>4</v>
+      </c>
+      <c r="F671" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G671" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G671" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H671" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H671" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L671" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L671" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A672" s="2" t="e">
+      <c r="A672" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B672" s="2" t="e">
+        <v>25</v>
+      </c>
+      <c r="B672" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C672" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C672" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D672" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E672" s="4" t="e">
+      <c r="E672" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F672" t="e">
+        <v>4</v>
+      </c>
+      <c r="F672" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G672" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G672" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H672" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H672" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L672" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L672" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A673" s="2" t="e">
+      <c r="A673" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B673" s="2" t="e">
+        <v>26</v>
+      </c>
+      <c r="B673" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C673" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C673" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D673" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E673" s="4" t="e">
+      <c r="E673" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F673" t="e">
+        <v>4</v>
+      </c>
+      <c r="F673" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G673" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G673" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H673" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H673" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L673" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L673" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A674" s="2" t="e">
+      <c r="A674" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B674" s="2" t="e">
+        <v>27</v>
+      </c>
+      <c r="B674" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C674" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C674" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D674" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E674" s="4" t="e">
+      <c r="E674" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F674" t="e">
+        <v>4</v>
+      </c>
+      <c r="F674" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G674" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G674" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H674" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H674" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L674" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L674" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A675" s="2" t="e">
+      <c r="A675" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B675" s="2" t="e">
+        <v>28</v>
+      </c>
+      <c r="B675" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C675" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C675" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D675" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E675" s="4" t="e">
+      <c r="E675" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F675" t="e">
+        <v>4</v>
+      </c>
+      <c r="F675" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G675" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G675" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H675" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H675" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L675" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L675" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A676" s="2" t="e">
+      <c r="A676" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B676" s="2" t="e">
+        <v>29</v>
+      </c>
+      <c r="B676" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C676" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C676" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D676" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E676" s="4" t="e">
+      <c r="E676" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F676" t="e">
+        <v>4</v>
+      </c>
+      <c r="F676" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G676" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G676" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H676" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H676" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L676" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L676" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A677" s="2" t="e">
+      <c r="A677" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B677" s="2" t="e">
+        <v>30</v>
+      </c>
+      <c r="B677" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C677" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C677" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D677" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E677" s="4" t="e">
+      <c r="E677" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F677" t="e">
+        <v>4</v>
+      </c>
+      <c r="F677" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G677" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G677" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H677" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H677" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L677" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L677" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A678" s="2" t="e">
+      <c r="A678" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B678" s="2" t="e">
+        <v>31</v>
+      </c>
+      <c r="B678" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C678" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C678" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D678" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E678" s="4" t="e">
+      <c r="E678" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F678" t="e">
+        <v>4</v>
+      </c>
+      <c r="F678" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G678" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G678" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H678" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H678" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L678" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L678" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A679" s="2" t="e">
+      <c r="A679" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B679" s="2" t="e">
+        <v>32</v>
+      </c>
+      <c r="B679" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C679" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C679" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D679" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E679" s="4" t="e">
+      <c r="E679" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F679" t="e">
+        <v>4</v>
+      </c>
+      <c r="F679" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G679" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G679" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H679" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H679" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L679" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L679" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="2" t="e">
+      <c r="A680" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B680" s="2" t="e">
+        <v>33</v>
+      </c>
+      <c r="B680" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C680" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C680" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D680" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E680" s="4" t="e">
+      <c r="E680" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F680" t="e">
+        <v>4</v>
+      </c>
+      <c r="F680" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G680" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G680" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H680" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H680" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L680" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L680" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A681" s="2" t="e">
+      <c r="A681" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B681" s="2" t="e">
+        <v>34</v>
+      </c>
+      <c r="B681" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C681" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C681" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D681" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E681" s="4" t="e">
+      <c r="E681" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F681" t="e">
+        <v>4</v>
+      </c>
+      <c r="F681" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G681" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G681" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H681" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H681" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L681" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L681" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A682" s="2" t="e">
+      <c r="A682" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B682" s="2" t="e">
+        <v>35</v>
+      </c>
+      <c r="B682" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C682" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C682" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D682" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E682" s="4" t="e">
+      <c r="E682" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F682" t="e">
+        <v>4</v>
+      </c>
+      <c r="F682" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G682" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G682" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H682" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H682" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L682" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L682" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A683" s="2" t="e">
+      <c r="A683" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B683" s="2" t="e">
+        <v>36</v>
+      </c>
+      <c r="B683" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C683" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C683" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D683" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E683" s="4" t="e">
+      <c r="E683" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F683" t="e">
+        <v>4</v>
+      </c>
+      <c r="F683" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G683" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G683" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H683" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H683" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L683" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L683" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A684" s="2" t="e">
+      <c r="A684" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B684" s="2" t="e">
+        <v>37</v>
+      </c>
+      <c r="B684" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C684" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C684" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D684" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E684" s="4" t="e">
+      <c r="E684" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F684" t="e">
+        <v>4</v>
+      </c>
+      <c r="F684" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G684" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G684" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H684" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H684" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L684" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L684" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A685" s="2" t="e">
+      <c r="A685" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B685" s="2" t="e">
+        <v>38</v>
+      </c>
+      <c r="B685" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C685" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C685" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D685" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E685" s="4" t="e">
+      <c r="E685" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F685" t="e">
+        <v>4</v>
+      </c>
+      <c r="F685" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G685" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G685" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H685" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H685" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L685" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L685" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A686" s="2" t="e">
+      <c r="A686" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B686" s="2" t="e">
+        <v>39</v>
+      </c>
+      <c r="B686" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C686" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C686" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D686" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E686" s="4" t="e">
+      <c r="E686" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F686" t="e">
+        <v>4</v>
+      </c>
+      <c r="F686" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G686" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G686" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H686" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H686" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L686" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L686" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A687" s="2" t="e">
+      <c r="A687" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B687" s="2" t="e">
+        <v>40</v>
+      </c>
+      <c r="B687" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C687" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C687" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D687" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E687" s="4" t="e">
+      <c r="E687" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F687" t="e">
+        <v>4</v>
+      </c>
+      <c r="F687" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G687" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G687" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H687" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H687" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L687" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L687" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A688" s="2" t="e">
+      <c r="A688" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B688" s="2" t="e">
+        <v>41</v>
+      </c>
+      <c r="B688" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C688" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C688" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D688" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E688" s="4" t="e">
+      <c r="E688" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F688" t="e">
+        <v>4</v>
+      </c>
+      <c r="F688" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G688" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G688" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H688" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H688" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L688" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L688" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A689" s="2" t="e">
+      <c r="A689" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B689" s="2" t="e">
+        <v>42</v>
+      </c>
+      <c r="B689" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C689" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C689" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D689" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E689" s="4" t="e">
+      <c r="E689" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F689" t="e">
+        <v>4</v>
+      </c>
+      <c r="F689" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G689" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G689" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H689" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H689" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L689" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L689" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A690" s="2" t="e">
+      <c r="A690" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B690" s="2" t="e">
+        <v>43</v>
+      </c>
+      <c r="B690" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C690" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C690" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D690" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E690" s="4" t="e">
+      <c r="E690" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F690" t="e">
+        <v>4</v>
+      </c>
+      <c r="F690" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G690" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G690" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H690" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H690" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L690" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L690" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A691" s="2" t="e">
+      <c r="A691" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B691" s="2" t="e">
+        <v>44</v>
+      </c>
+      <c r="B691" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C691" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C691" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D691" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E691" s="4" t="e">
+      <c r="E691" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F691" t="e">
+        <v>4</v>
+      </c>
+      <c r="F691" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G691" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G691" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H691" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H691" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L691" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L691" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A692" s="2" t="e">
+      <c r="A692" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B692" s="2" t="e">
+        <v>45</v>
+      </c>
+      <c r="B692" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C692" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C692" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D692" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E692" s="4" t="e">
+      <c r="E692" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F692" t="e">
+        <v>4</v>
+      </c>
+      <c r="F692" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G692" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G692" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H692" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H692" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L692" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L692" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A693" s="2" t="e">
+      <c r="A693" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B693" s="2" t="e">
+        <v>46</v>
+      </c>
+      <c r="B693" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C693" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C693" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D693" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E693" s="4" t="e">
+      <c r="E693" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F693" t="e">
+        <v>4</v>
+      </c>
+      <c r="F693" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G693" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G693" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H693" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H693" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L693" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L693" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A694" s="2" t="e">
+      <c r="A694" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B694" s="2" t="e">
+        <v>47</v>
+      </c>
+      <c r="B694" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C694" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C694" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D694" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E694" s="4" t="e">
+      <c r="E694" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F694" t="e">
+        <v>4</v>
+      </c>
+      <c r="F694" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G694" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G694" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H694" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H694" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L694" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L694" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A695" s="2" t="e">
+      <c r="A695" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B695" s="2" t="e">
+        <v>48</v>
+      </c>
+      <c r="B695" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C695" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C695" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D695" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E695" s="4" t="e">
+      <c r="E695" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F695" t="e">
+        <v>4</v>
+      </c>
+      <c r="F695" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G695" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G695" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H695" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H695" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L695" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L695" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A696" s="2" t="e">
+      <c r="A696" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B696" s="2" t="e">
+        <v>49</v>
+      </c>
+      <c r="B696" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C696" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C696" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D696" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E696" s="4" t="e">
+      <c r="E696" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F696" t="e">
+        <v>4</v>
+      </c>
+      <c r="F696" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G696" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G696" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H696" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H696" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L696" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L696" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A697" s="2" t="e">
+      <c r="A697" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B697" s="2" t="e">
+        <v>50</v>
+      </c>
+      <c r="B697" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C697" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C697" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D697" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E697" s="4" t="e">
+      <c r="E697" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F697" t="e">
+        <v>4</v>
+      </c>
+      <c r="F697" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G697" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G697" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H697" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H697" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L697" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L697" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A698" s="2" t="e">
+      <c r="A698" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B698" s="2" t="e">
+        <v>51</v>
+      </c>
+      <c r="B698" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C698" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C698" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D698" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E698" s="4" t="e">
+      <c r="E698" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F698" t="e">
+        <v>4</v>
+      </c>
+      <c r="F698" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G698" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G698" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H698" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H698" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L698" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L698" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A699" s="2" t="e">
+      <c r="A699" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B699" s="2" t="e">
+        <v>52</v>
+      </c>
+      <c r="B699" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C699" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C699" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D699" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E699" s="4" t="e">
+      <c r="E699" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F699" t="e">
+        <v>4</v>
+      </c>
+      <c r="F699" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G699" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G699" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H699" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H699" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L699" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L699" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A700" s="2" t="e">
+      <c r="A700" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B700" s="2" t="e">
+        <v>53</v>
+      </c>
+      <c r="B700" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C700" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C700" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D700" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E700" s="4" t="e">
+      <c r="E700" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F700" t="e">
+        <v>4</v>
+      </c>
+      <c r="F700" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G700" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G700" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H700" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H700" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L700" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L700" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A701" s="2" t="e">
+      <c r="A701" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B701" s="2" t="e">
+        <v>54</v>
+      </c>
+      <c r="B701" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C701" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C701" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D701" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E701" s="4" t="e">
+      <c r="E701" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F701" t="e">
+        <v>4</v>
+      </c>
+      <c r="F701" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G701" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G701" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H701" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H701" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L701" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L701" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A702" s="2" t="e">
+      <c r="A702" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B702" s="2" t="e">
+        <v>55</v>
+      </c>
+      <c r="B702" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C702" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C702" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D702" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E702" s="4" t="e">
+      <c r="E702" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F702" t="e">
+        <v>4</v>
+      </c>
+      <c r="F702" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G702" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G702" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H702" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H702" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L702" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L702" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A703" s="2" t="e">
+      <c r="A703" s="2">
         <f t="shared" si="140"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B703" s="2" t="e">
+        <v>56</v>
+      </c>
+      <c r="B703" s="2">
         <f t="shared" si="141"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C703" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C703" s="5" t="str">
         <f t="shared" si="137"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D703" s="6" t="str">
         <f t="shared" si="138"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E703" s="4" t="e">
+      <c r="E703" s="4">
         <f t="shared" si="142"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F703" t="e">
+        <v>4</v>
+      </c>
+      <c r="F703" t="str">
         <f t="shared" si="143"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G703" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G703" t="str">
         <f t="shared" si="144"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H703" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H703" t="str">
         <f t="shared" si="145"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L703" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L703" s="1" t="str">
         <f t="shared" si="139"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A704" s="2" t="e">
+      <c r="A704" s="2">
         <f t="shared" ref="A704:A761" si="146">+A703+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B704" s="2" t="e">
+        <v>57</v>
+      </c>
+      <c r="B704" s="2">
         <f t="shared" ref="B704:B761" si="147">+B703</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C704" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C704" s="5" t="str">
         <f t="shared" ref="C704:C761" si="148">+F704&amp;" - "&amp;J704</f>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D704" s="6" t="str">
         <f t="shared" ref="D704:D761" si="149">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I704</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E704" s="4" t="e">
+      <c r="E704" s="4">
         <f t="shared" ref="E704:E761" si="150">+E703</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F704" t="e">
+        <v>4</v>
+      </c>
+      <c r="F704" t="str">
         <f t="shared" ref="F704:F761" si="151">+F703</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G704" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G704" t="str">
         <f t="shared" ref="G704:G761" si="152">+G703</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H704" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H704" t="str">
         <f t="shared" ref="H704:H761" si="153">+H703</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L704" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L704" s="1" t="str">
         <f t="shared" ref="L704:L761" si="154">+HYPERLINK(D704,C704)</f>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A705" s="2" t="e">
+      <c r="A705" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B705" s="2" t="e">
+        <v>58</v>
+      </c>
+      <c r="B705" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C705" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C705" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D705" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E705" s="4" t="e">
+      <c r="E705" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F705" t="e">
+        <v>4</v>
+      </c>
+      <c r="F705" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G705" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G705" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H705" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H705" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L705" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L705" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A706" s="2" t="e">
+      <c r="A706" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B706" s="2" t="e">
+        <v>59</v>
+      </c>
+      <c r="B706" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C706" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C706" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D706" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E706" s="4" t="e">
+      <c r="E706" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F706" t="e">
+        <v>4</v>
+      </c>
+      <c r="F706" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G706" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G706" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H706" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H706" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L706" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L706" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A707" s="2" t="e">
+      <c r="A707" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B707" s="2" t="e">
+        <v>60</v>
+      </c>
+      <c r="B707" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C707" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C707" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D707" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E707" s="4" t="e">
+      <c r="E707" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F707" t="e">
+        <v>4</v>
+      </c>
+      <c r="F707" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G707" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G707" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H707" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H707" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L707" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L707" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A708" s="2" t="e">
+      <c r="A708" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B708" s="2" t="e">
+        <v>61</v>
+      </c>
+      <c r="B708" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C708" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C708" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D708" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E708" s="4" t="e">
+      <c r="E708" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F708" t="e">
+        <v>4</v>
+      </c>
+      <c r="F708" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G708" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G708" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H708" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H708" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L708" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L708" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A709" s="2" t="e">
+      <c r="A709" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B709" s="2" t="e">
+        <v>62</v>
+      </c>
+      <c r="B709" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C709" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C709" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D709" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E709" s="4" t="e">
+      <c r="E709" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F709" t="e">
+        <v>4</v>
+      </c>
+      <c r="F709" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G709" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G709" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H709" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H709" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L709" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L709" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A710" s="2" t="e">
+      <c r="A710" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B710" s="2" t="e">
+        <v>63</v>
+      </c>
+      <c r="B710" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C710" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C710" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D710" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E710" s="4" t="e">
+      <c r="E710" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F710" t="e">
+        <v>4</v>
+      </c>
+      <c r="F710" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G710" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G710" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H710" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H710" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L710" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L710" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A711" s="2" t="e">
+      <c r="A711" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B711" s="2" t="e">
+        <v>64</v>
+      </c>
+      <c r="B711" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C711" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C711" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D711" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E711" s="4" t="e">
+      <c r="E711" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F711" t="e">
+        <v>4</v>
+      </c>
+      <c r="F711" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G711" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G711" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H711" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H711" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L711" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L711" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A712" s="2" t="e">
+      <c r="A712" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B712" s="2" t="e">
+        <v>65</v>
+      </c>
+      <c r="B712" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C712" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C712" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D712" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E712" s="4" t="e">
+      <c r="E712" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F712" t="e">
+        <v>4</v>
+      </c>
+      <c r="F712" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G712" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G712" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H712" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H712" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L712" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L712" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A713" s="2" t="e">
+      <c r="A713" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B713" s="2" t="e">
+        <v>66</v>
+      </c>
+      <c r="B713" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C713" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C713" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D713" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E713" s="4" t="e">
+      <c r="E713" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F713" t="e">
+        <v>4</v>
+      </c>
+      <c r="F713" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G713" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G713" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H713" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H713" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L713" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L713" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A714" s="2" t="e">
+      <c r="A714" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B714" s="2" t="e">
+        <v>67</v>
+      </c>
+      <c r="B714" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C714" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C714" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D714" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E714" s="4" t="e">
+      <c r="E714" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F714" t="e">
+        <v>4</v>
+      </c>
+      <c r="F714" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G714" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G714" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H714" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H714" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L714" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L714" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A715" s="2" t="e">
+      <c r="A715" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B715" s="2" t="e">
+        <v>68</v>
+      </c>
+      <c r="B715" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C715" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C715" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D715" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E715" s="4" t="e">
+      <c r="E715" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F715" t="e">
+        <v>4</v>
+      </c>
+      <c r="F715" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G715" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G715" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H715" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H715" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L715" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L715" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A716" s="2" t="e">
+      <c r="A716" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B716" s="2" t="e">
+        <v>69</v>
+      </c>
+      <c r="B716" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C716" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C716" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D716" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E716" s="4" t="e">
+      <c r="E716" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F716" t="e">
+        <v>4</v>
+      </c>
+      <c r="F716" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G716" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G716" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H716" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H716" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L716" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L716" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A717" s="2" t="e">
+      <c r="A717" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B717" s="2" t="e">
+        <v>70</v>
+      </c>
+      <c r="B717" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C717" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C717" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D717" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E717" s="4" t="e">
+      <c r="E717" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F717" t="e">
+        <v>4</v>
+      </c>
+      <c r="F717" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G717" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G717" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H717" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H717" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L717" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L717" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A718" s="2" t="e">
+      <c r="A718" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B718" s="2" t="e">
+        <v>71</v>
+      </c>
+      <c r="B718" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C718" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C718" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D718" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E718" s="4" t="e">
+      <c r="E718" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F718" t="e">
+        <v>4</v>
+      </c>
+      <c r="F718" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G718" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G718" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H718" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H718" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L718" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L718" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A719" s="2" t="e">
+      <c r="A719" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B719" s="2" t="e">
+        <v>72</v>
+      </c>
+      <c r="B719" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C719" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C719" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D719" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E719" s="4" t="e">
+      <c r="E719" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F719" t="e">
+        <v>4</v>
+      </c>
+      <c r="F719" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G719" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G719" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H719" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H719" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L719" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L719" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A720" s="2" t="e">
+      <c r="A720" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B720" s="2" t="e">
+        <v>73</v>
+      </c>
+      <c r="B720" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C720" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C720" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D720" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E720" s="4" t="e">
+      <c r="E720" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F720" t="e">
+        <v>4</v>
+      </c>
+      <c r="F720" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G720" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G720" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H720" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H720" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L720" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L720" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A721" s="2" t="e">
+      <c r="A721" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B721" s="2" t="e">
+        <v>74</v>
+      </c>
+      <c r="B721" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C721" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C721" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D721" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E721" s="4" t="e">
+      <c r="E721" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F721" t="e">
+        <v>4</v>
+      </c>
+      <c r="F721" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G721" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G721" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H721" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H721" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L721" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L721" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A722" s="2" t="e">
+      <c r="A722" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B722" s="2" t="e">
+        <v>75</v>
+      </c>
+      <c r="B722" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C722" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C722" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D722" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E722" s="4" t="e">
+      <c r="E722" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F722" t="e">
+        <v>4</v>
+      </c>
+      <c r="F722" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G722" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G722" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H722" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H722" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L722" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L722" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A723" s="2" t="e">
+      <c r="A723" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B723" s="2" t="e">
+        <v>76</v>
+      </c>
+      <c r="B723" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C723" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C723" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D723" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E723" s="4" t="e">
+      <c r="E723" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F723" t="e">
+        <v>4</v>
+      </c>
+      <c r="F723" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G723" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G723" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H723" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H723" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L723" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L723" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A724" s="2" t="e">
+      <c r="A724" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B724" s="2" t="e">
+        <v>77</v>
+      </c>
+      <c r="B724" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C724" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C724" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D724" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E724" s="4" t="e">
+      <c r="E724" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F724" t="e">
+        <v>4</v>
+      </c>
+      <c r="F724" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G724" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G724" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H724" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H724" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L724" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L724" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A725" s="2" t="e">
+      <c r="A725" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B725" s="2" t="e">
+        <v>78</v>
+      </c>
+      <c r="B725" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C725" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C725" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D725" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E725" s="4" t="e">
+      <c r="E725" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F725" t="e">
+        <v>4</v>
+      </c>
+      <c r="F725" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G725" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G725" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H725" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H725" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L725" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L725" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A726" s="2" t="e">
+      <c r="A726" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B726" s="2" t="e">
+        <v>79</v>
+      </c>
+      <c r="B726" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C726" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C726" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D726" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E726" s="4" t="e">
+      <c r="E726" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F726" t="e">
+        <v>4</v>
+      </c>
+      <c r="F726" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G726" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G726" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H726" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H726" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L726" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L726" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A727" s="2" t="e">
+      <c r="A727" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B727" s="2" t="e">
+        <v>80</v>
+      </c>
+      <c r="B727" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C727" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C727" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D727" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E727" s="4" t="e">
+      <c r="E727" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F727" t="e">
+        <v>4</v>
+      </c>
+      <c r="F727" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G727" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G727" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H727" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H727" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L727" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L727" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A728" s="2" t="e">
+      <c r="A728" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B728" s="2" t="e">
+        <v>81</v>
+      </c>
+      <c r="B728" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C728" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C728" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D728" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E728" s="4" t="e">
+      <c r="E728" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F728" t="e">
+        <v>4</v>
+      </c>
+      <c r="F728" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G728" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G728" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H728" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H728" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L728" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L728" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A729" s="2" t="e">
+      <c r="A729" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B729" s="2" t="e">
+        <v>82</v>
+      </c>
+      <c r="B729" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C729" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C729" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D729" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E729" s="4" t="e">
+      <c r="E729" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F729" t="e">
+        <v>4</v>
+      </c>
+      <c r="F729" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G729" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G729" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H729" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H729" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L729" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L729" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A730" s="2" t="e">
+      <c r="A730" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B730" s="2" t="e">
+        <v>83</v>
+      </c>
+      <c r="B730" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C730" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C730" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D730" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E730" s="4" t="e">
+      <c r="E730" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F730" t="e">
+        <v>4</v>
+      </c>
+      <c r="F730" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G730" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G730" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H730" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H730" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L730" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L730" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A731" s="2" t="e">
+      <c r="A731" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B731" s="2" t="e">
+        <v>84</v>
+      </c>
+      <c r="B731" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C731" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C731" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D731" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E731" s="4" t="e">
+      <c r="E731" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F731" t="e">
+        <v>4</v>
+      </c>
+      <c r="F731" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G731" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G731" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H731" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H731" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L731" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L731" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A732" s="2" t="e">
+      <c r="A732" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B732" s="2" t="e">
+        <v>85</v>
+      </c>
+      <c r="B732" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C732" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C732" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D732" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E732" s="4" t="e">
+      <c r="E732" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F732" t="e">
+        <v>4</v>
+      </c>
+      <c r="F732" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G732" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G732" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H732" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H732" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L732" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L732" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A733" s="2" t="e">
+      <c r="A733" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B733" s="2" t="e">
+        <v>86</v>
+      </c>
+      <c r="B733" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C733" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C733" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D733" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E733" s="4" t="e">
+      <c r="E733" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F733" t="e">
+        <v>4</v>
+      </c>
+      <c r="F733" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G733" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G733" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H733" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H733" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L733" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L733" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A734" s="2" t="e">
+      <c r="A734" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B734" s="2" t="e">
+        <v>87</v>
+      </c>
+      <c r="B734" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C734" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C734" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D734" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E734" s="4" t="e">
+      <c r="E734" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F734" t="e">
+        <v>4</v>
+      </c>
+      <c r="F734" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G734" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G734" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H734" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H734" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L734" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L734" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A735" s="2" t="e">
+      <c r="A735" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B735" s="2" t="e">
+        <v>88</v>
+      </c>
+      <c r="B735" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C735" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C735" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D735" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E735" s="4" t="e">
+      <c r="E735" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F735" t="e">
+        <v>4</v>
+      </c>
+      <c r="F735" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G735" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G735" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H735" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H735" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L735" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L735" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A736" s="2" t="e">
+      <c r="A736" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B736" s="2" t="e">
+        <v>89</v>
+      </c>
+      <c r="B736" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C736" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C736" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D736" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E736" s="4" t="e">
+      <c r="E736" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F736" t="e">
+        <v>4</v>
+      </c>
+      <c r="F736" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G736" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G736" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H736" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H736" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L736" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L736" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A737" s="2" t="e">
+      <c r="A737" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B737" s="2" t="e">
+        <v>90</v>
+      </c>
+      <c r="B737" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C737" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C737" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D737" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E737" s="4" t="e">
+      <c r="E737" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F737" t="e">
+        <v>4</v>
+      </c>
+      <c r="F737" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G737" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G737" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H737" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H737" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L737" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L737" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A738" s="2" t="e">
+      <c r="A738" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B738" s="2" t="e">
+        <v>91</v>
+      </c>
+      <c r="B738" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C738" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C738" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D738" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E738" s="4" t="e">
+      <c r="E738" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F738" t="e">
+        <v>4</v>
+      </c>
+      <c r="F738" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G738" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G738" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H738" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H738" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L738" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L738" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A739" s="2" t="e">
+      <c r="A739" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B739" s="2" t="e">
+        <v>92</v>
+      </c>
+      <c r="B739" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C739" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C739" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D739" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E739" s="4" t="e">
+      <c r="E739" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F739" t="e">
+        <v>4</v>
+      </c>
+      <c r="F739" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G739" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G739" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H739" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H739" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L739" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L739" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A740" s="2" t="e">
+      <c r="A740" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B740" s="2" t="e">
+        <v>93</v>
+      </c>
+      <c r="B740" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C740" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C740" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D740" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E740" s="4" t="e">
+      <c r="E740" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F740" t="e">
+        <v>4</v>
+      </c>
+      <c r="F740" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G740" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G740" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H740" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H740" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L740" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L740" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A741" s="2" t="e">
+      <c r="A741" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B741" s="2" t="e">
+        <v>94</v>
+      </c>
+      <c r="B741" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C741" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C741" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D741" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E741" s="4" t="e">
+      <c r="E741" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F741" t="e">
+        <v>4</v>
+      </c>
+      <c r="F741" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G741" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G741" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H741" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H741" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L741" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L741" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A742" s="2" t="e">
+      <c r="A742" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B742" s="2" t="e">
+        <v>95</v>
+      </c>
+      <c r="B742" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C742" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C742" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D742" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E742" s="4" t="e">
+      <c r="E742" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F742" t="e">
+        <v>4</v>
+      </c>
+      <c r="F742" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G742" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G742" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H742" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H742" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L742" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L742" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A743" s="2" t="e">
+      <c r="A743" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B743" s="2" t="e">
+        <v>96</v>
+      </c>
+      <c r="B743" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C743" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C743" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D743" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E743" s="4" t="e">
+      <c r="E743" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F743" t="e">
+        <v>4</v>
+      </c>
+      <c r="F743" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G743" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G743" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H743" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H743" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L743" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L743" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A744" s="2" t="e">
+      <c r="A744" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B744" s="2" t="e">
+        <v>97</v>
+      </c>
+      <c r="B744" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C744" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C744" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D744" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E744" s="4" t="e">
+      <c r="E744" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F744" t="e">
+        <v>4</v>
+      </c>
+      <c r="F744" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G744" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G744" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H744" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H744" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L744" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L744" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A745" s="2" t="e">
+      <c r="A745" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B745" s="2" t="e">
+        <v>98</v>
+      </c>
+      <c r="B745" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C745" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C745" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D745" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E745" s="4" t="e">
+      <c r="E745" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F745" t="e">
+        <v>4</v>
+      </c>
+      <c r="F745" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G745" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G745" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H745" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H745" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L745" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L745" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A746" s="2" t="e">
+      <c r="A746" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B746" s="2" t="e">
+        <v>99</v>
+      </c>
+      <c r="B746" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C746" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C746" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D746" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E746" s="4" t="e">
+      <c r="E746" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F746" t="e">
+        <v>4</v>
+      </c>
+      <c r="F746" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G746" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G746" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H746" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H746" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L746" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L746" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A747" s="2" t="e">
+      <c r="A747" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B747" s="2" t="e">
+        <v>100</v>
+      </c>
+      <c r="B747" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C747" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C747" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D747" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E747" s="4" t="e">
+      <c r="E747" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F747" t="e">
+        <v>4</v>
+      </c>
+      <c r="F747" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G747" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G747" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H747" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H747" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L747" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L747" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A748" s="2" t="e">
+      <c r="A748" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B748" s="2" t="e">
+        <v>101</v>
+      </c>
+      <c r="B748" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C748" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C748" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D748" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E748" s="4" t="e">
+      <c r="E748" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F748" t="e">
+        <v>4</v>
+      </c>
+      <c r="F748" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G748" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G748" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H748" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H748" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L748" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L748" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A749" s="2" t="e">
+      <c r="A749" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B749" s="2" t="e">
+        <v>102</v>
+      </c>
+      <c r="B749" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C749" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C749" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D749" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E749" s="4" t="e">
+      <c r="E749" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F749" t="e">
+        <v>4</v>
+      </c>
+      <c r="F749" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G749" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G749" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H749" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H749" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L749" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L749" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A750" s="2" t="e">
+      <c r="A750" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B750" s="2" t="e">
+        <v>103</v>
+      </c>
+      <c r="B750" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C750" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C750" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D750" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E750" s="4" t="e">
+      <c r="E750" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F750" t="e">
+        <v>4</v>
+      </c>
+      <c r="F750" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G750" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G750" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H750" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H750" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L750" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L750" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A751" s="2" t="e">
+      <c r="A751" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B751" s="2" t="e">
+        <v>104</v>
+      </c>
+      <c r="B751" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C751" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C751" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D751" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E751" s="4" t="e">
+      <c r="E751" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F751" t="e">
+        <v>4</v>
+      </c>
+      <c r="F751" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G751" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G751" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H751" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H751" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L751" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L751" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A752" s="2" t="e">
+      <c r="A752" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B752" s="2" t="e">
+        <v>105</v>
+      </c>
+      <c r="B752" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C752" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C752" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D752" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E752" s="4" t="e">
+      <c r="E752" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F752" t="e">
+        <v>4</v>
+      </c>
+      <c r="F752" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G752" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G752" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H752" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H752" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L752" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L752" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A753" s="2" t="e">
+      <c r="A753" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B753" s="2" t="e">
+        <v>106</v>
+      </c>
+      <c r="B753" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C753" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C753" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D753" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E753" s="4" t="e">
+      <c r="E753" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F753" t="e">
+        <v>4</v>
+      </c>
+      <c r="F753" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G753" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G753" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H753" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H753" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L753" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L753" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A754" s="2" t="e">
+      <c r="A754" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B754" s="2" t="e">
+        <v>107</v>
+      </c>
+      <c r="B754" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C754" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C754" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D754" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E754" s="4" t="e">
+      <c r="E754" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F754" t="e">
+        <v>4</v>
+      </c>
+      <c r="F754" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G754" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G754" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H754" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H754" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L754" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L754" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A755" s="2" t="e">
+      <c r="A755" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B755" s="2" t="e">
+        <v>108</v>
+      </c>
+      <c r="B755" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C755" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C755" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D755" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E755" s="4" t="e">
+      <c r="E755" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F755" t="e">
+        <v>4</v>
+      </c>
+      <c r="F755" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G755" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G755" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H755" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H755" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L755" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L755" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A756" s="2" t="e">
+      <c r="A756" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B756" s="2" t="e">
+        <v>109</v>
+      </c>
+      <c r="B756" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C756" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C756" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D756" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E756" s="4" t="e">
+      <c r="E756" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F756" t="e">
+        <v>4</v>
+      </c>
+      <c r="F756" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G756" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G756" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H756" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H756" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L756" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L756" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A757" s="2" t="e">
+      <c r="A757" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B757" s="2" t="e">
+        <v>110</v>
+      </c>
+      <c r="B757" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C757" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C757" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D757" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E757" s="4" t="e">
+      <c r="E757" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F757" t="e">
+        <v>4</v>
+      </c>
+      <c r="F757" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G757" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G757" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H757" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H757" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L757" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L757" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A758" s="2" t="e">
+      <c r="A758" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B758" s="2" t="e">
+        <v>111</v>
+      </c>
+      <c r="B758" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C758" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C758" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D758" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E758" s="4" t="e">
+      <c r="E758" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F758" t="e">
+        <v>4</v>
+      </c>
+      <c r="F758" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G758" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G758" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H758" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H758" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L758" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L758" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A759" s="2" t="e">
+      <c r="A759" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B759" s="2" t="e">
+        <v>112</v>
+      </c>
+      <c r="B759" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C759" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C759" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D759" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E759" s="4" t="e">
+      <c r="E759" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F759" t="e">
+        <v>4</v>
+      </c>
+      <c r="F759" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G759" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G759" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H759" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H759" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L759" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L759" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A760" s="2" t="e">
+      <c r="A760" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B760" s="2" t="e">
+        <v>113</v>
+      </c>
+      <c r="B760" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C760" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C760" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D760" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E760" s="4" t="e">
+      <c r="E760" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F760" t="e">
+        <v>4</v>
+      </c>
+      <c r="F760" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G760" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G760" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H760" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H760" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L760" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L760" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
     <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A761" s="2" t="e">
+      <c r="A761" s="2">
         <f t="shared" si="146"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B761" s="2" t="e">
+        <v>114</v>
+      </c>
+      <c r="B761" s="2">
         <f t="shared" si="147"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C761" s="5" t="e">
+        <v>27.17</v>
+      </c>
+      <c r="C761" s="5" t="str">
         <f t="shared" si="148"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
       <c r="D761" s="6" t="str">
         <f t="shared" si="149"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E761" s="4" t="e">
+      <c r="E761" s="4">
         <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F761" t="e">
+        <v>4</v>
+      </c>
+      <c r="F761" t="str">
         <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G761" t="e">
+        <v>II 04</v>
+      </c>
+      <c r="G761" t="str">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H761" t="e">
+        <v>Prevalencia</v>
+      </c>
+      <c r="H761" t="str">
         <f t="shared" si="153"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L761" s="1" t="e">
+        <v>Casos de violencia psicológica</v>
+      </c>
+      <c r="L761" s="1" t="str">
         <f t="shared" si="154"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">II 04 - </v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Y1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35177,7 +35230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F00ED9-3952-4B35-81D2-83748AB1C51C}">
   <dimension ref="A10:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25:I28"/>
     </sheetView>
   </sheetViews>

--- a/Control Calidad - DATAMUJERES-Violencia.xlsx
+++ b/Control Calidad - DATAMUJERES-Violencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93762F0-D722-4DE8-A968-07EC8AB128E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8499E53-0D95-4C28-9591-BBB6D2A93495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Violencia" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="297">
   <si>
     <t>Link</t>
   </si>
@@ -927,6 +927,27 @@
   <si>
     <t>ajustar</t>
   </si>
+  <si>
+    <t>revisar</t>
+  </si>
+  <si>
+    <t>widget de proporción víctimas mujeres (1.6%)</t>
+  </si>
+  <si>
+    <t>widget</t>
+  </si>
+  <si>
+    <t>duda</t>
+  </si>
+  <si>
+    <t>sacarlo</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>Gráfico 5 está pegado</t>
+  </si>
 </sst>
 </file>
 
@@ -1182,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1494,9 +1515,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1763,7 +1781,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:colOff>46355</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
@@ -1771,7 +1789,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>535305</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144146</xdr:rowOff>
+      <xdr:rowOff>140971</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1841,15 +1859,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
+      <xdr:colOff>45085</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65406</xdr:rowOff>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>772795</xdr:colOff>
+      <xdr:colOff>769620</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>125096</xdr:rowOff>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2335,7 +2353,7 @@
   <autoFilter ref="A10:Z761" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}">
     <filterColumn colId="1">
       <filters>
-        <filter val="27.5"/>
+        <filter val="27.8"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2737,10 +2755,10 @@
   <dimension ref="A1:Z761"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="J525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="J133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L561" sqref="L561"/>
+      <selection pane="bottomRight" activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,7 +3159,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -3185,7 +3203,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -3229,7 +3247,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -3269,11 +3287,11 @@
         <v>16</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>+HYPERLINK(D19,C19)</f>
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -3317,7 +3335,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -3361,7 +3379,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f>+A21+1</f>
         <v>10</v>
@@ -3405,7 +3423,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -3449,7 +3467,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -3493,7 +3511,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -3537,7 +3555,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -3581,7 +3599,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -3625,7 +3643,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -3669,7 +3687,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>1</v>
       </c>
@@ -3710,8 +3728,35 @@
         <f t="shared" si="5"/>
         <v>II 01 - Tarapacá</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" t="s">
+        <v>289</v>
+      </c>
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" t="s">
+        <v>293</v>
+      </c>
+      <c r="T29" t="s">
+        <v>287</v>
+      </c>
+      <c r="U29" t="s">
+        <v>294</v>
+      </c>
+      <c r="V29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -3755,7 +3800,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -3799,7 +3844,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -4550,7 +4595,7 @@
         <v>II 01 - Casas de Acogida</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="53">
         <v>1</v>
       </c>
@@ -4591,7 +4636,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <f t="shared" si="16"/>
         <v>2</v>
@@ -4635,7 +4680,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -4679,7 +4724,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -4723,7 +4768,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
@@ -4767,7 +4812,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -4811,7 +4856,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <f t="shared" si="16"/>
         <v>7</v>
@@ -4855,7 +4900,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
@@ -4899,7 +4944,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
@@ -4943,7 +4988,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
@@ -4987,7 +5032,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
@@ -5031,7 +5076,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
@@ -5075,7 +5120,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <f t="shared" si="16"/>
         <v>13</v>
@@ -5119,7 +5164,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -5162,8 +5207,50 @@
         <f t="shared" si="15"/>
         <v>II 01 - Metropolitana</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M62" t="s">
+        <v>57</v>
+      </c>
+      <c r="N62" t="s">
+        <v>58</v>
+      </c>
+      <c r="O62" t="s">
+        <v>289</v>
+      </c>
+      <c r="P62" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>62</v>
+      </c>
+      <c r="R62" t="s">
+        <v>62</v>
+      </c>
+      <c r="S62" t="s">
+        <v>295</v>
+      </c>
+      <c r="T62" t="s">
+        <v>62</v>
+      </c>
+      <c r="U62" t="s">
+        <v>62</v>
+      </c>
+      <c r="V62" t="s">
+        <v>62</v>
+      </c>
+      <c r="W62" t="s">
+        <v>62</v>
+      </c>
+      <c r="X62" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z62" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -5207,7 +5294,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -5251,7 +5338,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -5295,7 +5382,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="53">
         <v>1</v>
       </c>
@@ -5338,7 +5425,7 @@
         <v>II 02 - Juzgado de Garantía de Coquimbo</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <f t="shared" si="16"/>
         <v>2</v>
@@ -5382,7 +5469,7 @@
         <v>II 02 - Juzgado de Garantía de Valparaiso</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -5426,7 +5513,7 @@
         <v>II 02 - Juzgado de Garantía de Viña Del Mar</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -5470,7 +5557,7 @@
         <v>II 02 - Juzgado de Garantía de Rancagua</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
@@ -5514,7 +5601,7 @@
         <v>II 02 - Juzgado de Garantía de San Fernando</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -5558,7 +5645,7 @@
         <v>II 02 - Juzgado de Garantía de Concepcion</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <f t="shared" si="16"/>
         <v>7</v>
@@ -5602,7 +5689,7 @@
         <v>II 02 - Juzgado de Garantía de Los Angeles</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
@@ -5646,7 +5733,7 @@
         <v>II 02 - Juzgado de Garantía de Tome</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
@@ -5690,7 +5777,7 @@
         <v>II 02 - Juzgado de Garantía de Osorno</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
@@ -5734,7 +5821,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Montt</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
@@ -5778,7 +5865,7 @@
         <v>II 02 - Juzgado de Garantía de Punta Arenas</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
@@ -5822,7 +5909,7 @@
         <v>II 02 - 10º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <f t="shared" si="16"/>
         <v>13</v>
@@ -5866,7 +5953,7 @@
         <v>II 02 - 12º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -5910,7 +5997,7 @@
         <v>II 02 - 13º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -5954,7 +6041,7 @@
         <v>II 02 - 14º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -5998,7 +6085,7 @@
         <v>II 02 - 15º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -6042,7 +6129,7 @@
         <v>II 02 - 2º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <f t="shared" si="16"/>
         <v>18</v>
@@ -6086,7 +6173,7 @@
         <v>II 02 - 3º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <f t="shared" si="16"/>
         <v>19</v>
@@ -6130,7 +6217,7 @@
         <v>II 02 - 4º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <f t="shared" si="16"/>
         <v>20</v>
@@ -6174,7 +6261,7 @@
         <v>II 02 - 5º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <f t="shared" si="16"/>
         <v>21</v>
@@ -6218,7 +6305,7 @@
         <v>II 02 - 6º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <f t="shared" si="16"/>
         <v>22</v>
@@ -6262,7 +6349,7 @@
         <v>II 02 - 7º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <f t="shared" si="16"/>
         <v>23</v>
@@ -6306,7 +6393,7 @@
         <v>II 02 - 8º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <f t="shared" si="16"/>
         <v>24</v>
@@ -6350,7 +6437,7 @@
         <v>II 02 - Juzgado de Garantía de Yungay</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <f t="shared" si="16"/>
         <v>25</v>
@@ -6394,7 +6481,7 @@
         <v>II 02 - Juzgado de Garantía de La Serena</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <f t="shared" si="16"/>
         <v>26</v>
@@ -6438,7 +6525,7 @@
         <v>II 02 - Juzgado de Garantía de Ovalle</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <f t="shared" si="16"/>
         <v>27</v>
@@ -6482,7 +6569,7 @@
         <v>II 02 - 9º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <f t="shared" si="16"/>
         <v>28</v>
@@ -6526,7 +6613,7 @@
         <v>II 02 - Juzgado de Garantía de Pitrufquen</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <f t="shared" si="16"/>
         <v>29</v>
@@ -6570,7 +6657,7 @@
         <v>II 02 - 11º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <f t="shared" si="16"/>
         <v>30</v>
@@ -6614,7 +6701,7 @@
         <v>II 02 - 1º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <f t="shared" si="16"/>
         <v>31</v>
@@ -6658,7 +6745,7 @@
         <v>II 02 - Juzgado de Garantía de Antofagasta</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <f t="shared" si="16"/>
         <v>32</v>
@@ -6702,7 +6789,7 @@
         <v>II 02 - Juzgado de Garantía de Illapel</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <f t="shared" si="16"/>
         <v>33</v>
@@ -6746,7 +6833,7 @@
         <v>II 02 - Juzgado de Garantía de Calera</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <f t="shared" si="16"/>
         <v>34</v>
@@ -6790,7 +6877,7 @@
         <v>II 02 - Juzgado de Garantía de Los Andes</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <f t="shared" si="16"/>
         <v>35</v>
@@ -6834,7 +6921,7 @@
         <v>II 02 - Juzgado de Garantía de Quillota</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <f t="shared" si="16"/>
         <v>36</v>
@@ -6878,7 +6965,7 @@
         <v>II 02 - Juzgado de Garantía de Cauquenes</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <f t="shared" si="16"/>
         <v>37</v>
@@ -6922,7 +7009,7 @@
         <v>II 02 - Juzgado de Garantía de San Javier</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <f t="shared" si="16"/>
         <v>38</v>
@@ -6966,7 +7053,7 @@
         <v>II 02 - Juzgado de Garantía de Talca</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <f t="shared" si="16"/>
         <v>39</v>
@@ -7010,7 +7097,7 @@
         <v>II 02 - Juzgado de Garantía de Cañete</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <f t="shared" si="16"/>
         <v>40</v>
@@ -7054,7 +7141,7 @@
         <v>II 02 - Juzgado de Garantía de Talcahuano</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <f t="shared" si="16"/>
         <v>41</v>
@@ -7098,7 +7185,7 @@
         <v>II 02 - Juzgado de Garantía de Temuco</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <f t="shared" si="16"/>
         <v>42</v>
@@ -7142,7 +7229,7 @@
         <v>II 02 - Juzgado de Garantía de Castro</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <f t="shared" si="16"/>
         <v>43</v>
@@ -7186,7 +7273,7 @@
         <v>II 02 - Juzgado de Garantía de Arica</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <f t="shared" si="16"/>
         <v>44</v>
@@ -7230,7 +7317,7 @@
         <v>II 02 - Juzgado de Garantía de Iquique</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <f t="shared" si="16"/>
         <v>45</v>
@@ -7274,7 +7361,7 @@
         <v>II 02 - Juzgado de Garantía de Calama</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <f t="shared" ref="A111:A177" si="24">+A110+1</f>
         <v>46</v>
@@ -7318,7 +7405,7 @@
         <v>II 02 - Juzgado de Garantía de Tocopilla</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <f t="shared" si="24"/>
         <v>47</v>
@@ -7362,7 +7449,7 @@
         <v>II 02 - Juzgado de Garantía de Copiapo</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <f t="shared" si="24"/>
         <v>48</v>
@@ -7406,7 +7493,7 @@
         <v>II 02 - Juzgado de Garantía de Diego de Almagro</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <f t="shared" si="24"/>
         <v>49</v>
@@ -7450,7 +7537,7 @@
         <v>II 02 - Juzgado de Garantía de Vallenar</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <f t="shared" si="24"/>
         <v>50</v>
@@ -7494,7 +7581,7 @@
         <v>II 02 - Juzgado de Garantía de Vicuña</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <f t="shared" si="24"/>
         <v>51</v>
@@ -7538,7 +7625,7 @@
         <v>II 02 - Juzgado de Garantía de La Ligua</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <f t="shared" si="24"/>
         <v>52</v>
@@ -7582,7 +7669,7 @@
         <v>II 02 - Juzgado de Garantía de Limache</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <f t="shared" si="24"/>
         <v>53</v>
@@ -7626,7 +7713,7 @@
         <v>II 02 - Juzgado de Garantía de Quilpue</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <f t="shared" si="24"/>
         <v>54</v>
@@ -7670,7 +7757,7 @@
         <v>II 02 - Juzgado de Garantía de San Felipe</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <f t="shared" si="24"/>
         <v>55</v>
@@ -7714,7 +7801,7 @@
         <v>II 02 - Juzgado de Garantía de Villa Alemana</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <f t="shared" si="24"/>
         <v>56</v>
@@ -7758,7 +7845,7 @@
         <v>II 02 - Juzgado de Garantía de Graneros</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <f t="shared" si="24"/>
         <v>57</v>
@@ -7802,7 +7889,7 @@
         <v>II 02 - Juzgado de Garantía de Rengo</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <f t="shared" si="24"/>
         <v>58</v>
@@ -7846,7 +7933,7 @@
         <v>II 02 - Juzgado de Garantía de San Vicente</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <f t="shared" si="24"/>
         <v>59</v>
@@ -7890,7 +7977,7 @@
         <v>II 02 - Juzgado de Garantía de Santa Cruz</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <f t="shared" si="24"/>
         <v>60</v>
@@ -7934,7 +8021,7 @@
         <v>II 02 - Juzgado de Garantía de Constitucion</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <f t="shared" si="24"/>
         <v>61</v>
@@ -7978,7 +8065,7 @@
         <v>II 02 - Juzgado de Garantía de Curico</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <f t="shared" si="24"/>
         <v>62</v>
@@ -8022,7 +8109,7 @@
         <v>II 02 - Juzgado de Garantía de Linares</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <f t="shared" si="24"/>
         <v>63</v>
@@ -8066,7 +8153,7 @@
         <v>II 02 - Juzgado de Garantía de Molina</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <f t="shared" si="24"/>
         <v>64</v>
@@ -8110,7 +8197,7 @@
         <v>II 02 - Juzgado de Garantía de Parral</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <f t="shared" si="24"/>
         <v>65</v>
@@ -8154,7 +8241,7 @@
         <v>II 02 - Juzgado de Garantía de Arauco</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <f t="shared" si="24"/>
         <v>66</v>
@@ -8198,7 +8285,7 @@
         <v>II 02 - Juzgado de Garantía de Chiguayante</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <f t="shared" si="24"/>
         <v>67</v>
@@ -8242,7 +8329,7 @@
         <v>II 02 - Juzgado de Garantía de Coronel</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <f t="shared" si="24"/>
         <v>68</v>
@@ -8286,7 +8373,7 @@
         <v>II 02 - Juzgado de Garantía de Angol</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <f t="shared" si="24"/>
         <v>69</v>
@@ -8330,7 +8417,7 @@
         <v>II 02 - Juzgado de Garantía de Lautaro</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <f t="shared" si="24"/>
         <v>70</v>
@@ -8374,7 +8461,7 @@
         <v>II 02 - Juzgado de Garantía de Loncoche</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <f t="shared" si="24"/>
         <v>71</v>
@@ -8418,7 +8505,7 @@
         <v>II 02 - Juzgado de Garantía de Nueva Imperial</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <f t="shared" si="24"/>
         <v>72</v>
@@ -8462,7 +8549,7 @@
         <v>II 02 - Juzgado de Garantía de Victoria</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <f t="shared" si="24"/>
         <v>73</v>
@@ -8506,7 +8593,7 @@
         <v>II 02 - Juzgado de Garantía de Villarrica</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <f t="shared" si="24"/>
         <v>74</v>
@@ -8550,7 +8637,7 @@
         <v>II 02 - Juzgado de Garantía de Ancud</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <f t="shared" si="24"/>
         <v>75</v>
@@ -8594,7 +8681,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Varas</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <f t="shared" si="24"/>
         <v>76</v>
@@ -8638,7 +8725,7 @@
         <v>II 02 - Juzgado de Garantía de Rio Negro</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <f t="shared" si="24"/>
         <v>77</v>
@@ -8682,7 +8769,7 @@
         <v>II 02 - Juzgado de Garantía de Coyhaique</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <f t="shared" si="24"/>
         <v>78</v>
@@ -8726,7 +8813,7 @@
         <v>II 02 - Juzgado de Garantía de Los Lagos</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <f t="shared" si="24"/>
         <v>79</v>
@@ -8770,7 +8857,7 @@
         <v>II 02 - Juzgado de Garantía de Mariquina</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <f t="shared" si="24"/>
         <v>80</v>
@@ -8814,7 +8901,7 @@
         <v>II 02 - Juzgado de Garantía de Valdivia</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <f t="shared" si="24"/>
         <v>81</v>
@@ -8858,7 +8945,7 @@
         <v>II 02 - Juzgado de Garantía de Chillan</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <f t="shared" si="24"/>
         <v>82</v>
@@ -8902,7 +8989,7 @@
         <v>II 02 - Juzgado de Garantía de San Carlos</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="53">
         <v>1</v>
       </c>
@@ -8944,7 +9031,7 @@
         <v>II 03 - Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <f t="shared" si="24"/>
         <v>2</v>
@@ -8988,7 +9075,7 @@
         <v>II 03 - Violación</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -9032,7 +9119,7 @@
         <v>II 03 - Violación De Mayor De 14 Años</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -9076,7 +9163,7 @@
         <v>II 03 - Violación De Menor De 14 Años</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <f t="shared" si="24"/>
         <v>5</v>
@@ -9120,7 +9207,7 @@
         <v>II 03 - Violación Con Homicidio O Femicidio</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <f t="shared" si="24"/>
         <v>6</v>
@@ -25641,7 +25728,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <f t="shared" si="101"/>
         <v>5</v>
@@ -25685,7 +25772,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <f t="shared" si="101"/>
         <v>6</v>
@@ -25729,7 +25816,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <f t="shared" si="101"/>
         <v>7</v>
@@ -25773,7 +25860,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <f t="shared" si="101"/>
         <v>8</v>
@@ -25817,7 +25904,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <f t="shared" si="101"/>
         <v>9</v>
@@ -25861,7 +25948,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <f t="shared" si="101"/>
         <v>10</v>
@@ -25905,7 +25992,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <f t="shared" si="101"/>
         <v>11</v>
@@ -25949,7 +26036,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <f t="shared" si="101"/>
         <v>12</v>
@@ -25993,7 +26080,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <f t="shared" si="101"/>
         <v>13</v>
@@ -26037,7 +26124,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <f t="shared" si="101"/>
         <v>14</v>
@@ -26081,7 +26168,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <f t="shared" si="101"/>
         <v>15</v>
@@ -26125,7 +26212,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <f t="shared" si="101"/>
         <v>16</v>
@@ -26169,7 +26256,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <f t="shared" si="101"/>
         <v>17</v>
@@ -26213,7 +26300,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="110">
         <v>1</v>
       </c>
@@ -26254,8 +26341,50 @@
         <f t="shared" si="108"/>
         <v>II 01 - Tarapacá</v>
       </c>
-    </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M542" t="s">
+        <v>57</v>
+      </c>
+      <c r="N542" t="s">
+        <v>58</v>
+      </c>
+      <c r="O542" t="s">
+        <v>289</v>
+      </c>
+      <c r="P542" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q542" t="s">
+        <v>62</v>
+      </c>
+      <c r="R542" t="s">
+        <v>62</v>
+      </c>
+      <c r="S542" t="s">
+        <v>62</v>
+      </c>
+      <c r="T542" t="s">
+        <v>287</v>
+      </c>
+      <c r="U542" t="s">
+        <v>62</v>
+      </c>
+      <c r="V542" t="s">
+        <v>62</v>
+      </c>
+      <c r="W542" t="s">
+        <v>62</v>
+      </c>
+      <c r="X542" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y542" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z542" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="543" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -26299,7 +26428,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -26959,7 +27088,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="115">
         <v>1</v>
       </c>
@@ -26970,30 +27099,30 @@
         <f t="shared" si="103"/>
         <v>II 01 - Tarapacá</v>
       </c>
-      <c r="D559" s="117" t="str">
+      <c r="D559" s="74" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D"&amp;I559</f>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D1</v>
       </c>
-      <c r="E559" s="118">
+      <c r="E559" s="117">
         <f t="shared" si="104"/>
         <v>16</v>
       </c>
-      <c r="F559" s="119" t="s">
+      <c r="F559" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G559" s="119" t="s">
+      <c r="G559" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="H559" s="119" t="s">
+      <c r="H559" s="118" t="s">
         <v>262</v>
       </c>
       <c r="I559" s="115">
         <v>1</v>
       </c>
-      <c r="J559" s="119" t="s">
+      <c r="J559" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="K559" s="119" t="s">
+      <c r="K559" s="118" t="s">
         <v>263</v>
       </c>
       <c r="L559" s="1" t="str">
@@ -27001,7 +27130,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -27014,7 +27143,7 @@
         <f t="shared" si="103"/>
         <v>II 01 - Antofagasta</v>
       </c>
-      <c r="D560" s="23" t="str">
+      <c r="D560" s="74" t="str">
         <f t="shared" ref="D560:D575" si="114">+"https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D"&amp;I560</f>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D2</v>
       </c>
@@ -27045,7 +27174,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -27058,7 +27187,7 @@
         <f t="shared" si="103"/>
         <v>II 01 - Atacama</v>
       </c>
-      <c r="D561" s="23" t="str">
+      <c r="D561" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D3</v>
       </c>
@@ -27089,7 +27218,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <f t="shared" ref="A562:A625" si="115">+A561+1</f>
         <v>4</v>
@@ -27102,7 +27231,7 @@
         <f t="shared" ref="C562:C625" si="117">+F562&amp;" - "&amp;J562</f>
         <v>II 01 - Coquimbo</v>
       </c>
-      <c r="D562" s="23" t="str">
+      <c r="D562" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D4</v>
       </c>
@@ -27133,7 +27262,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -27146,7 +27275,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Valparaíso</v>
       </c>
-      <c r="D563" s="23" t="str">
+      <c r="D563" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D5</v>
       </c>
@@ -27177,7 +27306,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -27190,7 +27319,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - O'Higgins</v>
       </c>
-      <c r="D564" s="23" t="str">
+      <c r="D564" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D6</v>
       </c>
@@ -27221,7 +27350,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -27234,7 +27363,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Maule</v>
       </c>
-      <c r="D565" s="23" t="str">
+      <c r="D565" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D7</v>
       </c>
@@ -27265,7 +27394,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -27278,7 +27407,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Biobío</v>
       </c>
-      <c r="D566" s="23" t="str">
+      <c r="D566" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D8</v>
       </c>
@@ -27309,7 +27438,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -27322,7 +27451,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Araucanía</v>
       </c>
-      <c r="D567" s="23" t="str">
+      <c r="D567" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D9</v>
       </c>
@@ -27353,7 +27482,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -27366,7 +27495,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - La Araucanía</v>
       </c>
-      <c r="D568" s="23" t="str">
+      <c r="D568" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D9</v>
       </c>
@@ -27397,7 +27526,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -27410,7 +27539,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Los Lagos</v>
       </c>
-      <c r="D569" s="23" t="str">
+      <c r="D569" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D10</v>
       </c>
@@ -27441,7 +27570,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -27454,7 +27583,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Aysén</v>
       </c>
-      <c r="D570" s="23" t="str">
+      <c r="D570" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D11</v>
       </c>
@@ -27485,7 +27614,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -27498,7 +27627,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Magallanes</v>
       </c>
-      <c r="D571" s="23" t="str">
+      <c r="D571" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D12</v>
       </c>
@@ -27529,7 +27658,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -27542,7 +27671,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Metropolitana</v>
       </c>
-      <c r="D572" s="23" t="str">
+      <c r="D572" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D13</v>
       </c>
@@ -27573,7 +27702,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -27586,7 +27715,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Los Ríos</v>
       </c>
-      <c r="D573" s="23" t="str">
+      <c r="D573" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D14</v>
       </c>
@@ -27617,7 +27746,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -27630,7 +27759,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Arica y Parinacota</v>
       </c>
-      <c r="D574" s="23" t="str">
+      <c r="D574" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D15</v>
       </c>
@@ -27661,7 +27790,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <f t="shared" si="115"/>
         <v>17</v>
@@ -27674,7 +27803,7 @@
         <f t="shared" si="117"/>
         <v>II 01 - Ñuble</v>
       </c>
-      <c r="D575" s="23" t="str">
+      <c r="D575" s="74" t="str">
         <f t="shared" si="114"/>
         <v>https://analytics.zoho.com/open-view/2395394000007350212?ZOHO_CRITERIA=%22Trasposicion_27.5%22.%22Cod_Regi%C3%B3n%22%3D16</v>
       </c>
@@ -27706,40 +27835,40 @@
       </c>
     </row>
     <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A576" s="120">
+      <c r="A576" s="119">
         <v>1</v>
       </c>
-      <c r="B576" s="125" t="s">
+      <c r="B576" s="124" t="s">
         <v>264</v>
       </c>
-      <c r="C576" s="121" t="str">
+      <c r="C576" s="120" t="str">
         <f t="shared" si="117"/>
         <v>II 01 - Tarapacá</v>
       </c>
-      <c r="D576" s="122" t="str">
+      <c r="D576" s="121" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007379990?ZOHO_CRITERIA=%2227.10%22.%22Cantidad%20de%20Atenciones%22%20%3E%200.99%20and%20%2227.10%22.%22Id_Regi%C3%B3n%22%20%3D%20"&amp;I576</f>
         <v>https://analytics.zoho.com/open-view/2395394000007379990?ZOHO_CRITERIA=%2227.10%22.%22Cantidad%20de%20Atenciones%22%20%3E%200.99%20and%20%2227.10%22.%22Id_Regi%C3%B3n%22%20%3D%201</v>
       </c>
-      <c r="E576" s="123">
+      <c r="E576" s="122">
         <f t="shared" si="118"/>
         <v>16</v>
       </c>
-      <c r="F576" s="124" t="s">
+      <c r="F576" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="G576" s="124" t="s">
+      <c r="G576" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="H576" s="124" t="s">
+      <c r="H576" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="I576" s="120">
+      <c r="I576" s="119">
         <v>1</v>
       </c>
-      <c r="J576" s="124" t="s">
+      <c r="J576" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="K576" s="124" t="s">
+      <c r="K576" s="123" t="s">
         <v>267</v>
       </c>
       <c r="L576" s="1" t="str">
@@ -28408,41 +28537,41 @@
       </c>
     </row>
     <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A592" s="120">
+      <c r="A592" s="119">
         <v>1</v>
       </c>
-      <c r="B592" s="120" t="str">
+      <c r="B592" s="119" t="str">
         <f t="shared" si="116"/>
         <v>27.10</v>
       </c>
-      <c r="C592" s="121" t="str">
+      <c r="C592" s="120" t="str">
         <f t="shared" si="117"/>
         <v>II 02 - Tarapacá</v>
       </c>
-      <c r="D592" s="122" t="str">
+      <c r="D592" s="121" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007355401?ZOHO_CRITERIA=%2227.10%22.%22Cantidad%20de%20Atenciones%22%20%3E%200.99%20and%20%2227.10%22.%22Id_Categor%C3%ADa%22%20%3D%20"&amp;I592</f>
         <v>https://analytics.zoho.com/open-view/2395394000007355401?ZOHO_CRITERIA=%2227.10%22.%22Cantidad%20de%20Atenciones%22%20%3E%200.99%20and%20%2227.10%22.%22Id_Categor%C3%ADa%22%20%3D%201</v>
       </c>
-      <c r="E592" s="123">
+      <c r="E592" s="122">
         <f t="shared" si="118"/>
         <v>16</v>
       </c>
-      <c r="F592" s="124" t="s">
+      <c r="F592" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="G592" s="124" t="s">
+      <c r="G592" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="H592" s="124" t="s">
+      <c r="H592" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="I592" s="120">
+      <c r="I592" s="119">
         <v>1</v>
       </c>
-      <c r="J592" s="124" t="s">
+      <c r="J592" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="K592" s="124" t="s">
+      <c r="K592" s="123" t="s">
         <v>268</v>
       </c>
       <c r="L592" s="1" t="str">
@@ -29111,40 +29240,40 @@
       </c>
     </row>
     <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A608" s="126">
+      <c r="A608" s="125">
         <v>1</v>
       </c>
-      <c r="B608" s="126">
+      <c r="B608" s="125">
         <v>27.17</v>
       </c>
-      <c r="C608" s="127" t="str">
+      <c r="C608" s="126" t="str">
         <f t="shared" si="117"/>
         <v>II 01 - Tarapacá</v>
       </c>
-      <c r="D608" s="128" t="str">
+      <c r="D608" s="127" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%20"&amp;I608</f>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%201</v>
       </c>
-      <c r="E608" s="129">
+      <c r="E608" s="128">
         <f t="shared" si="118"/>
         <v>16</v>
       </c>
-      <c r="F608" s="130" t="s">
+      <c r="F608" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="G608" s="130" t="s">
+      <c r="G608" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H608" s="130" t="s">
+      <c r="H608" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="I608" s="126">
+      <c r="I608" s="125">
         <v>1</v>
       </c>
-      <c r="J608" s="130" t="s">
+      <c r="J608" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="K608" s="130" t="s">
+      <c r="K608" s="129" t="s">
         <v>277</v>
       </c>
       <c r="L608" s="1" t="str">
@@ -29813,40 +29942,40 @@
       </c>
     </row>
     <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A624" s="126">
+      <c r="A624" s="125">
         <v>1</v>
       </c>
-      <c r="B624" s="126">
+      <c r="B624" s="125">
         <f t="shared" si="116"/>
         <v>27.17</v>
       </c>
-      <c r="C624" s="127" t="str">
+      <c r="C624" s="126" t="str">
         <f t="shared" si="117"/>
         <v>II 02 - Prevalencia Violencia Psicológica General Año</v>
       </c>
-      <c r="D624" s="128" t="str">
+      <c r="D624" s="127" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007354316?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Id%20prevalencia%22%20%3D%20"&amp;I624</f>
         <v>https://analytics.zoho.com/open-view/2395394000007354316?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Id%20prevalencia%22%20%3D%201</v>
       </c>
-      <c r="E624" s="129">
+      <c r="E624" s="128">
         <v>4</v>
       </c>
-      <c r="F624" s="130" t="s">
+      <c r="F624" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="G624" s="130" t="s">
+      <c r="G624" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="H624" s="130" t="s">
+      <c r="H624" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="I624" s="126">
+      <c r="I624" s="125">
         <v>1</v>
       </c>
-      <c r="J624" s="130" t="s">
+      <c r="J624" s="129" t="s">
         <v>273</v>
       </c>
-      <c r="K624" s="130" t="s">
+      <c r="K624" s="129" t="s">
         <v>278</v>
       </c>
       <c r="L624" s="1" t="str">
@@ -29987,40 +30116,40 @@
       </c>
     </row>
     <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A628" s="126">
+      <c r="A628" s="125">
         <v>1</v>
       </c>
-      <c r="B628" s="126">
+      <c r="B628" s="125">
         <f t="shared" si="128"/>
         <v>27.17</v>
       </c>
-      <c r="C628" s="127" t="str">
+      <c r="C628" s="126" t="str">
         <f t="shared" si="129"/>
         <v>II 03 - Tarapacá</v>
       </c>
-      <c r="D628" s="128" t="str">
+      <c r="D628" s="127" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%20"&amp;I628</f>
         <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%201</v>
       </c>
-      <c r="E628" s="129">
-        <v>16</v>
-      </c>
-      <c r="F628" s="130" t="s">
+      <c r="E628" s="128">
+        <v>16</v>
+      </c>
+      <c r="F628" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="G628" s="130" t="s">
+      <c r="G628" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H628" s="130" t="s">
+      <c r="H628" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="I628" s="126">
+      <c r="I628" s="125">
         <v>1</v>
       </c>
-      <c r="J628" s="130" t="s">
+      <c r="J628" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="K628" s="130" t="s">
+      <c r="K628" s="129" t="s">
         <v>279</v>
       </c>
       <c r="L628" s="1" t="str">
@@ -30689,40 +30818,40 @@
       </c>
     </row>
     <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A644" s="126">
+      <c r="A644" s="125">
         <v>1</v>
       </c>
-      <c r="B644" s="126">
+      <c r="B644" s="125">
         <f t="shared" si="128"/>
         <v>27.17</v>
       </c>
-      <c r="C644" s="127" t="str">
+      <c r="C644" s="126" t="str">
         <f t="shared" si="129"/>
         <v>II 04 - Prevalencia Violencia Psicológica General Año</v>
       </c>
-      <c r="D644" s="128" t="str">
+      <c r="D644" s="127" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000007410599?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Id%20prevalencia%22%20%3D%20"&amp;I644</f>
         <v>https://analytics.zoho.com/open-view/2395394000007410599?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Id%20prevalencia%22%20%3D%201</v>
       </c>
-      <c r="E644" s="129">
+      <c r="E644" s="128">
         <v>4</v>
       </c>
-      <c r="F644" s="130" t="s">
+      <c r="F644" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="G644" s="130" t="s">
+      <c r="G644" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="H644" s="130" t="s">
+      <c r="H644" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="I644" s="126">
+      <c r="I644" s="125">
         <v>1</v>
       </c>
-      <c r="J644" s="130" t="s">
+      <c r="J644" s="129" t="s">
         <v>273</v>
       </c>
-      <c r="K644" s="130" t="s">
+      <c r="K644" s="129" t="s">
         <v>280</v>
       </c>
       <c r="L644" s="1" t="str">
@@ -30863,40 +30992,40 @@
       </c>
     </row>
     <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A648" s="131">
+      <c r="A648" s="130">
         <v>1</v>
       </c>
-      <c r="B648" s="131">
+      <c r="B648" s="130">
         <f>+B647</f>
         <v>27.17</v>
       </c>
-      <c r="C648" s="132" t="str">
+      <c r="C648" s="131" t="str">
         <f t="shared" ref="C648:C703" si="137">+F648&amp;" - "&amp;J648</f>
         <v xml:space="preserve">II 04 - </v>
       </c>
-      <c r="D648" s="133" t="str">
+      <c r="D648" s="132" t="str">
         <f t="shared" ref="D648:D703" si="138">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I648</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
-      <c r="E648" s="134">
+      <c r="E648" s="133">
         <f>+E644</f>
         <v>4</v>
       </c>
-      <c r="F648" s="135" t="str">
+      <c r="F648" s="134" t="str">
         <f>+F644</f>
         <v>II 04</v>
       </c>
-      <c r="G648" s="135" t="str">
+      <c r="G648" s="134" t="str">
         <f>+G644</f>
         <v>Prevalencia</v>
       </c>
-      <c r="H648" s="135" t="str">
+      <c r="H648" s="134" t="str">
         <f>+H644</f>
         <v>Casos de violencia psicológica</v>
       </c>
-      <c r="I648" s="131"/>
-      <c r="J648" s="135"/>
-      <c r="K648" s="135"/>
+      <c r="I648" s="130"/>
+      <c r="J648" s="134"/>
+      <c r="K648" s="134"/>
       <c r="L648" s="1" t="str">
         <f t="shared" ref="L648:L703" si="139">+HYPERLINK(D648,C648)</f>
         <v xml:space="preserve">II 04 - </v>

--- a/Control Calidad - DATAMUJERES-Violencia.xlsx
+++ b/Control Calidad - DATAMUJERES-Violencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EC7A4C-BC96-4C84-8079-F68F3133D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF00C9-F62E-46FC-B279-75EA762730DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Violencia" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="315">
   <si>
     <t>Link</t>
   </si>
@@ -978,6 +978,30 @@
   <si>
     <t>20.20</t>
   </si>
+  <si>
+    <t>Tasa de mujeres que sufren violencia a escala regional || Chile || periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>Tasa de violencia</t>
+  </si>
+  <si>
+    <t>Tasa de mujeres que sufren violencia || Chile || periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007666232</t>
+  </si>
+  <si>
+    <t>Tasa por 100 mil mujeres que sufren violencia psicológica por Región, para el Periodo 2012-2020.</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007499357?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99</t>
+  </si>
+  <si>
+    <t>Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</t>
+  </si>
 </sst>
 </file>
 
@@ -1599,7 +1623,330 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1786,6 +2133,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFCCCC00"/>
       <color rgb="FF339966"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFCC9900"/>
@@ -1793,7 +2141,6 @@
       <color rgb="FF33CCCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFCCCC00"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -2053,15 +2400,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
+      <xdr:colOff>160655</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144146</xdr:rowOff>
+      <xdr:rowOff>140971</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2133,11 +2480,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>168910</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46356</xdr:rowOff>
+      <xdr:rowOff>49531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>315595</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112396</xdr:rowOff>
     </xdr:to>
@@ -2209,13 +2556,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2382,22 +2729,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}" name="Tabla1" displayName="Tabla1" ref="A10:Z768" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}" name="Tabla1" displayName="Tabla1" ref="A10:Z768" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="A10:Z768" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{9405359C-2D08-4927-8309-AD9E156D9026}" name="Corr" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{9405359C-2D08-4927-8309-AD9E156D9026}" name="Corr" dataDxfId="43">
       <calculatedColumnFormula>+A10+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6916B56A-1FFB-47BD-AB36-C9A1F4A1884F}" name="Tabla Madre" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{6916B56A-1FFB-47BD-AB36-C9A1F4A1884F}" name="Tabla Madre" dataDxfId="42">
       <calculatedColumnFormula>+B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B08D57A8-E4F6-4FC0-AA6C-FF06B6F6F3AD}" name="Informe" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{B08D57A8-E4F6-4FC0-AA6C-FF06B6F6F3AD}" name="Informe" dataDxfId="41">
       <calculatedColumnFormula>+F11&amp;" - "&amp;J11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4492D037-8C82-4A30-94B4-E87C336E7F84}" name="Link" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{4492D037-8C82-4A30-94B4-E87C336E7F84}" name="Link" dataDxfId="40">
       <calculatedColumnFormula>+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D01B13B5-7D0C-4839-9CEA-E2750FCB0A15}" name="n" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{D01B13B5-7D0C-4839-9CEA-E2750FCB0A15}" name="n" dataDxfId="39">
       <calculatedColumnFormula>+E10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{A77C718B-68FC-4AEF-8628-75AB8ED02148}" name="Tipo Gráfico">
@@ -2409,7 +2756,7 @@
     <tableColumn id="8" xr3:uid="{A05ABD01-363D-469E-BC6E-DFA18A48460B}" name="MOVIL">
       <calculatedColumnFormula>+H10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{379B7179-374F-40B7-A6A4-EEB465D3F44C}" name="ID FILTRO" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{379B7179-374F-40B7-A6A4-EEB465D3F44C}" name="ID FILTRO" dataDxfId="38"/>
     <tableColumn id="10" xr3:uid="{301DB08E-353F-4613-B84F-C3785CA0ECB2}" name="DESCRIPCION FILTRO"/>
     <tableColumn id="24" xr3:uid="{E2E0E145-C64C-46D1-A0D3-B4110A165F85}" name="TÍTULO"/>
     <tableColumn id="11" xr3:uid="{61C8F038-F680-4E4C-A469-5287470550AE}" name="LINK COPIADO COMO TEXTO" dataCellStyle="Hipervínculo">
@@ -2428,29 +2775,29 @@
     <tableColumn id="15" xr3:uid="{BDA73192-7FF4-40A6-A659-15014FD04C96}" name="Separación miles"/>
     <tableColumn id="16" xr3:uid="{4B5A268A-7E38-445B-83D9-7577A5B1ECF7}" name="Sin decimales"/>
     <tableColumn id="25" xr3:uid="{6E9C46C1-C1B6-4151-89B5-8F25EA57823F}" name="widges"/>
-    <tableColumn id="17" xr3:uid="{BDCE3429-9A69-428E-8B05-222179C803BA}" name="Observación" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{BDCE3429-9A69-428E-8B05-222179C803BA}" name="Observación" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}" name="Tabla13" displayName="Tabla13" ref="A10:U37" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}" name="Tabla13" displayName="Tabla13" ref="A10:U37" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A10:U37" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{EE0CEE91-9BF9-45E9-B3F6-D5CF168DC104}" name="Corr" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{EE0CEE91-9BF9-45E9-B3F6-D5CF168DC104}" name="Corr" dataDxfId="49">
       <calculatedColumnFormula>+A10+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{763C848B-35E0-4F75-94EB-67F9CB588602}" name="Tabla Madre" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{763C848B-35E0-4F75-94EB-67F9CB588602}" name="Tabla Madre" dataDxfId="48">
       <calculatedColumnFormula>+B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{74E9E8E8-5783-471B-A382-817661045923}" name="Informe" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{74E9E8E8-5783-471B-A382-817661045923}" name="Informe" dataDxfId="47">
       <calculatedColumnFormula>+F11&amp;" - "&amp;I11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{543015FD-B734-45F7-851D-91014B209BC3}" name="Link" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{543015FD-B734-45F7-851D-91014B209BC3}" name="Link" dataDxfId="46">
       <calculatedColumnFormula>+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A41C7425-CB0B-4741-9894-F0814D0AAB70}" name="n" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{A41C7425-CB0B-4741-9894-F0814D0AAB70}" name="n" dataDxfId="45">
       <calculatedColumnFormula>+E10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{19738F97-30C0-4618-9639-0488ECAA7F9D}" name="Tipo Gráfico">
@@ -2781,11 +3128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6890B1-E2BF-4865-91A1-1A07BA057A6F}">
   <dimension ref="A1:Z768"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C626" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="C669" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E640" sqref="E640"/>
+      <selection pane="bottomRight" activeCell="D686" sqref="D672:D686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31279,39 +31626,48 @@
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A655" s="2">
+      <c r="A655" s="110">
         <v>1</v>
       </c>
-      <c r="B655" s="2">
+      <c r="B655" s="110">
         <v>20.21</v>
       </c>
-      <c r="C655" s="5" t="str">
+      <c r="C655" s="111" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D655" s="6" t="str">
-        <f t="shared" ref="D639:D694" si="143">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I655</f>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
-      </c>
-      <c r="E655" s="4">
+        <v>II 01 - Tarapacá</v>
+      </c>
+      <c r="D655" s="112" t="str">
+        <f>+"https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I655</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%201</v>
+      </c>
+      <c r="E655" s="113">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
-      <c r="F655" t="str">
-        <f t="shared" ref="F640:F694" si="144">+F654</f>
+      <c r="F655" s="114" t="str">
+        <f t="shared" ref="F640:F694" si="143">+F654</f>
         <v>II 01</v>
       </c>
-      <c r="G655" t="str">
-        <f t="shared" ref="G640:G694" si="145">+G654</f>
-        <v>Región</v>
-      </c>
-      <c r="H655" t="str">
-        <f t="shared" ref="H640:H694" si="146">+H654</f>
+      <c r="G655" s="114" t="str">
+        <f t="shared" ref="G640:G694" si="144">+G654</f>
+        <v>Región</v>
+      </c>
+      <c r="H655" s="114" t="str">
+        <f t="shared" ref="H640:H694" si="145">+H654</f>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I655" s="110">
+        <v>1</v>
+      </c>
+      <c r="J655" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="K655" s="114" t="s">
+        <v>307</v>
       </c>
       <c r="L655" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Tarapacá</v>
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.35">
@@ -31325,31 +31681,37 @@
       </c>
       <c r="C656" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D656" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Antofagasta</v>
+      </c>
+      <c r="D656" s="23" t="str">
+        <f t="shared" ref="D656:D670" si="146">+"https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I656</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%202</v>
       </c>
       <c r="E656" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F656" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G656" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G656" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H656" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H656" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I656" s="2">
+        <v>2</v>
+      </c>
+      <c r="J656" t="s">
+        <v>11</v>
       </c>
       <c r="L656" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Antofagasta</v>
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.35">
@@ -31363,31 +31725,37 @@
       </c>
       <c r="C657" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D657" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Atacama</v>
+      </c>
+      <c r="D657" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%203</v>
       </c>
       <c r="E657" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F657" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G657" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G657" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H657" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H657" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I657" s="2">
+        <v>3</v>
+      </c>
+      <c r="J657" t="s">
+        <v>12</v>
       </c>
       <c r="L657" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Atacama</v>
       </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.35">
@@ -31401,31 +31769,37 @@
       </c>
       <c r="C658" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D658" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Coquimbo</v>
+      </c>
+      <c r="D658" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%204</v>
       </c>
       <c r="E658" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F658" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G658" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G658" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H658" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H658" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I658" s="2">
+        <v>4</v>
+      </c>
+      <c r="J658" t="s">
+        <v>13</v>
       </c>
       <c r="L658" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Coquimbo</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.35">
@@ -31439,31 +31813,37 @@
       </c>
       <c r="C659" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D659" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Valparaíso</v>
+      </c>
+      <c r="D659" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%205</v>
       </c>
       <c r="E659" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F659" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G659" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G659" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H659" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H659" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I659" s="2">
+        <v>5</v>
+      </c>
+      <c r="J659" t="s">
+        <v>14</v>
       </c>
       <c r="L659" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Valparaíso</v>
       </c>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.35">
@@ -31477,31 +31857,37 @@
       </c>
       <c r="C660" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D660" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - O'Higgins</v>
+      </c>
+      <c r="D660" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%206</v>
       </c>
       <c r="E660" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F660" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G660" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G660" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H660" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H660" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I660" s="2">
+        <v>6</v>
+      </c>
+      <c r="J660" t="s">
+        <v>15</v>
       </c>
       <c r="L660" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - O'Higgins</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.35">
@@ -31515,31 +31901,37 @@
       </c>
       <c r="C661" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D661" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Maule</v>
+      </c>
+      <c r="D661" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%207</v>
       </c>
       <c r="E661" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F661" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G661" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G661" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H661" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H661" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I661" s="2">
+        <v>7</v>
+      </c>
+      <c r="J661" t="s">
+        <v>16</v>
       </c>
       <c r="L661" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Maule</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.35">
@@ -31553,31 +31945,37 @@
       </c>
       <c r="C662" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D662" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Biobío</v>
+      </c>
+      <c r="D662" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%208</v>
       </c>
       <c r="E662" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F662" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G662" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G662" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H662" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H662" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I662" s="2">
+        <v>8</v>
+      </c>
+      <c r="J662" t="s">
+        <v>17</v>
       </c>
       <c r="L662" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Biobío</v>
       </c>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.35">
@@ -31591,31 +31989,37 @@
       </c>
       <c r="C663" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D663" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Araucanía</v>
+      </c>
+      <c r="D663" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%209</v>
       </c>
       <c r="E663" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F663" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G663" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G663" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H663" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H663" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I663" s="2">
+        <v>9</v>
+      </c>
+      <c r="J663" t="s">
+        <v>18</v>
       </c>
       <c r="L663" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Araucanía</v>
       </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.35">
@@ -31629,31 +32033,37 @@
       </c>
       <c r="C664" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D664" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Los Lagos</v>
+      </c>
+      <c r="D664" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2010</v>
       </c>
       <c r="E664" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F664" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G664" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G664" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H664" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H664" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I664" s="2">
+        <v>10</v>
+      </c>
+      <c r="J664" t="s">
+        <v>19</v>
       </c>
       <c r="L664" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Los Lagos</v>
       </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.35">
@@ -31667,31 +32077,37 @@
       </c>
       <c r="C665" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D665" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Aysén</v>
+      </c>
+      <c r="D665" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2011</v>
       </c>
       <c r="E665" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F665" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G665" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G665" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H665" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H665" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I665" s="2">
+        <v>11</v>
+      </c>
+      <c r="J665" t="s">
+        <v>20</v>
       </c>
       <c r="L665" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Aysén</v>
       </c>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.35">
@@ -31705,31 +32121,37 @@
       </c>
       <c r="C666" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D666" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Magallanes y Antártica Chilena</v>
+      </c>
+      <c r="D666" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2012</v>
       </c>
       <c r="E666" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F666" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G666" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G666" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H666" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H666" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I666" s="2">
+        <v>12</v>
+      </c>
+      <c r="J666" t="s">
+        <v>223</v>
       </c>
       <c r="L666" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.35">
@@ -31743,31 +32165,37 @@
       </c>
       <c r="C667" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D667" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Metropolitana</v>
+      </c>
+      <c r="D667" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2013</v>
       </c>
       <c r="E667" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F667" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G667" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G667" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H667" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H667" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I667" s="2">
+        <v>13</v>
+      </c>
+      <c r="J667" t="s">
+        <v>22</v>
       </c>
       <c r="L667" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Metropolitana</v>
       </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.35">
@@ -31781,31 +32209,37 @@
       </c>
       <c r="C668" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D668" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Los Ríos</v>
+      </c>
+      <c r="D668" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2014</v>
       </c>
       <c r="E668" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F668" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G668" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G668" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H668" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H668" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I668" s="2">
+        <v>14</v>
+      </c>
+      <c r="J668" t="s">
+        <v>23</v>
       </c>
       <c r="L668" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Los Ríos</v>
       </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.35">
@@ -31819,31 +32253,37 @@
       </c>
       <c r="C669" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D669" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Arica y Parinacota</v>
+      </c>
+      <c r="D669" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2015</v>
       </c>
       <c r="E669" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F669" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G669" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G669" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H669" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H669" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I669" s="2">
+        <v>15</v>
+      </c>
+      <c r="J669" t="s">
+        <v>24</v>
       </c>
       <c r="L669" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.35">
@@ -31857,656 +32297,756 @@
       </c>
       <c r="C670" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D670" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Ñuble</v>
+      </c>
+      <c r="D670" s="23" t="str">
+        <f t="shared" si="146"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007662171?ZOHO_CRITERIA=%22Trasposicion_27.21%22.%22Cod%20regi%C3%B3n%22%20%3D%2016</v>
       </c>
       <c r="E670" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F670" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G670" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G670" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H670" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H670" t="str">
-        <f t="shared" si="146"/>
         <v>Casos de violencia general</v>
+      </c>
+      <c r="I670" s="2">
+        <v>16</v>
+      </c>
+      <c r="J670" t="s">
+        <v>25</v>
       </c>
       <c r="L670" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Ñuble</v>
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A671" s="2">
-        <f t="shared" si="139"/>
-        <v>17</v>
-      </c>
-      <c r="B671" s="2">
-        <f t="shared" si="140"/>
-        <v>20.21</v>
-      </c>
-      <c r="C671" s="5" t="str">
+      <c r="A671" s="36">
+        <v>1</v>
+      </c>
+      <c r="B671" s="36">
+        <v>20.22</v>
+      </c>
+      <c r="C671" s="37" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D671" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
-      </c>
-      <c r="E671" s="4">
+        <v>II 01 - Tarapacá</v>
+      </c>
+      <c r="D671" s="38" t="str">
+        <f>+"https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I671</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%201</v>
+      </c>
+      <c r="E671" s="39">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
-      <c r="F671" t="str">
-        <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G671" t="str">
-        <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H671" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+      <c r="F671" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G671" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H671" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="I671" s="36">
+        <v>1</v>
+      </c>
+      <c r="J671" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K671" s="40" t="s">
+        <v>312</v>
       </c>
       <c r="L671" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Tarapacá</v>
       </c>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <f t="shared" si="139"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B672" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C672" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D672" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Antofagasta</v>
+      </c>
+      <c r="D672" s="23" t="str">
+        <f t="shared" ref="D672:D686" si="147">+"https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I672</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%202</v>
       </c>
       <c r="E672" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F672" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G672" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G672" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H672" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H672" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I672" s="2">
+        <v>2</v>
+      </c>
+      <c r="J672" t="s">
+        <v>11</v>
       </c>
       <c r="L672" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Antofagasta</v>
       </c>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <f t="shared" si="139"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B673" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C673" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D673" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Atacama</v>
+      </c>
+      <c r="D673" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%203</v>
       </c>
       <c r="E673" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F673" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G673" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G673" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H673" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H673" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I673" s="2">
+        <v>3</v>
+      </c>
+      <c r="J673" t="s">
+        <v>12</v>
       </c>
       <c r="L673" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Atacama</v>
       </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A674" s="2">
         <f t="shared" si="139"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B674" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C674" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D674" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Coquimbo</v>
+      </c>
+      <c r="D674" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%204</v>
       </c>
       <c r="E674" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F674" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G674" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G674" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H674" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H674" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I674" s="2">
+        <v>4</v>
+      </c>
+      <c r="J674" t="s">
+        <v>13</v>
       </c>
       <c r="L674" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Coquimbo</v>
       </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <f t="shared" si="139"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B675" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C675" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D675" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Valparaíso</v>
+      </c>
+      <c r="D675" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%205</v>
       </c>
       <c r="E675" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F675" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G675" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G675" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H675" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H675" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I675" s="2">
+        <v>5</v>
+      </c>
+      <c r="J675" t="s">
+        <v>14</v>
       </c>
       <c r="L675" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Valparaíso</v>
       </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <f t="shared" si="139"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B676" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C676" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D676" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - O'Higgins</v>
+      </c>
+      <c r="D676" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%206</v>
       </c>
       <c r="E676" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F676" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G676" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G676" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H676" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H676" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I676" s="2">
+        <v>6</v>
+      </c>
+      <c r="J676" t="s">
+        <v>15</v>
       </c>
       <c r="L676" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - O'Higgins</v>
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <f t="shared" si="139"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B677" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C677" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D677" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Maule</v>
+      </c>
+      <c r="D677" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%207</v>
       </c>
       <c r="E677" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F677" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G677" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G677" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H677" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H677" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I677" s="2">
+        <v>7</v>
+      </c>
+      <c r="J677" t="s">
+        <v>16</v>
       </c>
       <c r="L677" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Maule</v>
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <f t="shared" si="139"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B678" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C678" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D678" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Biobío</v>
+      </c>
+      <c r="D678" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%208</v>
       </c>
       <c r="E678" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F678" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G678" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G678" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H678" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H678" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I678" s="2">
+        <v>8</v>
+      </c>
+      <c r="J678" t="s">
+        <v>17</v>
       </c>
       <c r="L678" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Biobío</v>
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <f t="shared" si="139"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B679" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C679" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D679" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Araucanía</v>
+      </c>
+      <c r="D679" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%209</v>
       </c>
       <c r="E679" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F679" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G679" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G679" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H679" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H679" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I679" s="2">
+        <v>9</v>
+      </c>
+      <c r="J679" t="s">
+        <v>18</v>
       </c>
       <c r="L679" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Araucanía</v>
       </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <f t="shared" si="139"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B680" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C680" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D680" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Los Lagos</v>
+      </c>
+      <c r="D680" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2010</v>
       </c>
       <c r="E680" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F680" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G680" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G680" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H680" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H680" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I680" s="2">
+        <v>10</v>
+      </c>
+      <c r="J680" t="s">
+        <v>19</v>
       </c>
       <c r="L680" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Los Lagos</v>
       </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <f t="shared" si="139"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B681" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C681" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D681" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Aysén</v>
+      </c>
+      <c r="D681" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2011</v>
       </c>
       <c r="E681" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F681" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G681" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G681" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H681" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H681" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I681" s="2">
+        <v>11</v>
+      </c>
+      <c r="J681" t="s">
+        <v>20</v>
       </c>
       <c r="L681" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Aysén</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <f t="shared" si="139"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B682" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C682" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D682" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Magallanes y Antártica Chilena</v>
+      </c>
+      <c r="D682" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2012</v>
       </c>
       <c r="E682" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F682" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G682" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G682" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H682" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H682" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I682" s="2">
+        <v>12</v>
+      </c>
+      <c r="J682" t="s">
+        <v>223</v>
       </c>
       <c r="L682" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <f t="shared" si="139"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B683" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C683" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D683" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Metropolitana</v>
+      </c>
+      <c r="D683" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2013</v>
       </c>
       <c r="E683" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F683" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G683" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G683" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H683" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H683" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I683" s="2">
+        <v>13</v>
+      </c>
+      <c r="J683" t="s">
+        <v>22</v>
       </c>
       <c r="L683" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Metropolitana</v>
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <f t="shared" si="139"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B684" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C684" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D684" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Los Ríos</v>
+      </c>
+      <c r="D684" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2014</v>
       </c>
       <c r="E684" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F684" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G684" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G684" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H684" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H684" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I684" s="2">
+        <v>14</v>
+      </c>
+      <c r="J684" t="s">
+        <v>23</v>
       </c>
       <c r="L684" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Los Ríos</v>
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <f t="shared" si="139"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B685" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C685" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D685" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Arica y Parinacota</v>
+      </c>
+      <c r="D685" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2015</v>
       </c>
       <c r="E685" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F685" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G685" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G685" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H685" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H685" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I685" s="2">
+        <v>15</v>
+      </c>
+      <c r="J685" t="s">
+        <v>24</v>
       </c>
       <c r="L685" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <f t="shared" si="139"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B686" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C686" s="5" t="str">
         <f t="shared" si="137"/>
-        <v xml:space="preserve">II 01 - </v>
-      </c>
-      <c r="D686" s="6" t="str">
-        <f t="shared" si="143"/>
-        <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
+        <v>II 01 - Ñuble</v>
+      </c>
+      <c r="D686" s="23" t="str">
+        <f t="shared" si="147"/>
+        <v>https://analytics.zoho.com/open-view/2395394000007494304?ZOHO_CRITERIA=%22Trasposicion_27.22%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.22%22.%22Cod%20regi%C3%B3n%22%20%3D%2016</v>
       </c>
       <c r="E686" s="4">
         <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="F686" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G686" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G686" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H686" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H686" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
+      </c>
+      <c r="I686" s="2">
+        <v>16</v>
+      </c>
+      <c r="J686" t="s">
+        <v>25</v>
       </c>
       <c r="L686" s="1" t="str">
         <f t="shared" si="138"/>
-        <v xml:space="preserve">II 01 - </v>
+        <v>II 01 - Ñuble</v>
       </c>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <f t="shared" si="139"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B687" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C687" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D687" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="D639:D694" si="148">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I687</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E687" s="4">
@@ -32514,16 +33054,16 @@
         <v>16</v>
       </c>
       <c r="F687" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G687" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G687" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H687" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H687" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L687" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32533,18 +33073,18 @@
     <row r="688" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <f t="shared" si="139"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B688" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C688" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D688" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E688" s="4">
@@ -32552,16 +33092,16 @@
         <v>16</v>
       </c>
       <c r="F688" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G688" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G688" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H688" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H688" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L688" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32571,18 +33111,18 @@
     <row r="689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <f t="shared" si="139"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B689" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C689" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D689" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E689" s="4">
@@ -32590,16 +33130,16 @@
         <v>16</v>
       </c>
       <c r="F689" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G689" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G689" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H689" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H689" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L689" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32609,18 +33149,18 @@
     <row r="690" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <f t="shared" si="139"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B690" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C690" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D690" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E690" s="4">
@@ -32628,16 +33168,16 @@
         <v>16</v>
       </c>
       <c r="F690" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G690" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G690" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H690" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H690" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L690" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32647,18 +33187,18 @@
     <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <f t="shared" si="139"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B691" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C691" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D691" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E691" s="4">
@@ -32666,16 +33206,16 @@
         <v>16</v>
       </c>
       <c r="F691" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G691" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G691" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H691" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H691" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L691" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32685,18 +33225,18 @@
     <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <f t="shared" si="139"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B692" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C692" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D692" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E692" s="4">
@@ -32704,16 +33244,16 @@
         <v>16</v>
       </c>
       <c r="F692" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G692" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G692" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H692" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H692" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L692" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32723,18 +33263,18 @@
     <row r="693" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <f t="shared" si="139"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B693" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C693" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D693" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E693" s="4">
@@ -32742,16 +33282,16 @@
         <v>16</v>
       </c>
       <c r="F693" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G693" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G693" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H693" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H693" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L693" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32761,18 +33301,18 @@
     <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <f t="shared" si="139"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B694" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C694" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D694" s="6" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E694" s="4">
@@ -32780,16 +33320,16 @@
         <v>16</v>
       </c>
       <c r="F694" t="str">
+        <f t="shared" si="143"/>
+        <v>II 01</v>
+      </c>
+      <c r="G694" t="str">
         <f t="shared" si="144"/>
-        <v>II 01</v>
-      </c>
-      <c r="G694" t="str">
+        <v>Región</v>
+      </c>
+      <c r="H694" t="str">
         <f t="shared" si="145"/>
-        <v>Región</v>
-      </c>
-      <c r="H694" t="str">
-        <f t="shared" si="146"/>
-        <v>Casos de violencia general</v>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L694" s="1" t="str">
         <f t="shared" si="138"/>
@@ -32798,2216 +33338,2216 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A695" s="2">
-        <f t="shared" ref="A695:A752" si="147">+A694+1</f>
-        <v>41</v>
+        <f t="shared" ref="A695:A752" si="149">+A694+1</f>
+        <v>25</v>
       </c>
       <c r="B695" s="2">
-        <f t="shared" ref="B695:B752" si="148">+B694</f>
-        <v>20.21</v>
+        <f t="shared" ref="B695:B752" si="150">+B694</f>
+        <v>20.22</v>
       </c>
       <c r="C695" s="5" t="str">
-        <f t="shared" ref="C695:C752" si="149">+F695&amp;" - "&amp;J695</f>
+        <f t="shared" ref="C695:C752" si="151">+F695&amp;" - "&amp;J695</f>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D695" s="6" t="str">
-        <f t="shared" ref="D695:D752" si="150">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I695</f>
+        <f t="shared" ref="D695:D752" si="152">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I695</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E695" s="4">
-        <f t="shared" ref="E695:E752" si="151">+E694</f>
+        <f t="shared" ref="E695:E752" si="153">+E694</f>
         <v>16</v>
       </c>
       <c r="F695" t="str">
-        <f t="shared" ref="F695:F752" si="152">+F694</f>
+        <f t="shared" ref="F695:F752" si="154">+F694</f>
         <v>II 01</v>
       </c>
       <c r="G695" t="str">
-        <f t="shared" ref="G695:G752" si="153">+G694</f>
+        <f t="shared" ref="G695:G752" si="155">+G694</f>
         <v>Región</v>
       </c>
       <c r="H695" t="str">
-        <f t="shared" ref="H695:H752" si="154">+H694</f>
-        <v>Casos de violencia general</v>
+        <f t="shared" ref="H695:H752" si="156">+H694</f>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L695" s="1" t="str">
-        <f t="shared" ref="L695:L752" si="155">+HYPERLINK(D695,C695)</f>
+        <f t="shared" ref="L695:L752" si="157">+HYPERLINK(D695,C695)</f>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
-        <f t="shared" si="147"/>
-        <v>42</v>
+        <f t="shared" si="149"/>
+        <v>26</v>
       </c>
       <c r="B696" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C696" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D696" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E696" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F696" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G696" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H696" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L696" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
-        <f t="shared" si="147"/>
-        <v>43</v>
+        <f t="shared" si="149"/>
+        <v>27</v>
       </c>
       <c r="B697" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C697" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D697" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E697" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F697" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G697" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H697" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L697" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
-        <f t="shared" si="147"/>
-        <v>44</v>
+        <f t="shared" si="149"/>
+        <v>28</v>
       </c>
       <c r="B698" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C698" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D698" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E698" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F698" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G698" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H698" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L698" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A699" s="2">
-        <f t="shared" si="147"/>
-        <v>45</v>
+        <f t="shared" si="149"/>
+        <v>29</v>
       </c>
       <c r="B699" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C699" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D699" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E699" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F699" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G699" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H699" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L699" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
-        <f t="shared" si="147"/>
-        <v>46</v>
+        <f t="shared" si="149"/>
+        <v>30</v>
       </c>
       <c r="B700" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C700" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D700" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E700" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F700" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G700" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H700" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L700" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
-        <f t="shared" si="147"/>
-        <v>47</v>
+        <f t="shared" si="149"/>
+        <v>31</v>
       </c>
       <c r="B701" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C701" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D701" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E701" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F701" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G701" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H701" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L701" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
-        <f t="shared" si="147"/>
-        <v>48</v>
+        <f t="shared" si="149"/>
+        <v>32</v>
       </c>
       <c r="B702" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C702" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D702" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E702" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F702" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G702" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H702" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L702" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
-        <f t="shared" si="147"/>
-        <v>49</v>
+        <f t="shared" si="149"/>
+        <v>33</v>
       </c>
       <c r="B703" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C703" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D703" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E703" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F703" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G703" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H703" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L703" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
-        <f t="shared" si="147"/>
-        <v>50</v>
+        <f t="shared" si="149"/>
+        <v>34</v>
       </c>
       <c r="B704" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C704" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D704" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E704" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F704" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G704" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H704" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L704" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
-        <f t="shared" si="147"/>
-        <v>51</v>
+        <f t="shared" si="149"/>
+        <v>35</v>
       </c>
       <c r="B705" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C705" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D705" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E705" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F705" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G705" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H705" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L705" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
-        <f t="shared" si="147"/>
-        <v>52</v>
+        <f t="shared" si="149"/>
+        <v>36</v>
       </c>
       <c r="B706" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C706" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D706" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E706" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F706" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G706" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H706" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L706" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
-        <f t="shared" si="147"/>
-        <v>53</v>
+        <f t="shared" si="149"/>
+        <v>37</v>
       </c>
       <c r="B707" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C707" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D707" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E707" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F707" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G707" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H707" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L707" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
-        <f t="shared" si="147"/>
-        <v>54</v>
+        <f t="shared" si="149"/>
+        <v>38</v>
       </c>
       <c r="B708" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C708" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D708" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E708" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F708" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G708" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H708" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L708" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A709" s="2">
-        <f t="shared" si="147"/>
-        <v>55</v>
+        <f t="shared" si="149"/>
+        <v>39</v>
       </c>
       <c r="B709" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C709" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D709" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E709" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F709" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G709" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H709" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L709" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
-        <f t="shared" si="147"/>
-        <v>56</v>
+        <f t="shared" si="149"/>
+        <v>40</v>
       </c>
       <c r="B710" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C710" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D710" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E710" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F710" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G710" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H710" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L710" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A711" s="2">
-        <f t="shared" si="147"/>
-        <v>57</v>
+        <f t="shared" si="149"/>
+        <v>41</v>
       </c>
       <c r="B711" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C711" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D711" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E711" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F711" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G711" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H711" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L711" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A712" s="2">
-        <f t="shared" si="147"/>
-        <v>58</v>
+        <f t="shared" si="149"/>
+        <v>42</v>
       </c>
       <c r="B712" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C712" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D712" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E712" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F712" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G712" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H712" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L712" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
-        <f t="shared" si="147"/>
-        <v>59</v>
+        <f t="shared" si="149"/>
+        <v>43</v>
       </c>
       <c r="B713" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C713" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D713" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E713" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F713" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G713" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H713" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L713" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A714" s="2">
-        <f t="shared" si="147"/>
-        <v>60</v>
+        <f t="shared" si="149"/>
+        <v>44</v>
       </c>
       <c r="B714" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C714" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D714" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E714" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F714" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G714" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H714" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L714" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
-        <f t="shared" si="147"/>
-        <v>61</v>
+        <f t="shared" si="149"/>
+        <v>45</v>
       </c>
       <c r="B715" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C715" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D715" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E715" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F715" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G715" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H715" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L715" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A716" s="2">
-        <f t="shared" si="147"/>
-        <v>62</v>
+        <f t="shared" si="149"/>
+        <v>46</v>
       </c>
       <c r="B716" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C716" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D716" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E716" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F716" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G716" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H716" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L716" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
-        <f t="shared" si="147"/>
-        <v>63</v>
+        <f t="shared" si="149"/>
+        <v>47</v>
       </c>
       <c r="B717" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C717" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D717" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E717" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F717" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G717" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H717" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L717" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A718" s="2">
-        <f t="shared" si="147"/>
-        <v>64</v>
+        <f t="shared" si="149"/>
+        <v>48</v>
       </c>
       <c r="B718" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C718" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D718" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E718" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F718" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G718" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H718" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L718" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
-        <f t="shared" si="147"/>
-        <v>65</v>
+        <f t="shared" si="149"/>
+        <v>49</v>
       </c>
       <c r="B719" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C719" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D719" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E719" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F719" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G719" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H719" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L719" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A720" s="2">
-        <f t="shared" si="147"/>
-        <v>66</v>
+        <f t="shared" si="149"/>
+        <v>50</v>
       </c>
       <c r="B720" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C720" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D720" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E720" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F720" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G720" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H720" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L720" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
-        <f t="shared" si="147"/>
-        <v>67</v>
+        <f t="shared" si="149"/>
+        <v>51</v>
       </c>
       <c r="B721" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C721" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D721" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E721" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F721" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G721" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H721" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L721" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
-        <f t="shared" si="147"/>
-        <v>68</v>
+        <f t="shared" si="149"/>
+        <v>52</v>
       </c>
       <c r="B722" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C722" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D722" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E722" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F722" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G722" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H722" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L722" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A723" s="2">
-        <f t="shared" si="147"/>
-        <v>69</v>
+        <f t="shared" si="149"/>
+        <v>53</v>
       </c>
       <c r="B723" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C723" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D723" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E723" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F723" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G723" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H723" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L723" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A724" s="2">
-        <f t="shared" si="147"/>
-        <v>70</v>
+        <f t="shared" si="149"/>
+        <v>54</v>
       </c>
       <c r="B724" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C724" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D724" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E724" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F724" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G724" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H724" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L724" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A725" s="2">
-        <f t="shared" si="147"/>
-        <v>71</v>
+        <f t="shared" si="149"/>
+        <v>55</v>
       </c>
       <c r="B725" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C725" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D725" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E725" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F725" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G725" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H725" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L725" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
-        <f t="shared" si="147"/>
-        <v>72</v>
+        <f t="shared" si="149"/>
+        <v>56</v>
       </c>
       <c r="B726" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C726" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D726" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E726" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F726" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G726" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H726" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L726" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A727" s="2">
-        <f t="shared" si="147"/>
-        <v>73</v>
+        <f t="shared" si="149"/>
+        <v>57</v>
       </c>
       <c r="B727" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C727" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D727" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E727" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F727" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G727" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H727" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L727" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
-        <f t="shared" si="147"/>
-        <v>74</v>
+        <f t="shared" si="149"/>
+        <v>58</v>
       </c>
       <c r="B728" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C728" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D728" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E728" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F728" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G728" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H728" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L728" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A729" s="2">
-        <f t="shared" si="147"/>
-        <v>75</v>
+        <f t="shared" si="149"/>
+        <v>59</v>
       </c>
       <c r="B729" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C729" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D729" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E729" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F729" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G729" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H729" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L729" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
-        <f t="shared" si="147"/>
-        <v>76</v>
+        <f t="shared" si="149"/>
+        <v>60</v>
       </c>
       <c r="B730" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C730" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D730" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E730" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F730" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G730" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H730" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L730" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A731" s="2">
-        <f t="shared" si="147"/>
-        <v>77</v>
+        <f t="shared" si="149"/>
+        <v>61</v>
       </c>
       <c r="B731" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C731" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D731" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E731" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F731" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G731" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H731" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L731" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
-        <f t="shared" si="147"/>
-        <v>78</v>
+        <f t="shared" si="149"/>
+        <v>62</v>
       </c>
       <c r="B732" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C732" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D732" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E732" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F732" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G732" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H732" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L732" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A733" s="2">
-        <f t="shared" si="147"/>
-        <v>79</v>
+        <f t="shared" si="149"/>
+        <v>63</v>
       </c>
       <c r="B733" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C733" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D733" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E733" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F733" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G733" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H733" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L733" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
-        <f t="shared" si="147"/>
-        <v>80</v>
+        <f t="shared" si="149"/>
+        <v>64</v>
       </c>
       <c r="B734" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C734" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D734" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E734" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F734" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G734" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H734" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L734" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A735" s="2">
-        <f t="shared" si="147"/>
-        <v>81</v>
+        <f t="shared" si="149"/>
+        <v>65</v>
       </c>
       <c r="B735" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C735" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D735" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E735" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F735" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G735" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H735" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L735" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
-        <f t="shared" si="147"/>
-        <v>82</v>
+        <f t="shared" si="149"/>
+        <v>66</v>
       </c>
       <c r="B736" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C736" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D736" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E736" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F736" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G736" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H736" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L736" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A737" s="2">
-        <f t="shared" si="147"/>
-        <v>83</v>
+        <f t="shared" si="149"/>
+        <v>67</v>
       </c>
       <c r="B737" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C737" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D737" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E737" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F737" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G737" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H737" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L737" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A738" s="2">
-        <f t="shared" si="147"/>
-        <v>84</v>
+        <f t="shared" si="149"/>
+        <v>68</v>
       </c>
       <c r="B738" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C738" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D738" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E738" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F738" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G738" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H738" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L738" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A739" s="2">
-        <f t="shared" si="147"/>
-        <v>85</v>
+        <f t="shared" si="149"/>
+        <v>69</v>
       </c>
       <c r="B739" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C739" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D739" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E739" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F739" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G739" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H739" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L739" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A740" s="2">
-        <f t="shared" si="147"/>
-        <v>86</v>
+        <f t="shared" si="149"/>
+        <v>70</v>
       </c>
       <c r="B740" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C740" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D740" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E740" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F740" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G740" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H740" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L740" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A741" s="2">
-        <f t="shared" si="147"/>
-        <v>87</v>
+        <f t="shared" si="149"/>
+        <v>71</v>
       </c>
       <c r="B741" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C741" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D741" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E741" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F741" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G741" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H741" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L741" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A742" s="2">
-        <f t="shared" si="147"/>
-        <v>88</v>
+        <f t="shared" si="149"/>
+        <v>72</v>
       </c>
       <c r="B742" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C742" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D742" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E742" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F742" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G742" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H742" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L742" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A743" s="2">
-        <f t="shared" si="147"/>
-        <v>89</v>
+        <f t="shared" si="149"/>
+        <v>73</v>
       </c>
       <c r="B743" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C743" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D743" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E743" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F743" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G743" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H743" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L743" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A744" s="2">
-        <f t="shared" si="147"/>
-        <v>90</v>
+        <f t="shared" si="149"/>
+        <v>74</v>
       </c>
       <c r="B744" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C744" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D744" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E744" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F744" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G744" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H744" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L744" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A745" s="2">
-        <f t="shared" si="147"/>
-        <v>91</v>
+        <f t="shared" si="149"/>
+        <v>75</v>
       </c>
       <c r="B745" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C745" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D745" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E745" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F745" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G745" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H745" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L745" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A746" s="2">
-        <f t="shared" si="147"/>
-        <v>92</v>
+        <f t="shared" si="149"/>
+        <v>76</v>
       </c>
       <c r="B746" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C746" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D746" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E746" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F746" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G746" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H746" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L746" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A747" s="2">
-        <f t="shared" si="147"/>
-        <v>93</v>
+        <f t="shared" si="149"/>
+        <v>77</v>
       </c>
       <c r="B747" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C747" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D747" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E747" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F747" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G747" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H747" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L747" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A748" s="2">
-        <f t="shared" si="147"/>
-        <v>94</v>
+        <f t="shared" si="149"/>
+        <v>78</v>
       </c>
       <c r="B748" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C748" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D748" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E748" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F748" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G748" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H748" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L748" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A749" s="2">
-        <f t="shared" si="147"/>
-        <v>95</v>
+        <f t="shared" si="149"/>
+        <v>79</v>
       </c>
       <c r="B749" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C749" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D749" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E749" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F749" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G749" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H749" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L749" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A750" s="2">
-        <f t="shared" si="147"/>
-        <v>96</v>
+        <f t="shared" si="149"/>
+        <v>80</v>
       </c>
       <c r="B750" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C750" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D750" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E750" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F750" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G750" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H750" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L750" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A751" s="2">
-        <f t="shared" si="147"/>
-        <v>97</v>
+        <f t="shared" si="149"/>
+        <v>81</v>
       </c>
       <c r="B751" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C751" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D751" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E751" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F751" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G751" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H751" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L751" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A752" s="2">
-        <f t="shared" si="147"/>
-        <v>98</v>
+        <f t="shared" si="149"/>
+        <v>82</v>
       </c>
       <c r="B752" s="2">
-        <f t="shared" si="148"/>
-        <v>20.21</v>
+        <f t="shared" si="150"/>
+        <v>20.22</v>
       </c>
       <c r="C752" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D752" s="6" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E752" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="F752" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>II 01</v>
       </c>
       <c r="G752" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Región</v>
       </c>
       <c r="H752" t="str">
-        <f t="shared" si="154"/>
-        <v>Casos de violencia general</v>
+        <f t="shared" si="156"/>
+        <v>Tasa de violencia</v>
       </c>
       <c r="L752" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A753" s="2">
         <f>+A752+1</f>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B753" s="2">
         <f>+B752</f>
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C753" s="5" t="str">
         <f>+F753&amp;" - "&amp;J753</f>
@@ -35043,35 +35583,35 @@
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A754" s="2">
-        <f t="shared" ref="A754:A768" si="156">+A753+1</f>
-        <v>100</v>
+        <f t="shared" ref="A754:A768" si="158">+A753+1</f>
+        <v>84</v>
       </c>
       <c r="B754" s="2">
-        <f t="shared" ref="B754:B768" si="157">+B753</f>
-        <v>20.21</v>
+        <f t="shared" ref="B754:B768" si="159">+B753</f>
+        <v>20.22</v>
       </c>
       <c r="C754" s="5" t="str">
-        <f t="shared" ref="C754:C768" si="158">+F754&amp;" - "&amp;J754</f>
+        <f t="shared" ref="C754:C768" si="160">+F754&amp;" - "&amp;J754</f>
         <v>II 01 - Antofagasta</v>
       </c>
       <c r="D754" s="6" t="str">
-        <f t="shared" ref="D754:D768" si="159">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I754</f>
+        <f t="shared" ref="D754:D768" si="161">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I754</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO2</v>
       </c>
       <c r="E754" s="4">
-        <f t="shared" ref="E754:E768" si="160">+E753</f>
+        <f t="shared" ref="E754:E768" si="162">+E753</f>
         <v>16</v>
       </c>
       <c r="F754" t="str">
-        <f t="shared" ref="F754:F768" si="161">+F753</f>
+        <f t="shared" ref="F754:F768" si="163">+F753</f>
         <v>II 01</v>
       </c>
       <c r="G754" t="str">
-        <f t="shared" ref="G754:G768" si="162">+G753</f>
+        <f t="shared" ref="G754:G768" si="164">+G753</f>
         <v>Región</v>
       </c>
       <c r="H754" t="str">
-        <f t="shared" ref="H754:H768" si="163">+H753</f>
+        <f t="shared" ref="H754:H768" si="165">+H753</f>
         <v>Casos de violencia general</v>
       </c>
       <c r="I754" s="2">
@@ -35081,41 +35621,41 @@
         <v>11</v>
       </c>
       <c r="L754" s="1" t="str">
-        <f t="shared" ref="L754:L768" si="164">+HYPERLINK(D754,C754)</f>
+        <f t="shared" ref="L754:L768" si="166">+HYPERLINK(D754,C754)</f>
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A755" s="2">
-        <f t="shared" si="156"/>
-        <v>101</v>
+        <f t="shared" si="158"/>
+        <v>85</v>
       </c>
       <c r="B755" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C755" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Atacama</v>
       </c>
       <c r="D755" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO3</v>
       </c>
       <c r="E755" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F755" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G755" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H755" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I755" s="2">
@@ -35125,41 +35665,41 @@
         <v>12</v>
       </c>
       <c r="L755" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Atacama</v>
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A756" s="2">
-        <f t="shared" si="156"/>
-        <v>102</v>
+        <f t="shared" si="158"/>
+        <v>86</v>
       </c>
       <c r="B756" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C756" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Coquimbo</v>
       </c>
       <c r="D756" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO4</v>
       </c>
       <c r="E756" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F756" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G756" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H756" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I756" s="2">
@@ -35169,41 +35709,41 @@
         <v>13</v>
       </c>
       <c r="L756" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A757" s="2">
-        <f t="shared" si="156"/>
-        <v>103</v>
+        <f t="shared" si="158"/>
+        <v>87</v>
       </c>
       <c r="B757" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C757" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Valparaíso</v>
       </c>
       <c r="D757" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO5</v>
       </c>
       <c r="E757" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F757" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G757" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H757" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I757" s="2">
@@ -35213,41 +35753,41 @@
         <v>14</v>
       </c>
       <c r="L757" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A758" s="2">
-        <f t="shared" si="156"/>
-        <v>104</v>
+        <f t="shared" si="158"/>
+        <v>88</v>
       </c>
       <c r="B758" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C758" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - O'Higgins</v>
       </c>
       <c r="D758" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO6</v>
       </c>
       <c r="E758" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F758" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G758" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H758" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I758" s="2">
@@ -35257,41 +35797,41 @@
         <v>15</v>
       </c>
       <c r="L758" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A759" s="2">
-        <f t="shared" si="156"/>
-        <v>105</v>
+        <f t="shared" si="158"/>
+        <v>89</v>
       </c>
       <c r="B759" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C759" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Maule</v>
       </c>
       <c r="D759" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO7</v>
       </c>
       <c r="E759" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F759" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G759" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H759" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I759" s="2">
@@ -35301,41 +35841,41 @@
         <v>16</v>
       </c>
       <c r="L759" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Maule</v>
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A760" s="2">
-        <f t="shared" si="156"/>
-        <v>106</v>
+        <f t="shared" si="158"/>
+        <v>90</v>
       </c>
       <c r="B760" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C760" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Biobío</v>
       </c>
       <c r="D760" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO8</v>
       </c>
       <c r="E760" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F760" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G760" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H760" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I760" s="2">
@@ -35345,41 +35885,41 @@
         <v>17</v>
       </c>
       <c r="L760" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Biobío</v>
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A761" s="2">
-        <f t="shared" si="156"/>
-        <v>107</v>
+        <f t="shared" si="158"/>
+        <v>91</v>
       </c>
       <c r="B761" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C761" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Araucanía</v>
       </c>
       <c r="D761" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO9</v>
       </c>
       <c r="E761" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F761" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G761" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H761" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I761" s="2">
@@ -35389,41 +35929,41 @@
         <v>18</v>
       </c>
       <c r="L761" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Araucanía</v>
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A762" s="2">
-        <f t="shared" si="156"/>
-        <v>108</v>
+        <f t="shared" si="158"/>
+        <v>92</v>
       </c>
       <c r="B762" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C762" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Los Lagos</v>
       </c>
       <c r="D762" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO10</v>
       </c>
       <c r="E762" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F762" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G762" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H762" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I762" s="2">
@@ -35433,41 +35973,41 @@
         <v>19</v>
       </c>
       <c r="L762" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A763" s="2">
-        <f t="shared" si="156"/>
-        <v>109</v>
+        <f t="shared" si="158"/>
+        <v>93</v>
       </c>
       <c r="B763" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C763" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Aysén</v>
       </c>
       <c r="D763" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO11</v>
       </c>
       <c r="E763" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F763" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G763" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H763" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I763" s="2">
@@ -35477,41 +36017,41 @@
         <v>20</v>
       </c>
       <c r="L763" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Aysén</v>
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A764" s="2">
-        <f t="shared" si="156"/>
-        <v>110</v>
+        <f t="shared" si="158"/>
+        <v>94</v>
       </c>
       <c r="B764" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C764" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
       <c r="D764" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO12</v>
       </c>
       <c r="E764" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F764" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G764" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H764" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I764" s="2">
@@ -35521,41 +36061,41 @@
         <v>223</v>
       </c>
       <c r="L764" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A765" s="2">
-        <f t="shared" si="156"/>
-        <v>111</v>
+        <f t="shared" si="158"/>
+        <v>95</v>
       </c>
       <c r="B765" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C765" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Metropolitana</v>
       </c>
       <c r="D765" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO13</v>
       </c>
       <c r="E765" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F765" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G765" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H765" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I765" s="2">
@@ -35565,41 +36105,41 @@
         <v>22</v>
       </c>
       <c r="L765" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A766" s="2">
-        <f t="shared" si="156"/>
-        <v>112</v>
+        <f t="shared" si="158"/>
+        <v>96</v>
       </c>
       <c r="B766" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C766" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Los Ríos</v>
       </c>
       <c r="D766" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO14</v>
       </c>
       <c r="E766" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F766" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G766" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H766" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I766" s="2">
@@ -35609,41 +36149,41 @@
         <v>23</v>
       </c>
       <c r="L766" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A767" s="2">
-        <f t="shared" si="156"/>
-        <v>113</v>
+        <f t="shared" si="158"/>
+        <v>97</v>
       </c>
       <c r="B767" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C767" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Arica y Parinacota</v>
       </c>
       <c r="D767" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO15</v>
       </c>
       <c r="E767" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F767" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G767" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H767" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I767" s="2">
@@ -35653,41 +36193,41 @@
         <v>24</v>
       </c>
       <c r="L767" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A768" s="2">
-        <f t="shared" si="156"/>
-        <v>114</v>
+        <f t="shared" si="158"/>
+        <v>98</v>
       </c>
       <c r="B768" s="2">
-        <f t="shared" si="157"/>
-        <v>20.21</v>
+        <f t="shared" si="159"/>
+        <v>20.22</v>
       </c>
       <c r="C768" s="5" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>II 01 - Ñuble</v>
       </c>
       <c r="D768" s="6" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO16</v>
       </c>
       <c r="E768" s="4">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="F768" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>II 01</v>
       </c>
       <c r="G768" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Región</v>
       </c>
       <c r="H768" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Casos de violencia general</v>
       </c>
       <c r="I768" s="2">
@@ -35697,21 +36237,21 @@
         <v>25</v>
       </c>
       <c r="L768" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>II 01 - Ñuble</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Y1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35735,8 +36275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F00ED9-3952-4B35-81D2-83748AB1C51C}">
   <dimension ref="A10:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36458,53 +36998,96 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="81" t="s">
+        <v>308</v>
+      </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve">RP 01 - </v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="4">
         <f>E28</f>
         <v>1</v>
       </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>304</v>
+      </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve">RP 01 - </v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>27.21</v>
+      </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>RP 01 - Tasa de mujeres que sufren violencia || Chile || periodo 2012-2020</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="E30" s="4">
         <f t="shared" ref="E30:E37" si="3">+E29</f>
         <v>1</v>
       </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" t="s">
+        <v>310</v>
+      </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> - </v>
+        <v>RP 01 - Tasa de mujeres que sufren violencia || Chile || periodo 2012-2020</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="84"/>
+      <c r="B31" s="84">
+        <v>27.22</v>
+      </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>RP 01 - Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="E31" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" t="s">
+        <v>314</v>
+      </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> - </v>
+        <v>RP 01 - Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">

--- a/Control Calidad - DATAMUJERES-Violencia.xlsx
+++ b/Control Calidad - DATAMUJERES-Violencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF00C9-F62E-46FC-B279-75EA762730DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19366C-8D79-4ABC-A901-28FE77AED91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Violencia" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="316">
   <si>
     <t>Link</t>
   </si>
@@ -976,9 +976,6 @@
     <t>Casos de violencia hacia la mujer a escala regional || Chile || periodo 2012-2020</t>
   </si>
   <si>
-    <t>20.20</t>
-  </si>
-  <si>
     <t>Tasa de mujeres que sufren violencia a escala regional || Chile || periodo 2012-2020</t>
   </si>
   <si>
@@ -1001,6 +998,12 @@
   </si>
   <si>
     <t>Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007480330</t>
+  </si>
+  <si>
+    <t>Casos de violencia hacia la mujer || Chile || periodo 2012-2020</t>
   </si>
 </sst>
 </file>
@@ -1623,348 +1626,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2030,6 +1692,24 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2323,7 +2003,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2684568</xdr:colOff>
+      <xdr:colOff>3279631</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2729,22 +2409,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}" name="Tabla1" displayName="Tabla1" ref="A10:Z768" totalsRowShown="0" headerRowDxfId="44">
-  <autoFilter ref="A10:Z768" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}" name="Tabla1" displayName="Tabla1" ref="A10:Z768" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A10:Z768" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="27.16"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{9405359C-2D08-4927-8309-AD9E156D9026}" name="Corr" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{9405359C-2D08-4927-8309-AD9E156D9026}" name="Corr" dataDxfId="12">
       <calculatedColumnFormula>+A10+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6916B56A-1FFB-47BD-AB36-C9A1F4A1884F}" name="Tabla Madre" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{6916B56A-1FFB-47BD-AB36-C9A1F4A1884F}" name="Tabla Madre" dataDxfId="11">
       <calculatedColumnFormula>+B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B08D57A8-E4F6-4FC0-AA6C-FF06B6F6F3AD}" name="Informe" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{B08D57A8-E4F6-4FC0-AA6C-FF06B6F6F3AD}" name="Informe" dataDxfId="10">
       <calculatedColumnFormula>+F11&amp;" - "&amp;J11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4492D037-8C82-4A30-94B4-E87C336E7F84}" name="Link" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{4492D037-8C82-4A30-94B4-E87C336E7F84}" name="Link" dataDxfId="9">
       <calculatedColumnFormula>+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D01B13B5-7D0C-4839-9CEA-E2750FCB0A15}" name="n" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{D01B13B5-7D0C-4839-9CEA-E2750FCB0A15}" name="n" dataDxfId="8">
       <calculatedColumnFormula>+E10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{A77C718B-68FC-4AEF-8628-75AB8ED02148}" name="Tipo Gráfico">
@@ -2756,7 +2442,7 @@
     <tableColumn id="8" xr3:uid="{A05ABD01-363D-469E-BC6E-DFA18A48460B}" name="MOVIL">
       <calculatedColumnFormula>+H10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{379B7179-374F-40B7-A6A4-EEB465D3F44C}" name="ID FILTRO" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{379B7179-374F-40B7-A6A4-EEB465D3F44C}" name="ID FILTRO" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{301DB08E-353F-4613-B84F-C3785CA0ECB2}" name="DESCRIPCION FILTRO"/>
     <tableColumn id="24" xr3:uid="{E2E0E145-C64C-46D1-A0D3-B4110A165F85}" name="TÍTULO"/>
     <tableColumn id="11" xr3:uid="{61C8F038-F680-4E4C-A469-5287470550AE}" name="LINK COPIADO COMO TEXTO" dataCellStyle="Hipervínculo">
@@ -2775,29 +2461,29 @@
     <tableColumn id="15" xr3:uid="{BDA73192-7FF4-40A6-A659-15014FD04C96}" name="Separación miles"/>
     <tableColumn id="16" xr3:uid="{4B5A268A-7E38-445B-83D9-7577A5B1ECF7}" name="Sin decimales"/>
     <tableColumn id="25" xr3:uid="{6E9C46C1-C1B6-4151-89B5-8F25EA57823F}" name="widges"/>
-    <tableColumn id="17" xr3:uid="{BDCE3429-9A69-428E-8B05-222179C803BA}" name="Observación" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{BDCE3429-9A69-428E-8B05-222179C803BA}" name="Observación" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}" name="Tabla13" displayName="Tabla13" ref="A10:U37" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}" name="Tabla13" displayName="Tabla13" ref="A10:U37" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A10:U37" xr:uid="{5330E9F4-15F6-4747-BFA8-16D6198AE75D}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{EE0CEE91-9BF9-45E9-B3F6-D5CF168DC104}" name="Corr" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{EE0CEE91-9BF9-45E9-B3F6-D5CF168DC104}" name="Corr" dataDxfId="4">
       <calculatedColumnFormula>+A10+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{763C848B-35E0-4F75-94EB-67F9CB588602}" name="Tabla Madre" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{763C848B-35E0-4F75-94EB-67F9CB588602}" name="Tabla Madre" dataDxfId="3">
       <calculatedColumnFormula>+B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{74E9E8E8-5783-471B-A382-817661045923}" name="Informe" dataDxfId="47">
+    <tableColumn id="3" xr3:uid="{74E9E8E8-5783-471B-A382-817661045923}" name="Informe" dataDxfId="2">
       <calculatedColumnFormula>+F11&amp;" - "&amp;I11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{543015FD-B734-45F7-851D-91014B209BC3}" name="Link" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{543015FD-B734-45F7-851D-91014B209BC3}" name="Link" dataDxfId="1">
       <calculatedColumnFormula>+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A41C7425-CB0B-4741-9894-F0814D0AAB70}" name="n" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{A41C7425-CB0B-4741-9894-F0814D0AAB70}" name="n" dataDxfId="0">
       <calculatedColumnFormula>+E10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{19738F97-30C0-4618-9639-0488ECAA7F9D}" name="Tipo Gráfico">
@@ -3128,11 +2814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6890B1-E2BF-4865-91A1-1A07BA057A6F}">
   <dimension ref="A1:Z768"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C669" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D686" sqref="D672:D686"/>
+      <selection pane="bottomRight" activeCell="L316" sqref="L316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3262,7 +2948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -3309,7 +2995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f>+A11+1</f>
         <v>2</v>
@@ -3360,7 +3046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>1</v>
       </c>
@@ -3401,7 +3087,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f>+A13+1</f>
         <v>2</v>
@@ -3445,7 +3131,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" ref="A15:A44" si="6">+A14+1</f>
         <v>3</v>
@@ -3489,7 +3175,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -3533,7 +3219,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -3577,7 +3263,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -3621,7 +3307,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -3665,7 +3351,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -3709,7 +3395,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -3753,7 +3439,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f>+A21+1</f>
         <v>10</v>
@@ -3797,7 +3483,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -3841,7 +3527,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -3885,7 +3571,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -3929,7 +3615,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -3973,7 +3659,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4017,7 +3703,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -4061,7 +3747,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>1</v>
       </c>
@@ -4130,7 +3816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -4174,7 +3860,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -4218,7 +3904,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -4262,7 +3948,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -4306,7 +3992,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -4350,7 +4036,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -4394,7 +4080,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -4438,7 +4124,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -4482,7 +4168,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -4526,7 +4212,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -4570,7 +4256,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -4614,7 +4300,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4658,7 +4344,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -4702,7 +4388,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4746,7 +4432,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -4790,7 +4476,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>1</v>
       </c>
@@ -4844,7 +4530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="41">
         <v>1</v>
       </c>
@@ -4884,7 +4570,7 @@
         <v>II 01 - Nacional</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="48">
         <v>1</v>
       </c>
@@ -4925,7 +4611,7 @@
         <v>II 01 - Centros de la Mujer</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <f t="shared" ref="A48:A110" si="16">+A47+1</f>
         <v>2</v>
@@ -4969,7 +4655,7 @@
         <v>II 01 - Casas de Acogida</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="53">
         <v>1</v>
       </c>
@@ -5010,7 +4696,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <f t="shared" si="16"/>
         <v>2</v>
@@ -5054,7 +4740,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -5098,7 +4784,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -5142,7 +4828,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
@@ -5186,7 +4872,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -5230,7 +4916,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <f t="shared" si="16"/>
         <v>7</v>
@@ -5274,7 +4960,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
@@ -5318,7 +5004,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
@@ -5362,7 +5048,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
@@ -5406,7 +5092,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
@@ -5450,7 +5136,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
@@ -5494,7 +5180,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <f t="shared" si="16"/>
         <v>13</v>
@@ -5538,7 +5224,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -5624,7 +5310,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -5668,7 +5354,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -5712,7 +5398,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -5756,7 +5442,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="53">
         <v>1</v>
       </c>
@@ -5799,7 +5485,7 @@
         <v>II 02 - Juzgado de Garantía de Coquimbo</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <f t="shared" si="16"/>
         <v>2</v>
@@ -5843,7 +5529,7 @@
         <v>II 02 - Juzgado de Garantía de Valparaiso</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -5887,7 +5573,7 @@
         <v>II 02 - Juzgado de Garantía de Viña Del Mar</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -5931,7 +5617,7 @@
         <v>II 02 - Juzgado de Garantía de Rancagua</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <f t="shared" si="16"/>
         <v>5</v>
@@ -5975,7 +5661,7 @@
         <v>II 02 - Juzgado de Garantía de San Fernando</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -6019,7 +5705,7 @@
         <v>II 02 - Juzgado de Garantía de Concepcion</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <f t="shared" si="16"/>
         <v>7</v>
@@ -6063,7 +5749,7 @@
         <v>II 02 - Juzgado de Garantía de Los Angeles</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <f t="shared" si="16"/>
         <v>8</v>
@@ -6107,7 +5793,7 @@
         <v>II 02 - Juzgado de Garantía de Tome</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
@@ -6151,7 +5837,7 @@
         <v>II 02 - Juzgado de Garantía de Osorno</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <f t="shared" si="16"/>
         <v>10</v>
@@ -6195,7 +5881,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Montt</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <f t="shared" si="16"/>
         <v>11</v>
@@ -6239,7 +5925,7 @@
         <v>II 02 - Juzgado de Garantía de Punta Arenas</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <f t="shared" si="16"/>
         <v>12</v>
@@ -6283,7 +5969,7 @@
         <v>II 02 - 10º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <f t="shared" si="16"/>
         <v>13</v>
@@ -6327,7 +6013,7 @@
         <v>II 02 - 12º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -6371,7 +6057,7 @@
         <v>II 02 - 13º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -6415,7 +6101,7 @@
         <v>II 02 - 14º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -6459,7 +6145,7 @@
         <v>II 02 - 15º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -6503,7 +6189,7 @@
         <v>II 02 - 2º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <f t="shared" si="16"/>
         <v>18</v>
@@ -6547,7 +6233,7 @@
         <v>II 02 - 3º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <f t="shared" si="16"/>
         <v>19</v>
@@ -6591,7 +6277,7 @@
         <v>II 02 - 4º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <f t="shared" si="16"/>
         <v>20</v>
@@ -6635,7 +6321,7 @@
         <v>II 02 - 5º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <f t="shared" si="16"/>
         <v>21</v>
@@ -6679,7 +6365,7 @@
         <v>II 02 - 6º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <f t="shared" si="16"/>
         <v>22</v>
@@ -6723,7 +6409,7 @@
         <v>II 02 - 7º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <f t="shared" si="16"/>
         <v>23</v>
@@ -6767,7 +6453,7 @@
         <v>II 02 - 8º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <f t="shared" si="16"/>
         <v>24</v>
@@ -6811,7 +6497,7 @@
         <v>II 02 - Juzgado de Garantía de Yungay</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <f t="shared" si="16"/>
         <v>25</v>
@@ -6855,7 +6541,7 @@
         <v>II 02 - Juzgado de Garantía de La Serena</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <f t="shared" si="16"/>
         <v>26</v>
@@ -6899,7 +6585,7 @@
         <v>II 02 - Juzgado de Garantía de Ovalle</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <f t="shared" si="16"/>
         <v>27</v>
@@ -6943,7 +6629,7 @@
         <v>II 02 - 9º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <f t="shared" si="16"/>
         <v>28</v>
@@ -6987,7 +6673,7 @@
         <v>II 02 - Juzgado de Garantía de Pitrufquen</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <f t="shared" si="16"/>
         <v>29</v>
@@ -7031,7 +6717,7 @@
         <v>II 02 - 11º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <f t="shared" si="16"/>
         <v>30</v>
@@ -7075,7 +6761,7 @@
         <v>II 02 - 1º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <f t="shared" si="16"/>
         <v>31</v>
@@ -7119,7 +6805,7 @@
         <v>II 02 - Juzgado de Garantía de Antofagasta</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <f t="shared" si="16"/>
         <v>32</v>
@@ -7163,7 +6849,7 @@
         <v>II 02 - Juzgado de Garantía de Illapel</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <f t="shared" si="16"/>
         <v>33</v>
@@ -7207,7 +6893,7 @@
         <v>II 02 - Juzgado de Garantía de Calera</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <f t="shared" si="16"/>
         <v>34</v>
@@ -7251,7 +6937,7 @@
         <v>II 02 - Juzgado de Garantía de Los Andes</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <f t="shared" si="16"/>
         <v>35</v>
@@ -7295,7 +6981,7 @@
         <v>II 02 - Juzgado de Garantía de Quillota</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <f t="shared" si="16"/>
         <v>36</v>
@@ -7339,7 +7025,7 @@
         <v>II 02 - Juzgado de Garantía de Cauquenes</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <f t="shared" si="16"/>
         <v>37</v>
@@ -7383,7 +7069,7 @@
         <v>II 02 - Juzgado de Garantía de San Javier</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <f t="shared" si="16"/>
         <v>38</v>
@@ -7427,7 +7113,7 @@
         <v>II 02 - Juzgado de Garantía de Talca</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <f t="shared" si="16"/>
         <v>39</v>
@@ -7471,7 +7157,7 @@
         <v>II 02 - Juzgado de Garantía de Cañete</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <f t="shared" si="16"/>
         <v>40</v>
@@ -7515,7 +7201,7 @@
         <v>II 02 - Juzgado de Garantía de Talcahuano</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <f t="shared" si="16"/>
         <v>41</v>
@@ -7559,7 +7245,7 @@
         <v>II 02 - Juzgado de Garantía de Temuco</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <f t="shared" si="16"/>
         <v>42</v>
@@ -7603,7 +7289,7 @@
         <v>II 02 - Juzgado de Garantía de Castro</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <f t="shared" si="16"/>
         <v>43</v>
@@ -7647,7 +7333,7 @@
         <v>II 02 - Juzgado de Garantía de Arica</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <f t="shared" si="16"/>
         <v>44</v>
@@ -7691,7 +7377,7 @@
         <v>II 02 - Juzgado de Garantía de Iquique</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <f t="shared" si="16"/>
         <v>45</v>
@@ -7735,7 +7421,7 @@
         <v>II 02 - Juzgado de Garantía de Calama</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <f t="shared" ref="A111:A177" si="24">+A110+1</f>
         <v>46</v>
@@ -7779,7 +7465,7 @@
         <v>II 02 - Juzgado de Garantía de Tocopilla</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <f t="shared" si="24"/>
         <v>47</v>
@@ -7823,7 +7509,7 @@
         <v>II 02 - Juzgado de Garantía de Copiapo</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <f t="shared" si="24"/>
         <v>48</v>
@@ -7867,7 +7553,7 @@
         <v>II 02 - Juzgado de Garantía de Diego de Almagro</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <f t="shared" si="24"/>
         <v>49</v>
@@ -7911,7 +7597,7 @@
         <v>II 02 - Juzgado de Garantía de Vallenar</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <f t="shared" si="24"/>
         <v>50</v>
@@ -7955,7 +7641,7 @@
         <v>II 02 - Juzgado de Garantía de Vicuña</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <f t="shared" si="24"/>
         <v>51</v>
@@ -7999,7 +7685,7 @@
         <v>II 02 - Juzgado de Garantía de La Ligua</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <f t="shared" si="24"/>
         <v>52</v>
@@ -8043,7 +7729,7 @@
         <v>II 02 - Juzgado de Garantía de Limache</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <f t="shared" si="24"/>
         <v>53</v>
@@ -8087,7 +7773,7 @@
         <v>II 02 - Juzgado de Garantía de Quilpue</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <f t="shared" si="24"/>
         <v>54</v>
@@ -8131,7 +7817,7 @@
         <v>II 02 - Juzgado de Garantía de San Felipe</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <f t="shared" si="24"/>
         <v>55</v>
@@ -8175,7 +7861,7 @@
         <v>II 02 - Juzgado de Garantía de Villa Alemana</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <f t="shared" si="24"/>
         <v>56</v>
@@ -8219,7 +7905,7 @@
         <v>II 02 - Juzgado de Garantía de Graneros</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <f t="shared" si="24"/>
         <v>57</v>
@@ -8263,7 +7949,7 @@
         <v>II 02 - Juzgado de Garantía de Rengo</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <f t="shared" si="24"/>
         <v>58</v>
@@ -8307,7 +7993,7 @@
         <v>II 02 - Juzgado de Garantía de San Vicente</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <f t="shared" si="24"/>
         <v>59</v>
@@ -8351,7 +8037,7 @@
         <v>II 02 - Juzgado de Garantía de Santa Cruz</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <f t="shared" si="24"/>
         <v>60</v>
@@ -8395,7 +8081,7 @@
         <v>II 02 - Juzgado de Garantía de Constitucion</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <f t="shared" si="24"/>
         <v>61</v>
@@ -8439,7 +8125,7 @@
         <v>II 02 - Juzgado de Garantía de Curico</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <f t="shared" si="24"/>
         <v>62</v>
@@ -8483,7 +8169,7 @@
         <v>II 02 - Juzgado de Garantía de Linares</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <f t="shared" si="24"/>
         <v>63</v>
@@ -8527,7 +8213,7 @@
         <v>II 02 - Juzgado de Garantía de Molina</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <f t="shared" si="24"/>
         <v>64</v>
@@ -8571,7 +8257,7 @@
         <v>II 02 - Juzgado de Garantía de Parral</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <f t="shared" si="24"/>
         <v>65</v>
@@ -8615,7 +8301,7 @@
         <v>II 02 - Juzgado de Garantía de Arauco</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <f t="shared" si="24"/>
         <v>66</v>
@@ -8659,7 +8345,7 @@
         <v>II 02 - Juzgado de Garantía de Chiguayante</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <f t="shared" si="24"/>
         <v>67</v>
@@ -8703,7 +8389,7 @@
         <v>II 02 - Juzgado de Garantía de Coronel</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <f t="shared" si="24"/>
         <v>68</v>
@@ -8747,7 +8433,7 @@
         <v>II 02 - Juzgado de Garantía de Angol</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <f t="shared" si="24"/>
         <v>69</v>
@@ -8791,7 +8477,7 @@
         <v>II 02 - Juzgado de Garantía de Lautaro</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <f t="shared" si="24"/>
         <v>70</v>
@@ -8835,7 +8521,7 @@
         <v>II 02 - Juzgado de Garantía de Loncoche</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <f t="shared" si="24"/>
         <v>71</v>
@@ -8879,7 +8565,7 @@
         <v>II 02 - Juzgado de Garantía de Nueva Imperial</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <f t="shared" si="24"/>
         <v>72</v>
@@ -8923,7 +8609,7 @@
         <v>II 02 - Juzgado de Garantía de Victoria</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <f t="shared" si="24"/>
         <v>73</v>
@@ -8967,7 +8653,7 @@
         <v>II 02 - Juzgado de Garantía de Villarrica</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <f t="shared" si="24"/>
         <v>74</v>
@@ -9011,7 +8697,7 @@
         <v>II 02 - Juzgado de Garantía de Ancud</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <f t="shared" si="24"/>
         <v>75</v>
@@ -9055,7 +8741,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Varas</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <f t="shared" si="24"/>
         <v>76</v>
@@ -9099,7 +8785,7 @@
         <v>II 02 - Juzgado de Garantía de Rio Negro</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <f t="shared" si="24"/>
         <v>77</v>
@@ -9143,7 +8829,7 @@
         <v>II 02 - Juzgado de Garantía de Coyhaique</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <f t="shared" si="24"/>
         <v>78</v>
@@ -9187,7 +8873,7 @@
         <v>II 02 - Juzgado de Garantía de Los Lagos</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <f t="shared" si="24"/>
         <v>79</v>
@@ -9231,7 +8917,7 @@
         <v>II 02 - Juzgado de Garantía de Mariquina</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <f t="shared" si="24"/>
         <v>80</v>
@@ -9275,7 +8961,7 @@
         <v>II 02 - Juzgado de Garantía de Valdivia</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <f t="shared" si="24"/>
         <v>81</v>
@@ -9319,7 +9005,7 @@
         <v>II 02 - Juzgado de Garantía de Chillan</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <f t="shared" si="24"/>
         <v>82</v>
@@ -9363,7 +9049,7 @@
         <v>II 02 - Juzgado de Garantía de San Carlos</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="53">
         <v>1</v>
       </c>
@@ -9405,7 +9091,7 @@
         <v>II 03 - Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <f t="shared" si="24"/>
         <v>2</v>
@@ -9449,7 +9135,7 @@
         <v>II 03 - Violación</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -9493,7 +9179,7 @@
         <v>II 03 - Violación De Mayor De 14 Años</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -9537,7 +9223,7 @@
         <v>II 03 - Violación De Menor De 14 Años</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <f t="shared" si="24"/>
         <v>5</v>
@@ -9581,7 +9267,7 @@
         <v>II 03 - Violación Con Homicidio O Femicidio</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <f t="shared" si="24"/>
         <v>6</v>
@@ -9625,7 +9311,7 @@
         <v>II 03 - Tortura Con Violación, Abuso Sexual Agravado/Otros</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="58">
         <v>1</v>
       </c>
@@ -9666,7 +9352,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <f t="shared" si="24"/>
         <v>2</v>
@@ -9710,7 +9396,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -9754,7 +9440,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -9798,7 +9484,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <f t="shared" si="24"/>
         <v>5</v>
@@ -9842,7 +9528,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <f t="shared" si="24"/>
         <v>6</v>
@@ -9886,7 +9572,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <f t="shared" si="24"/>
         <v>7</v>
@@ -9930,7 +9616,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <f t="shared" si="24"/>
         <v>8</v>
@@ -9974,7 +9660,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <f t="shared" si="24"/>
         <v>9</v>
@@ -10018,7 +9704,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <f t="shared" si="24"/>
         <v>10</v>
@@ -10062,7 +9748,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <f t="shared" si="24"/>
         <v>11</v>
@@ -10106,7 +9792,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <f t="shared" si="24"/>
         <v>12</v>
@@ -10150,7 +9836,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <f t="shared" si="24"/>
         <v>13</v>
@@ -10194,7 +9880,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <f t="shared" si="24"/>
         <v>14</v>
@@ -10238,7 +9924,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <f t="shared" si="24"/>
         <v>15</v>
@@ -10282,7 +9968,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <f t="shared" si="24"/>
         <v>16</v>
@@ -10326,7 +10012,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="58">
         <v>1</v>
       </c>
@@ -10368,7 +10054,7 @@
         <v>II 02 - No sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <f t="shared" si="24"/>
         <v>2</v>
@@ -10412,7 +10098,7 @@
         <v>II 02 - Sin Datos</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -10456,7 +10142,7 @@
         <v>II 02 - Sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="24">
         <v>1</v>
       </c>
@@ -10498,7 +10184,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <f t="shared" si="24"/>
         <v>2</v>
@@ -10542,7 +10228,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -10586,7 +10272,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -10630,7 +10316,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <f t="shared" si="24"/>
         <v>5</v>
@@ -10674,7 +10360,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <f t="shared" ref="A178:A240" si="41">+A177+1</f>
         <v>6</v>
@@ -10718,7 +10404,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <f t="shared" si="41"/>
         <v>7</v>
@@ -10762,7 +10448,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <f t="shared" si="41"/>
         <v>8</v>
@@ -10806,7 +10492,7 @@
         <v>II 01 - O Higgins</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <f t="shared" si="41"/>
         <v>9</v>
@@ -10850,7 +10536,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <f t="shared" si="41"/>
         <v>10</v>
@@ -10894,7 +10580,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <f t="shared" si="41"/>
         <v>11</v>
@@ -10938,7 +10624,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <f t="shared" si="41"/>
         <v>12</v>
@@ -10982,7 +10668,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <f t="shared" si="41"/>
         <v>13</v>
@@ -11026,7 +10712,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <f t="shared" si="41"/>
         <v>14</v>
@@ -11070,7 +10756,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <f t="shared" si="41"/>
         <v>15</v>
@@ -11114,7 +10800,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <f t="shared" si="41"/>
         <v>16</v>
@@ -11158,7 +10844,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="63">
         <v>1</v>
       </c>
@@ -11197,7 +10883,7 @@
         <v>II 01 - Nacional</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="68">
         <v>1</v>
       </c>
@@ -11237,7 +10923,7 @@
         <v>II 01 - Total</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="46">
         <v>1</v>
       </c>
@@ -11278,7 +10964,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <f t="shared" si="41"/>
         <v>2</v>
@@ -11319,7 +11005,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <f t="shared" si="41"/>
         <v>3</v>
@@ -11363,7 +11049,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <f t="shared" si="41"/>
         <v>4</v>
@@ -11407,7 +11093,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <f t="shared" si="41"/>
         <v>5</v>
@@ -11451,7 +11137,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <f t="shared" si="41"/>
         <v>6</v>
@@ -11495,7 +11181,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <f t="shared" si="41"/>
         <v>7</v>
@@ -11539,7 +11225,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <f t="shared" si="41"/>
         <v>8</v>
@@ -11583,7 +11269,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <f t="shared" si="41"/>
         <v>9</v>
@@ -11627,7 +11313,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <f t="shared" si="41"/>
         <v>10</v>
@@ -11671,7 +11357,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <f t="shared" si="41"/>
         <v>11</v>
@@ -11715,7 +11401,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <f t="shared" si="41"/>
         <v>12</v>
@@ -11759,7 +11445,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <f t="shared" si="41"/>
         <v>13</v>
@@ -11803,7 +11489,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <f t="shared" si="41"/>
         <v>14</v>
@@ -11847,7 +11533,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <f t="shared" si="41"/>
         <v>15</v>
@@ -11891,7 +11577,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <f t="shared" si="41"/>
         <v>16</v>
@@ -11935,7 +11621,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <f t="shared" si="41"/>
         <v>17</v>
@@ -11979,7 +11665,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="46">
         <v>1</v>
       </c>
@@ -12021,7 +11707,7 @@
         <v>II 02 - Juzgado de Garantía de Iquique</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <f t="shared" si="41"/>
         <v>2</v>
@@ -12065,7 +11751,7 @@
         <v>II 02 - Juzgado de Garantía de Antofagasta</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <f t="shared" si="41"/>
         <v>3</v>
@@ -12109,7 +11795,7 @@
         <v>II 02 - Juzgado de Garantía de Calama</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <f t="shared" si="41"/>
         <v>4</v>
@@ -12153,7 +11839,7 @@
         <v>II 02 - Juzgado de Garantía de Tocopilla</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <f t="shared" si="41"/>
         <v>5</v>
@@ -12197,7 +11883,7 @@
         <v>II 02 - Juzgado de Garantía de Copiapo</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <f t="shared" si="41"/>
         <v>6</v>
@@ -12241,7 +11927,7 @@
         <v>II 02 - Juzgado de Garantía de Diego de Almagro</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <f t="shared" si="41"/>
         <v>7</v>
@@ -12285,7 +11971,7 @@
         <v>II 02 - Juzgado de Garantía de Vallenar</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <f t="shared" si="41"/>
         <v>8</v>
@@ -12329,7 +12015,7 @@
         <v>II 02 - Juzgado de Garantía de Coquimbo</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <f t="shared" si="41"/>
         <v>9</v>
@@ -12373,7 +12059,7 @@
         <v>II 02 - Juzgado de Garantía de Illapel</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <f t="shared" si="41"/>
         <v>10</v>
@@ -12417,7 +12103,7 @@
         <v>II 02 - Juzgado de Garantía de La Serena</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <f t="shared" si="41"/>
         <v>11</v>
@@ -12461,7 +12147,7 @@
         <v>II 02 - Juzgado de Garantía de Ovalle</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <f t="shared" si="41"/>
         <v>12</v>
@@ -12505,7 +12191,7 @@
         <v>II 02 - Juzgado de Garantía de Vicuña</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <f t="shared" si="41"/>
         <v>13</v>
@@ -12549,7 +12235,7 @@
         <v>II 02 - Juzgado de Garantía de Calera</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <f t="shared" si="41"/>
         <v>14</v>
@@ -12593,7 +12279,7 @@
         <v>II 02 - Juzgado de Garantía de La Ligua</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <f t="shared" si="41"/>
         <v>15</v>
@@ -12637,7 +12323,7 @@
         <v>II 02 - Juzgado de Garantía de Limache</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <f t="shared" si="41"/>
         <v>16</v>
@@ -12681,7 +12367,7 @@
         <v>II 02 - Juzgado de Garantía de Los Andes</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <f t="shared" si="41"/>
         <v>17</v>
@@ -12725,7 +12411,7 @@
         <v>II 02 - Juzgado de Garantía de Quillota</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <f t="shared" si="41"/>
         <v>18</v>
@@ -12769,7 +12455,7 @@
         <v>II 02 - Juzgado de Garantía de Quilpue</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <f t="shared" si="41"/>
         <v>19</v>
@@ -12813,7 +12499,7 @@
         <v>II 02 - Juzgado de Garantía de San Felipe</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <f t="shared" si="41"/>
         <v>20</v>
@@ -12857,7 +12543,7 @@
         <v>II 02 - Juzgado de Garantía de Valparaiso</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <f t="shared" si="41"/>
         <v>21</v>
@@ -12901,7 +12587,7 @@
         <v>II 02 - Juzgado de Garantía de Villa Alemana</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <f t="shared" si="41"/>
         <v>22</v>
@@ -12945,7 +12631,7 @@
         <v>II 02 - Juzgado de Garantía de Viña Del Mar</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <f t="shared" si="41"/>
         <v>23</v>
@@ -12989,7 +12675,7 @@
         <v>II 02 - Juzgado de Garantía de Graneros</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <f t="shared" si="41"/>
         <v>24</v>
@@ -13033,7 +12719,7 @@
         <v>II 02 - Juzgado de Garantía de Rancagua</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <f t="shared" si="41"/>
         <v>25</v>
@@ -13077,7 +12763,7 @@
         <v>II 02 - Juzgado de Garantía de Rengo</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <f t="shared" si="41"/>
         <v>26</v>
@@ -13121,7 +12807,7 @@
         <v>II 02 - Juzgado de Garantía de San Fernando</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <f t="shared" si="41"/>
         <v>27</v>
@@ -13165,7 +12851,7 @@
         <v>II 02 - Juzgado de Garantía de San Vicente</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <f t="shared" si="41"/>
         <v>28</v>
@@ -13209,7 +12895,7 @@
         <v>II 02 - Juzgado de Garantía de Santa Cruz</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <f t="shared" si="41"/>
         <v>29</v>
@@ -13253,7 +12939,7 @@
         <v>II 02 - Juzgado de Garantía de Cauquenes</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <f t="shared" si="41"/>
         <v>30</v>
@@ -13297,7 +12983,7 @@
         <v>II 02 - Juzgado de Garantía de Constitucion</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <f t="shared" si="41"/>
         <v>31</v>
@@ -13341,7 +13027,7 @@
         <v>II 02 - Juzgado de Garantía de Curico</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <f t="shared" si="41"/>
         <v>32</v>
@@ -13385,7 +13071,7 @@
         <v>II 02 - Juzgado de Garantía de Linares</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <f t="shared" si="41"/>
         <v>33</v>
@@ -13429,7 +13115,7 @@
         <v>II 02 - Juzgado de Garantía de Molina</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <f t="shared" ref="A241:A305" si="53">+A240+1</f>
         <v>34</v>
@@ -13473,7 +13159,7 @@
         <v>II 02 - Juzgado de Garantía de Parral</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <f t="shared" si="53"/>
         <v>35</v>
@@ -13517,7 +13203,7 @@
         <v>II 02 - Juzgado de Garantía de San Javier</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <f t="shared" si="53"/>
         <v>36</v>
@@ -13561,7 +13247,7 @@
         <v>II 02 - Juzgado de Garantía de Talca</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <f t="shared" si="53"/>
         <v>37</v>
@@ -13605,7 +13291,7 @@
         <v>II 02 - Juzgado de Garantía de Arauco</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <f t="shared" si="53"/>
         <v>38</v>
@@ -13649,7 +13335,7 @@
         <v>II 02 - Juzgado de Garantía de Cañete</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <f t="shared" si="53"/>
         <v>39</v>
@@ -13693,7 +13379,7 @@
         <v>II 02 - Juzgado de Garantía de Chiguayante</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <f t="shared" si="53"/>
         <v>40</v>
@@ -13737,7 +13423,7 @@
         <v>II 02 - Juzgado de Garantía de Concepcion</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <f t="shared" si="53"/>
         <v>41</v>
@@ -13781,7 +13467,7 @@
         <v>II 02 - Juzgado de Garantía de Coronel</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <f t="shared" si="53"/>
         <v>42</v>
@@ -13825,7 +13511,7 @@
         <v>II 02 - Juzgado de Garantía de Los Angeles</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <f t="shared" si="53"/>
         <v>43</v>
@@ -13869,7 +13555,7 @@
         <v>II 02 - Juzgado de Garantía de Talcahuano</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <f t="shared" si="53"/>
         <v>44</v>
@@ -13913,7 +13599,7 @@
         <v>II 02 - Juzgado de Garantía de Tome</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <f t="shared" si="53"/>
         <v>45</v>
@@ -13957,7 +13643,7 @@
         <v>II 02 - Juzgado de Garantía de Angol</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <f t="shared" si="53"/>
         <v>46</v>
@@ -14001,7 +13687,7 @@
         <v>II 02 - Juzgado de Garantía de Lautaro</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <f t="shared" si="53"/>
         <v>47</v>
@@ -14045,7 +13731,7 @@
         <v>II 02 - Juzgado de Garantía de Loncoche</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <f t="shared" si="53"/>
         <v>48</v>
@@ -14089,7 +13775,7 @@
         <v>II 02 - Juzgado de Garantía de Nueva Imperial</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <f t="shared" si="53"/>
         <v>49</v>
@@ -14133,7 +13819,7 @@
         <v>II 02 - Juzgado de Garantía de Pitrufquen</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <f t="shared" si="53"/>
         <v>50</v>
@@ -14177,7 +13863,7 @@
         <v>II 02 - Juzgado de Garantía de Temuco</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <f t="shared" si="53"/>
         <v>51</v>
@@ -14221,7 +13907,7 @@
         <v>II 02 - Juzgado de Garantía de Victoria</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <f t="shared" si="53"/>
         <v>52</v>
@@ -14265,7 +13951,7 @@
         <v>II 02 - Juzgado de Garantía de Villarrica</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <f t="shared" si="53"/>
         <v>53</v>
@@ -14309,7 +13995,7 @@
         <v>II 02 - Juzgado de Garantía de Ancud</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <f t="shared" si="53"/>
         <v>54</v>
@@ -14353,7 +14039,7 @@
         <v>II 02 - Juzgado de Garantía de Castro</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <f t="shared" si="53"/>
         <v>55</v>
@@ -14397,7 +14083,7 @@
         <v>II 02 - Juzgado de Garantía de Osorno</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <f t="shared" si="53"/>
         <v>56</v>
@@ -14441,7 +14127,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Montt</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <f t="shared" si="53"/>
         <v>57</v>
@@ -14485,7 +14171,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Varas</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <f t="shared" si="53"/>
         <v>58</v>
@@ -14529,7 +14215,7 @@
         <v>II 02 - Juzgado de Garantía de Rio Negro</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <f t="shared" si="53"/>
         <v>59</v>
@@ -14573,7 +14259,7 @@
         <v>II 02 - Juzgado de Garantía de Coyhaique</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <f t="shared" si="53"/>
         <v>60</v>
@@ -14617,7 +14303,7 @@
         <v>II 02 - Juzgado de Garantía de Punta Arenas</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <f t="shared" si="53"/>
         <v>61</v>
@@ -14661,7 +14347,7 @@
         <v>II 02 - 10º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <f t="shared" si="53"/>
         <v>62</v>
@@ -14705,7 +14391,7 @@
         <v>II 02 - 11º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <f t="shared" si="53"/>
         <v>63</v>
@@ -14749,7 +14435,7 @@
         <v>II 02 - 12º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <f t="shared" si="53"/>
         <v>64</v>
@@ -14793,7 +14479,7 @@
         <v>II 02 - 13º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <f t="shared" si="53"/>
         <v>65</v>
@@ -14837,7 +14523,7 @@
         <v>II 02 - 14º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <f t="shared" si="53"/>
         <v>66</v>
@@ -14881,7 +14567,7 @@
         <v>II 02 - 15º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <f t="shared" si="53"/>
         <v>67</v>
@@ -14925,7 +14611,7 @@
         <v>II 02 - 1º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <f t="shared" si="53"/>
         <v>68</v>
@@ -14969,7 +14655,7 @@
         <v>II 02 - 2º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <f t="shared" si="53"/>
         <v>69</v>
@@ -15013,7 +14699,7 @@
         <v>II 02 - 3º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <f t="shared" si="53"/>
         <v>70</v>
@@ -15057,7 +14743,7 @@
         <v>II 02 - 4º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <f t="shared" si="53"/>
         <v>71</v>
@@ -15101,7 +14787,7 @@
         <v>II 02 - 5º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <f t="shared" si="53"/>
         <v>72</v>
@@ -15145,7 +14831,7 @@
         <v>II 02 - 6º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <f t="shared" si="53"/>
         <v>73</v>
@@ -15189,7 +14875,7 @@
         <v>II 02 - 7º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <f t="shared" si="53"/>
         <v>74</v>
@@ -15233,7 +14919,7 @@
         <v>II 02 - 8º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <f t="shared" si="53"/>
         <v>75</v>
@@ -15277,7 +14963,7 @@
         <v>II 02 - 9º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <f t="shared" si="53"/>
         <v>76</v>
@@ -15321,7 +15007,7 @@
         <v>II 02 - Juzgado de Garantía de Los Lagos</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <f t="shared" si="53"/>
         <v>77</v>
@@ -15365,7 +15051,7 @@
         <v>II 02 - Juzgado de Garantía de Mariquina</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <f t="shared" si="53"/>
         <v>78</v>
@@ -15409,7 +15095,7 @@
         <v>II 02 - Juzgado de Garantía de Valdivia</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <f t="shared" si="53"/>
         <v>79</v>
@@ -15453,7 +15139,7 @@
         <v>II 02 - Juzgado de Garantía de Arica</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <f t="shared" si="53"/>
         <v>80</v>
@@ -15497,7 +15183,7 @@
         <v>II 02 - Juzgado de Garantía de Chillan</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <f t="shared" si="53"/>
         <v>81</v>
@@ -15541,7 +15227,7 @@
         <v>II 02 - Juzgado de Garantía de San Carlos</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <f t="shared" si="53"/>
         <v>82</v>
@@ -15585,7 +15271,7 @@
         <v>II 02 - Juzgado de Garantía de Yungay</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="46">
         <v>1</v>
       </c>
@@ -15627,7 +15313,7 @@
         <v>II 03 - Abuso Sexual (Sólo Crimen)</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <f t="shared" si="53"/>
         <v>2</v>
@@ -15671,7 +15357,7 @@
         <v>II 03 - Abuso Sexual Adulto</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <f t="shared" si="53"/>
         <v>3</v>
@@ -15715,7 +15401,7 @@
         <v>II 03 - Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <f t="shared" si="53"/>
         <v>4</v>
@@ -15759,7 +15445,7 @@
         <v>II 03 - Abuso Sexual Con Contacto De Menor De 14 Años</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <f t="shared" si="53"/>
         <v>5</v>
@@ -15803,7 +15489,7 @@
         <v>II 03 - Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <f t="shared" si="53"/>
         <v>6</v>
@@ -15847,7 +15533,7 @@
         <v>II 03 - Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <f t="shared" si="53"/>
         <v>7</v>
@@ -15891,7 +15577,7 @@
         <v>II 03 - Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <f t="shared" si="53"/>
         <v>8</v>
@@ -15935,7 +15621,7 @@
         <v>II 03 - Abuso Sexual Sin Contacto</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <f t="shared" si="53"/>
         <v>9</v>
@@ -20724,7 +20410,7 @@
         <v>II 03 - Aborto Sin Consentimiento</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="86">
         <v>1</v>
       </c>
@@ -20765,7 +20451,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <f t="shared" si="74"/>
         <v>2</v>
@@ -20809,7 +20495,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <f t="shared" si="74"/>
         <v>3</v>
@@ -20853,7 +20539,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <f t="shared" si="74"/>
         <v>4</v>
@@ -20897,7 +20583,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <f t="shared" si="74"/>
         <v>5</v>
@@ -20941,7 +20627,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <f t="shared" si="74"/>
         <v>6</v>
@@ -20985,7 +20671,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <f t="shared" si="74"/>
         <v>7</v>
@@ -21029,7 +20715,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <f t="shared" si="74"/>
         <v>8</v>
@@ -21073,7 +20759,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <f t="shared" si="74"/>
         <v>9</v>
@@ -21117,7 +20803,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <f t="shared" si="74"/>
         <v>10</v>
@@ -21161,7 +20847,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <f t="shared" si="74"/>
         <v>11</v>
@@ -21205,7 +20891,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <f t="shared" si="74"/>
         <v>12</v>
@@ -21249,7 +20935,7 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <f t="shared" si="74"/>
         <v>13</v>
@@ -21293,7 +20979,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <f t="shared" si="74"/>
         <v>14</v>
@@ -21337,7 +21023,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <f t="shared" si="74"/>
         <v>15</v>
@@ -21381,7 +21067,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <f t="shared" si="74"/>
         <v>16</v>
@@ -21425,7 +21111,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="86">
         <v>1</v>
       </c>
@@ -21467,7 +21153,7 @@
         <v>II 02 - Violencia Psicológica General Año</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <f t="shared" si="74"/>
         <v>2</v>
@@ -21511,7 +21197,7 @@
         <v>II 02 - Violencia Psicológica General Vida (año o vida)</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <f t="shared" si="74"/>
         <v>3</v>
@@ -21555,7 +21241,7 @@
         <v>II 02 - Violencia Psicológica Grave Año</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <f t="shared" si="74"/>
         <v>4</v>
@@ -21599,7 +21285,7 @@
         <v>II 02 - Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="86">
         <v>1</v>
       </c>
@@ -21641,7 +21327,7 @@
         <v>II 03 - Tarapacá</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <f t="shared" si="74"/>
         <v>2</v>
@@ -21685,7 +21371,7 @@
         <v>II 03 - Antofagasta</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <f t="shared" si="74"/>
         <v>3</v>
@@ -21729,7 +21415,7 @@
         <v>II 03 - Atacama</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <f t="shared" si="74"/>
         <v>4</v>
@@ -21773,7 +21459,7 @@
         <v>II 03 - Coquimbo</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <f t="shared" si="74"/>
         <v>5</v>
@@ -21817,7 +21503,7 @@
         <v>II 03 - Valparaíso</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <f t="shared" si="74"/>
         <v>6</v>
@@ -21861,7 +21547,7 @@
         <v>II 03 - O'Higgins</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <f t="shared" si="74"/>
         <v>7</v>
@@ -21905,7 +21591,7 @@
         <v>II 03 - Maule</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <f t="shared" ref="A434:A497" si="87">+A433+1</f>
         <v>8</v>
@@ -21949,7 +21635,7 @@
         <v>II 03 - Biobío</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <f t="shared" si="87"/>
         <v>9</v>
@@ -21993,7 +21679,7 @@
         <v>II 03 - Araucanía</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <f t="shared" si="87"/>
         <v>10</v>
@@ -22037,7 +21723,7 @@
         <v>II 03 - Los Lagos</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <f t="shared" si="87"/>
         <v>11</v>
@@ -22081,7 +21767,7 @@
         <v>II 03 - Aysén</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <f t="shared" si="87"/>
         <v>12</v>
@@ -22125,7 +21811,7 @@
         <v>II 03 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <f t="shared" si="87"/>
         <v>13</v>
@@ -22169,7 +21855,7 @@
         <v>II 03 - Metropolitana</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <f t="shared" si="87"/>
         <v>14</v>
@@ -22213,7 +21899,7 @@
         <v>II 03 - Los Ríos</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <f t="shared" si="87"/>
         <v>15</v>
@@ -22257,7 +21943,7 @@
         <v>II 03 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <f t="shared" si="87"/>
         <v>16</v>
@@ -22301,7 +21987,7 @@
         <v>II 03 - Ñuble</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="86">
         <v>1</v>
       </c>
@@ -22344,7 +22030,7 @@
         <v>II 04 - Violencia Psicológica General Año</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <f t="shared" si="87"/>
         <v>2</v>
@@ -22388,7 +22074,7 @@
         <v>II 04 - Violencia Psicológica General Vida (año o vida)</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <f t="shared" si="87"/>
         <v>3</v>
@@ -22432,7 +22118,7 @@
         <v>II 04 - Violencia Psicológica Grave Año</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <f t="shared" si="87"/>
         <v>4</v>
@@ -22476,7 +22162,7 @@
         <v>II 04 - Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="93">
         <v>1</v>
       </c>
@@ -22518,7 +22204,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <f t="shared" si="87"/>
         <v>2</v>
@@ -22562,7 +22248,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <f t="shared" si="87"/>
         <v>3</v>
@@ -22606,7 +22292,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <f t="shared" si="87"/>
         <v>4</v>
@@ -22650,7 +22336,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <f t="shared" si="87"/>
         <v>5</v>
@@ -22694,7 +22380,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <f t="shared" si="87"/>
         <v>6</v>
@@ -22738,7 +22424,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <f t="shared" si="87"/>
         <v>7</v>
@@ -22782,7 +22468,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <f t="shared" si="87"/>
         <v>8</v>
@@ -22826,7 +22512,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <f t="shared" si="87"/>
         <v>9</v>
@@ -22870,7 +22556,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <f t="shared" si="87"/>
         <v>10</v>
@@ -22914,7 +22600,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <f t="shared" si="87"/>
         <v>11</v>
@@ -22958,7 +22644,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <f t="shared" si="87"/>
         <v>12</v>
@@ -23002,7 +22688,7 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <f t="shared" si="87"/>
         <v>13</v>
@@ -23046,7 +22732,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <f t="shared" si="87"/>
         <v>14</v>
@@ -23090,7 +22776,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <f t="shared" si="87"/>
         <v>15</v>
@@ -23134,7 +22820,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <f t="shared" si="87"/>
         <v>16</v>
@@ -23178,7 +22864,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="93">
         <v>1</v>
       </c>
@@ -23220,7 +22906,7 @@
         <v>II 02 - Violencia Psicológica General Año</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <f t="shared" si="87"/>
         <v>2</v>
@@ -23264,7 +22950,7 @@
         <v>II 02 - Violencia Psicológica General Vida (año o vida)</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <f t="shared" si="87"/>
         <v>3</v>
@@ -23308,7 +22994,7 @@
         <v>II 02 - Violencia Psicológica Grave Año</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <f t="shared" si="87"/>
         <v>4</v>
@@ -23352,7 +23038,7 @@
         <v>II 02 - Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="93">
         <v>1</v>
       </c>
@@ -23394,7 +23080,7 @@
         <v>II 03 - Tarapacá</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <f t="shared" si="87"/>
         <v>2</v>
@@ -23438,7 +23124,7 @@
         <v>II 03 - Antofagasta</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <f t="shared" si="87"/>
         <v>3</v>
@@ -23482,7 +23168,7 @@
         <v>II 03 - Atacama</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <f t="shared" si="87"/>
         <v>4</v>
@@ -23526,7 +23212,7 @@
         <v>II 03 - Coquimbo</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <f t="shared" si="87"/>
         <v>5</v>
@@ -23570,7 +23256,7 @@
         <v>II 03 - Valparaíso</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <f t="shared" si="87"/>
         <v>6</v>
@@ -23614,7 +23300,7 @@
         <v>II 03 - O'Higgins</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <f t="shared" si="87"/>
         <v>7</v>
@@ -23658,7 +23344,7 @@
         <v>II 03 - Maule</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <f t="shared" si="87"/>
         <v>8</v>
@@ -23702,7 +23388,7 @@
         <v>II 03 - Biobío</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <f t="shared" si="87"/>
         <v>9</v>
@@ -23746,7 +23432,7 @@
         <v>II 03 - Araucanía</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <f t="shared" si="87"/>
         <v>10</v>
@@ -23790,7 +23476,7 @@
         <v>II 03 - Los Lagos</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <f t="shared" si="87"/>
         <v>11</v>
@@ -23834,7 +23520,7 @@
         <v>II 03 - Aysén</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <f t="shared" si="87"/>
         <v>12</v>
@@ -23878,7 +23564,7 @@
         <v>II 03 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <f t="shared" si="87"/>
         <v>13</v>
@@ -23922,7 +23608,7 @@
         <v>II 03 - Metropolitana</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <f t="shared" si="87"/>
         <v>14</v>
@@ -23966,7 +23652,7 @@
         <v>II 03 - Los Ríos</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <f t="shared" si="87"/>
         <v>15</v>
@@ -24010,7 +23696,7 @@
         <v>II 03 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <f t="shared" si="87"/>
         <v>16</v>
@@ -24054,7 +23740,7 @@
         <v>II 03 - Ñuble</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="93">
         <v>1</v>
       </c>
@@ -24096,7 +23782,7 @@
         <v>II 04 - Violencia Psicológica General Año</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <f t="shared" si="87"/>
         <v>2</v>
@@ -24140,7 +23826,7 @@
         <v>II 04 - Violencia Psicológica General Vida (año o vida)</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <f t="shared" si="87"/>
         <v>3</v>
@@ -24184,7 +23870,7 @@
         <v>II 04 - Violencia Psicológica Grave Año</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <f t="shared" si="87"/>
         <v>4</v>
@@ -24228,7 +23914,7 @@
         <v>II 04 - Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="98">
         <v>1</v>
       </c>
@@ -24269,7 +23955,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <f t="shared" si="87"/>
         <v>2</v>
@@ -24313,7 +23999,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <f t="shared" si="87"/>
         <v>3</v>
@@ -24357,7 +24043,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <f t="shared" si="87"/>
         <v>4</v>
@@ -24401,7 +24087,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <f t="shared" si="87"/>
         <v>5</v>
@@ -24445,7 +24131,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <f t="shared" si="87"/>
         <v>6</v>
@@ -24489,7 +24175,7 @@
         <v>II 01 - O Higgins</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <f t="shared" si="87"/>
         <v>7</v>
@@ -24533,7 +24219,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <f t="shared" si="87"/>
         <v>8</v>
@@ -24577,7 +24263,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <f t="shared" si="87"/>
         <v>9</v>
@@ -24621,7 +24307,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <f t="shared" si="87"/>
         <v>10</v>
@@ -24665,7 +24351,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <f t="shared" si="87"/>
         <v>11</v>
@@ -24709,7 +24395,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <f t="shared" ref="A498:A561" si="101">+A497+1</f>
         <v>12</v>
@@ -24753,7 +24439,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <f t="shared" si="101"/>
         <v>13</v>
@@ -24797,7 +24483,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <f t="shared" si="101"/>
         <v>14</v>
@@ -24841,7 +24527,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <f t="shared" si="101"/>
         <v>15</v>
@@ -24885,7 +24571,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <f t="shared" si="101"/>
         <v>16</v>
@@ -24929,7 +24615,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="98">
         <v>1</v>
       </c>
@@ -24971,7 +24657,7 @@
         <v>II 02 - No sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -25015,7 +24701,7 @@
         <v>II 02 - Sin Datos</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -25059,7 +24745,7 @@
         <v>II 02 - Sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="105">
         <v>1</v>
       </c>
@@ -25100,7 +24786,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -25144,7 +24830,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -25188,7 +24874,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <f t="shared" si="101"/>
         <v>4</v>
@@ -25232,7 +24918,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <f t="shared" si="101"/>
         <v>5</v>
@@ -25276,7 +24962,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <f t="shared" si="101"/>
         <v>6</v>
@@ -25320,7 +25006,7 @@
         <v>II 01 - O Higgins</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <f t="shared" si="101"/>
         <v>7</v>
@@ -25364,7 +25050,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <f t="shared" si="101"/>
         <v>8</v>
@@ -25408,7 +25094,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <f t="shared" si="101"/>
         <v>9</v>
@@ -25452,7 +25138,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <f t="shared" si="101"/>
         <v>10</v>
@@ -25496,7 +25182,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <f t="shared" si="101"/>
         <v>11</v>
@@ -25540,7 +25226,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <f t="shared" si="101"/>
         <v>12</v>
@@ -25584,7 +25270,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <f t="shared" si="101"/>
         <v>13</v>
@@ -25628,7 +25314,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <f t="shared" si="101"/>
         <v>14</v>
@@ -25672,7 +25358,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <f t="shared" si="101"/>
         <v>15</v>
@@ -25716,7 +25402,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <f t="shared" si="101"/>
         <v>16</v>
@@ -25760,7 +25446,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="105">
         <v>1</v>
       </c>
@@ -25802,7 +25488,7 @@
         <v>II 02 - No sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -25846,7 +25532,7 @@
         <v>II 02 - Sin Datos</v>
       </c>
     </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -25890,7 +25576,7 @@
         <v>II 02 - Sufrió violencia económica en los últimos 12 meses</v>
       </c>
     </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="24">
         <v>1</v>
       </c>
@@ -25970,7 +25656,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -26014,7 +25700,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -26058,7 +25744,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <f t="shared" si="101"/>
         <v>4</v>
@@ -26102,7 +25788,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <f t="shared" si="101"/>
         <v>5</v>
@@ -26146,7 +25832,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <f t="shared" si="101"/>
         <v>6</v>
@@ -26190,7 +25876,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <f t="shared" si="101"/>
         <v>7</v>
@@ -26234,7 +25920,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <f t="shared" si="101"/>
         <v>8</v>
@@ -26278,7 +25964,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <f t="shared" si="101"/>
         <v>9</v>
@@ -26322,7 +26008,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <f t="shared" si="101"/>
         <v>10</v>
@@ -26366,7 +26052,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <f t="shared" si="101"/>
         <v>11</v>
@@ -26410,7 +26096,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <f t="shared" si="101"/>
         <v>12</v>
@@ -26454,7 +26140,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <f t="shared" si="101"/>
         <v>13</v>
@@ -26498,7 +26184,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <f t="shared" si="101"/>
         <v>14</v>
@@ -26542,7 +26228,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <f t="shared" si="101"/>
         <v>15</v>
@@ -26586,7 +26272,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <f t="shared" si="101"/>
         <v>16</v>
@@ -26630,7 +26316,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <f t="shared" si="101"/>
         <v>17</v>
@@ -26674,7 +26360,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="110">
         <v>1</v>
       </c>
@@ -26758,7 +26444,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -26802,7 +26488,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -26846,7 +26532,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <f t="shared" si="101"/>
         <v>4</v>
@@ -26890,7 +26576,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <f t="shared" si="101"/>
         <v>5</v>
@@ -26934,7 +26620,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <f t="shared" si="101"/>
         <v>6</v>
@@ -26978,7 +26664,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <f t="shared" si="101"/>
         <v>7</v>
@@ -27022,7 +26708,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <f t="shared" si="101"/>
         <v>8</v>
@@ -27066,7 +26752,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <f t="shared" si="101"/>
         <v>9</v>
@@ -27110,7 +26796,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <f t="shared" si="101"/>
         <v>10</v>
@@ -27154,7 +26840,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <f t="shared" si="101"/>
         <v>11</v>
@@ -27198,7 +26884,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <f t="shared" si="101"/>
         <v>12</v>
@@ -27242,7 +26928,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <f t="shared" si="101"/>
         <v>13</v>
@@ -27286,7 +26972,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <f t="shared" si="101"/>
         <v>14</v>
@@ -27330,7 +27016,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <f t="shared" si="101"/>
         <v>15</v>
@@ -27374,7 +27060,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <f t="shared" si="101"/>
         <v>16</v>
@@ -27418,7 +27104,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <f t="shared" si="101"/>
         <v>17</v>
@@ -27462,7 +27148,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="115">
         <v>1</v>
       </c>
@@ -27504,7 +27190,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <f t="shared" si="101"/>
         <v>2</v>
@@ -27548,7 +27234,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <f t="shared" si="101"/>
         <v>3</v>
@@ -27592,7 +27278,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <f t="shared" ref="A562:A616" si="115">+A561+1</f>
         <v>4</v>
@@ -27636,7 +27322,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -27680,7 +27366,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -27724,7 +27410,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -27768,7 +27454,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -27812,7 +27498,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -27856,7 +27542,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -27900,7 +27586,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -27944,7 +27630,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -27988,7 +27674,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -28032,7 +27718,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -28076,7 +27762,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -28120,7 +27806,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -28164,7 +27850,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <f t="shared" si="115"/>
         <v>17</v>
@@ -28208,7 +27894,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="119">
         <v>1</v>
       </c>
@@ -28250,7 +27936,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -28294,7 +27980,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <f t="shared" si="115"/>
         <v>3</v>
@@ -28338,7 +28024,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <f t="shared" si="115"/>
         <v>4</v>
@@ -28382,7 +28068,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -28426,7 +28112,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -28470,7 +28156,7 @@
         <v>II 01 - O Higgins</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -28514,7 +28200,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -28558,7 +28244,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -28602,7 +28288,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -28646,7 +28332,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -28690,7 +28376,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -28734,7 +28420,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -28778,7 +28464,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -28822,7 +28508,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -28866,7 +28552,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -28910,7 +28596,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="119">
         <v>1</v>
       </c>
@@ -28953,7 +28639,7 @@
         <v>II 02 - Atención por violación (con entrega de anticoncepción de emergencia)</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -28997,7 +28683,7 @@
         <v>II 02 - Atención por violación (sin entrega de anticoncepción de emergencia )</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <f t="shared" si="115"/>
         <v>3</v>
@@ -29041,7 +28727,7 @@
         <v>II 02 - Estupro</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <f t="shared" si="115"/>
         <v>4</v>
@@ -29085,7 +28771,7 @@
         <v>II 02 - Abuso Sexual</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -29129,7 +28815,7 @@
         <v>II 02 - Otra violencia</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -29173,7 +28859,7 @@
         <v xml:space="preserve">II 02 - Violencia Física  </v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -29217,7 +28903,7 @@
         <v>II 02 - Violencia Intrafamiliar</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="125">
         <v>1</v>
       </c>
@@ -29232,9 +28918,8 @@
         <f>+"https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%20"&amp;I599</f>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%201</v>
       </c>
-      <c r="E599" s="128" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
+      <c r="E599" s="128">
+        <v>16</v>
       </c>
       <c r="F599" s="129" t="s">
         <v>42</v>
@@ -29259,7 +28944,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -29276,9 +28961,9 @@
         <f t="shared" ref="D600:D614" si="125">+"https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%20"&amp;I600</f>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%202</v>
       </c>
-      <c r="E600" s="4" t="e">
+      <c r="E600" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F600" t="str">
         <f t="shared" si="119"/>
@@ -29303,7 +28988,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <f t="shared" si="115"/>
         <v>3</v>
@@ -29320,9 +29005,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%203</v>
       </c>
-      <c r="E601" s="4" t="e">
+      <c r="E601" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F601" t="str">
         <f t="shared" si="119"/>
@@ -29347,7 +29032,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <f t="shared" si="115"/>
         <v>4</v>
@@ -29364,9 +29049,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%204</v>
       </c>
-      <c r="E602" s="4" t="e">
+      <c r="E602" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F602" t="str">
         <f t="shared" si="119"/>
@@ -29391,7 +29076,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -29408,9 +29093,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%205</v>
       </c>
-      <c r="E603" s="4" t="e">
+      <c r="E603" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F603" t="str">
         <f t="shared" si="119"/>
@@ -29435,7 +29120,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -29452,9 +29137,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%206</v>
       </c>
-      <c r="E604" s="4" t="e">
+      <c r="E604" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F604" t="str">
         <f t="shared" si="119"/>
@@ -29479,7 +29164,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -29496,9 +29181,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%207</v>
       </c>
-      <c r="E605" s="4" t="e">
+      <c r="E605" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F605" t="str">
         <f t="shared" si="119"/>
@@ -29523,7 +29208,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -29540,9 +29225,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%208</v>
       </c>
-      <c r="E606" s="4" t="e">
+      <c r="E606" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F606" t="str">
         <f t="shared" si="119"/>
@@ -29567,7 +29252,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -29584,9 +29269,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%209</v>
       </c>
-      <c r="E607" s="4" t="e">
+      <c r="E607" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F607" t="str">
         <f t="shared" si="119"/>
@@ -29611,7 +29296,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -29628,9 +29313,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2010</v>
       </c>
-      <c r="E608" s="4" t="e">
+      <c r="E608" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F608" t="str">
         <f t="shared" si="119"/>
@@ -29655,7 +29340,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <f t="shared" si="115"/>
         <v>11</v>
@@ -29672,9 +29357,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2011</v>
       </c>
-      <c r="E609" s="4" t="e">
+      <c r="E609" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F609" t="str">
         <f t="shared" si="119"/>
@@ -29699,7 +29384,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <f t="shared" si="115"/>
         <v>12</v>
@@ -29716,9 +29401,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2012</v>
       </c>
-      <c r="E610" s="4" t="e">
+      <c r="E610" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F610" t="str">
         <f t="shared" si="119"/>
@@ -29743,7 +29428,7 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <f t="shared" si="115"/>
         <v>13</v>
@@ -29760,9 +29445,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2013</v>
       </c>
-      <c r="E611" s="4" t="e">
+      <c r="E611" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F611" t="str">
         <f t="shared" si="119"/>
@@ -29787,7 +29472,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <f t="shared" si="115"/>
         <v>14</v>
@@ -29804,9 +29489,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2014</v>
       </c>
-      <c r="E612" s="4" t="e">
+      <c r="E612" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F612" t="str">
         <f t="shared" si="119"/>
@@ -29831,7 +29516,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <f t="shared" si="115"/>
         <v>15</v>
@@ -29848,9 +29533,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2015</v>
       </c>
-      <c r="E613" s="4" t="e">
+      <c r="E613" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F613" t="str">
         <f t="shared" si="119"/>
@@ -29875,7 +29560,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <f t="shared" si="115"/>
         <v>16</v>
@@ -29892,9 +29577,9 @@
         <f t="shared" si="125"/>
         <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2016</v>
       </c>
-      <c r="E614" s="4" t="e">
+      <c r="E614" s="4">
         <f t="shared" si="118"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="F614" t="str">
         <f t="shared" si="119"/>
@@ -29919,7 +29604,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="125">
         <v>1</v>
       </c>
@@ -29961,7 +29646,7 @@
         <v>II 02 - Prevalencia Violencia Psicológica General Año</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -30005,7 +29690,7 @@
         <v>II 02 - Prevalencia Violencia Psicológica General Vida (año o vida)</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <f t="shared" ref="A617:A638" si="127">+A616+1</f>
         <v>3</v>
@@ -30049,7 +29734,7 @@
         <v>II 02 - Prevalencia Violencia Psicológica Grave Año</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <f t="shared" si="127"/>
         <v>4</v>
@@ -30093,7 +29778,7 @@
         <v>II 02 - Prevalencia Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="125">
         <v>1</v>
       </c>
@@ -30135,7 +29820,7 @@
         <v>II 03 - Tarapacá</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <f t="shared" si="127"/>
         <v>2</v>
@@ -30179,7 +29864,7 @@
         <v>II 03 - Antofagasta</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <f t="shared" si="127"/>
         <v>3</v>
@@ -30223,7 +29908,7 @@
         <v>II 03 - Atacama</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <f t="shared" si="127"/>
         <v>4</v>
@@ -30267,7 +29952,7 @@
         <v>II 03 - Coquimbo</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <f t="shared" si="127"/>
         <v>5</v>
@@ -30311,7 +29996,7 @@
         <v>II 03 - Valparaíso</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <f t="shared" si="127"/>
         <v>6</v>
@@ -30355,7 +30040,7 @@
         <v>II 03 - O'Higgins</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <f t="shared" si="127"/>
         <v>7</v>
@@ -30399,7 +30084,7 @@
         <v>II 03 - Maule</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <f t="shared" si="127"/>
         <v>8</v>
@@ -30443,7 +30128,7 @@
         <v>II 03 - Biobío</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <f t="shared" si="127"/>
         <v>9</v>
@@ -30487,7 +30172,7 @@
         <v>II 03 - Araucanía</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <f t="shared" si="127"/>
         <v>10</v>
@@ -30531,7 +30216,7 @@
         <v>II 03 - Los Lagos</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <f t="shared" si="127"/>
         <v>11</v>
@@ -30575,7 +30260,7 @@
         <v>II 03 - Aysén</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <f t="shared" si="127"/>
         <v>12</v>
@@ -30619,7 +30304,7 @@
         <v>II 03 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <f t="shared" si="127"/>
         <v>13</v>
@@ -30663,7 +30348,7 @@
         <v>II 03 - Metropolitana</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <f t="shared" si="127"/>
         <v>14</v>
@@ -30707,7 +30392,7 @@
         <v>II 03 - Los Ríos</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <f t="shared" si="127"/>
         <v>15</v>
@@ -30751,7 +30436,7 @@
         <v>II 03 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <f t="shared" si="127"/>
         <v>16</v>
@@ -30795,7 +30480,7 @@
         <v>II 03 - Ñuble</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="125">
         <v>1</v>
       </c>
@@ -30837,7 +30522,7 @@
         <v>II 04 - Prevalencia Violencia Psicológica General Año</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <f t="shared" si="127"/>
         <v>2</v>
@@ -30881,7 +30566,7 @@
         <v>II 04 - Prevalencia Violencia Psicológica General Vida (año o vida)</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <f t="shared" si="127"/>
         <v>3</v>
@@ -30925,7 +30610,7 @@
         <v>II 04 - Prevalencia Violencia Psicológica Grave Año</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <f t="shared" si="127"/>
         <v>4</v>
@@ -30969,12 +30654,12 @@
         <v>II 04 - Prevalencia Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="130">
         <v>1</v>
       </c>
       <c r="B639" s="135" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C639" s="131" t="str">
         <f t="shared" ref="C639:C694" si="137">+F639&amp;" - "&amp;J639</f>
@@ -31010,14 +30695,14 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <f t="shared" ref="A640:A694" si="139">+A639+1</f>
         <v>2</v>
       </c>
       <c r="B640" s="2" t="str">
         <f t="shared" ref="B640:B694" si="140">+B639</f>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C640" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31051,14 +30736,14 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <f t="shared" si="139"/>
         <v>3</v>
       </c>
       <c r="B641" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C641" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31092,14 +30777,14 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <f t="shared" si="139"/>
         <v>4</v>
       </c>
       <c r="B642" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C642" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31133,14 +30818,14 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <f t="shared" si="139"/>
         <v>5</v>
       </c>
       <c r="B643" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C643" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31174,14 +30859,14 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <f t="shared" si="139"/>
         <v>6</v>
       </c>
       <c r="B644" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C644" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31215,14 +30900,14 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <f t="shared" si="139"/>
         <v>7</v>
       </c>
       <c r="B645" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C645" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31256,14 +30941,14 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <f t="shared" si="139"/>
         <v>8</v>
       </c>
       <c r="B646" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C646" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31297,14 +30982,14 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <f t="shared" si="139"/>
         <v>9</v>
       </c>
       <c r="B647" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C647" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31338,14 +31023,14 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <f t="shared" si="139"/>
         <v>10</v>
       </c>
       <c r="B648" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C648" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31379,14 +31064,14 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <f t="shared" si="139"/>
         <v>11</v>
       </c>
       <c r="B649" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C649" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31420,14 +31105,14 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <f t="shared" si="139"/>
         <v>12</v>
       </c>
       <c r="B650" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C650" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31461,14 +31146,14 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <f t="shared" si="139"/>
         <v>13</v>
       </c>
       <c r="B651" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C651" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31502,14 +31187,14 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <f t="shared" si="139"/>
         <v>14</v>
       </c>
       <c r="B652" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C652" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31543,14 +31228,14 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <f t="shared" si="139"/>
         <v>15</v>
       </c>
       <c r="B653" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C653" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31584,14 +31269,14 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <f t="shared" si="139"/>
         <v>16</v>
       </c>
       <c r="B654" s="2" t="str">
         <f t="shared" si="140"/>
-        <v>20.20</v>
+        <v>27.20</v>
       </c>
       <c r="C654" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31625,12 +31310,12 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="110">
         <v>1</v>
       </c>
       <c r="B655" s="110">
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C655" s="111" t="str">
         <f t="shared" si="137"/>
@@ -31645,15 +31330,15 @@
         <v>16</v>
       </c>
       <c r="F655" s="114" t="str">
-        <f t="shared" ref="F640:F694" si="143">+F654</f>
+        <f t="shared" ref="F655:F694" si="143">+F654</f>
         <v>II 01</v>
       </c>
       <c r="G655" s="114" t="str">
-        <f t="shared" ref="G640:G694" si="144">+G654</f>
+        <f t="shared" ref="G655:G694" si="144">+G654</f>
         <v>Región</v>
       </c>
       <c r="H655" s="114" t="str">
-        <f t="shared" ref="H640:H694" si="145">+H654</f>
+        <f t="shared" ref="H655:H694" si="145">+H654</f>
         <v>Casos de violencia general</v>
       </c>
       <c r="I655" s="110">
@@ -31663,21 +31348,21 @@
         <v>10</v>
       </c>
       <c r="K655" s="114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L655" s="1" t="str">
         <f t="shared" si="138"/>
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2">
         <f t="shared" si="139"/>
         <v>2</v>
       </c>
       <c r="B656" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C656" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31714,14 +31399,14 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <f t="shared" si="139"/>
         <v>3</v>
       </c>
       <c r="B657" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C657" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31758,14 +31443,14 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2">
         <f t="shared" si="139"/>
         <v>4</v>
       </c>
       <c r="B658" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C658" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31802,14 +31487,14 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <f t="shared" si="139"/>
         <v>5</v>
       </c>
       <c r="B659" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C659" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31846,14 +31531,14 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2">
         <f t="shared" si="139"/>
         <v>6</v>
       </c>
       <c r="B660" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C660" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31890,14 +31575,14 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <f t="shared" si="139"/>
         <v>7</v>
       </c>
       <c r="B661" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C661" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31934,14 +31619,14 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <f t="shared" si="139"/>
         <v>8</v>
       </c>
       <c r="B662" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C662" s="5" t="str">
         <f t="shared" si="137"/>
@@ -31978,14 +31663,14 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2">
         <f t="shared" si="139"/>
         <v>9</v>
       </c>
       <c r="B663" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C663" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32022,14 +31707,14 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <f t="shared" si="139"/>
         <v>10</v>
       </c>
       <c r="B664" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C664" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32066,14 +31751,14 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2">
         <f t="shared" si="139"/>
         <v>11</v>
       </c>
       <c r="B665" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C665" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32110,14 +31795,14 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <f t="shared" si="139"/>
         <v>12</v>
       </c>
       <c r="B666" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C666" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32154,14 +31839,14 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2">
         <f t="shared" si="139"/>
         <v>13</v>
       </c>
       <c r="B667" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C667" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32198,14 +31883,14 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <f t="shared" si="139"/>
         <v>14</v>
       </c>
       <c r="B668" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C668" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32242,14 +31927,14 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2">
         <f t="shared" si="139"/>
         <v>15</v>
       </c>
       <c r="B669" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C669" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32286,14 +31971,14 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <f t="shared" si="139"/>
         <v>16</v>
       </c>
       <c r="B670" s="2">
         <f t="shared" si="140"/>
-        <v>20.21</v>
+        <v>27.21</v>
       </c>
       <c r="C670" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32330,12 +32015,12 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="36">
         <v>1</v>
       </c>
       <c r="B671" s="36">
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C671" s="37" t="str">
         <f t="shared" si="137"/>
@@ -32356,7 +32041,7 @@
         <v>27</v>
       </c>
       <c r="H671" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I671" s="36">
         <v>1</v>
@@ -32365,21 +32050,21 @@
         <v>10</v>
       </c>
       <c r="K671" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L671" s="1" t="str">
         <f t="shared" si="138"/>
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <f t="shared" si="139"/>
         <v>2</v>
       </c>
       <c r="B672" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C672" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32416,14 +32101,14 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <f t="shared" si="139"/>
         <v>3</v>
       </c>
       <c r="B673" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C673" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32460,14 +32145,14 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="2">
         <f t="shared" si="139"/>
         <v>4</v>
       </c>
       <c r="B674" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C674" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32504,14 +32189,14 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <f t="shared" si="139"/>
         <v>5</v>
       </c>
       <c r="B675" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C675" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32548,14 +32233,14 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <f t="shared" si="139"/>
         <v>6</v>
       </c>
       <c r="B676" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C676" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32592,14 +32277,14 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <f t="shared" si="139"/>
         <v>7</v>
       </c>
       <c r="B677" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C677" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32636,14 +32321,14 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <f t="shared" si="139"/>
         <v>8</v>
       </c>
       <c r="B678" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C678" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32680,14 +32365,14 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <f t="shared" si="139"/>
         <v>9</v>
       </c>
       <c r="B679" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C679" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32724,14 +32409,14 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <f t="shared" si="139"/>
         <v>10</v>
       </c>
       <c r="B680" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C680" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32768,14 +32453,14 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <f t="shared" si="139"/>
         <v>11</v>
       </c>
       <c r="B681" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C681" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32812,14 +32497,14 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <f t="shared" si="139"/>
         <v>12</v>
       </c>
       <c r="B682" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C682" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32856,14 +32541,14 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <f t="shared" si="139"/>
         <v>13</v>
       </c>
       <c r="B683" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C683" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32900,14 +32585,14 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <f t="shared" si="139"/>
         <v>14</v>
       </c>
       <c r="B684" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C684" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32944,14 +32629,14 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <f t="shared" si="139"/>
         <v>15</v>
       </c>
       <c r="B685" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C685" s="5" t="str">
         <f t="shared" si="137"/>
@@ -32988,14 +32673,14 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <f t="shared" si="139"/>
         <v>16</v>
       </c>
       <c r="B686" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C686" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33032,21 +32717,21 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <f t="shared" si="139"/>
         <v>17</v>
       </c>
       <c r="B687" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C687" s="5" t="str">
         <f t="shared" si="137"/>
         <v xml:space="preserve">II 01 - </v>
       </c>
       <c r="D687" s="6" t="str">
-        <f t="shared" ref="D639:D694" si="148">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I687</f>
+        <f t="shared" ref="D687:D694" si="148">+"AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO"&amp;I687</f>
         <v>AQUÍ SE COPIA EL LINK SIN EL ID DE FILTRO</v>
       </c>
       <c r="E687" s="4">
@@ -33070,14 +32755,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <f t="shared" si="139"/>
         <v>18</v>
       </c>
       <c r="B688" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C688" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33108,14 +32793,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <f t="shared" si="139"/>
         <v>19</v>
       </c>
       <c r="B689" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C689" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33146,14 +32831,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <f t="shared" si="139"/>
         <v>20</v>
       </c>
       <c r="B690" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C690" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33184,14 +32869,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <f t="shared" si="139"/>
         <v>21</v>
       </c>
       <c r="B691" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C691" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33222,14 +32907,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <f t="shared" si="139"/>
         <v>22</v>
       </c>
       <c r="B692" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C692" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33260,14 +32945,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <f t="shared" si="139"/>
         <v>23</v>
       </c>
       <c r="B693" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C693" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33298,14 +32983,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <f t="shared" si="139"/>
         <v>24</v>
       </c>
       <c r="B694" s="2">
         <f t="shared" si="140"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C694" s="5" t="str">
         <f t="shared" si="137"/>
@@ -33336,14 +33021,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="2">
         <f t="shared" ref="A695:A752" si="149">+A694+1</f>
         <v>25</v>
       </c>
       <c r="B695" s="2">
         <f t="shared" ref="B695:B752" si="150">+B694</f>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C695" s="5" t="str">
         <f t="shared" ref="C695:C752" si="151">+F695&amp;" - "&amp;J695</f>
@@ -33374,14 +33059,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <f t="shared" si="149"/>
         <v>26</v>
       </c>
       <c r="B696" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C696" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33412,14 +33097,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
         <f t="shared" si="149"/>
         <v>27</v>
       </c>
       <c r="B697" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C697" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33450,14 +33135,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <f t="shared" si="149"/>
         <v>28</v>
       </c>
       <c r="B698" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C698" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33488,14 +33173,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="2">
         <f t="shared" si="149"/>
         <v>29</v>
       </c>
       <c r="B699" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C699" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33526,14 +33211,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <f t="shared" si="149"/>
         <v>30</v>
       </c>
       <c r="B700" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C700" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33564,14 +33249,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
         <f t="shared" si="149"/>
         <v>31</v>
       </c>
       <c r="B701" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C701" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33602,14 +33287,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <f t="shared" si="149"/>
         <v>32</v>
       </c>
       <c r="B702" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C702" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33640,14 +33325,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
         <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="B703" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C703" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33678,14 +33363,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <f t="shared" si="149"/>
         <v>34</v>
       </c>
       <c r="B704" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C704" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33716,14 +33401,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
         <f t="shared" si="149"/>
         <v>35</v>
       </c>
       <c r="B705" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C705" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33754,14 +33439,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <f t="shared" si="149"/>
         <v>36</v>
       </c>
       <c r="B706" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C706" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33792,14 +33477,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <f t="shared" si="149"/>
         <v>37</v>
       </c>
       <c r="B707" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C707" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33830,14 +33515,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
         <f t="shared" si="149"/>
         <v>38</v>
       </c>
       <c r="B708" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C708" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33868,14 +33553,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="2">
         <f t="shared" si="149"/>
         <v>39</v>
       </c>
       <c r="B709" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C709" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33906,14 +33591,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
         <f t="shared" si="149"/>
         <v>40</v>
       </c>
       <c r="B710" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C710" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33944,14 +33629,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="2">
         <f t="shared" si="149"/>
         <v>41</v>
       </c>
       <c r="B711" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C711" s="5" t="str">
         <f t="shared" si="151"/>
@@ -33982,14 +33667,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="2">
         <f t="shared" si="149"/>
         <v>42</v>
       </c>
       <c r="B712" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C712" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34020,14 +33705,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <f t="shared" si="149"/>
         <v>43</v>
       </c>
       <c r="B713" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C713" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34058,14 +33743,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2">
         <f t="shared" si="149"/>
         <v>44</v>
       </c>
       <c r="B714" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C714" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34096,14 +33781,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
         <f t="shared" si="149"/>
         <v>45</v>
       </c>
       <c r="B715" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C715" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34134,14 +33819,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2">
         <f t="shared" si="149"/>
         <v>46</v>
       </c>
       <c r="B716" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C716" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34172,14 +33857,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
         <f t="shared" si="149"/>
         <v>47</v>
       </c>
       <c r="B717" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C717" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34210,14 +33895,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="2">
         <f t="shared" si="149"/>
         <v>48</v>
       </c>
       <c r="B718" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C718" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34248,14 +33933,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
         <f t="shared" si="149"/>
         <v>49</v>
       </c>
       <c r="B719" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C719" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34286,14 +33971,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="2">
         <f t="shared" si="149"/>
         <v>50</v>
       </c>
       <c r="B720" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C720" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34324,14 +34009,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
         <f t="shared" si="149"/>
         <v>51</v>
       </c>
       <c r="B721" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C721" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34362,14 +34047,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
         <f t="shared" si="149"/>
         <v>52</v>
       </c>
       <c r="B722" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C722" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34400,14 +34085,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="2">
         <f t="shared" si="149"/>
         <v>53</v>
       </c>
       <c r="B723" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C723" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34438,14 +34123,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="2">
         <f t="shared" si="149"/>
         <v>54</v>
       </c>
       <c r="B724" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C724" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34476,14 +34161,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="2">
         <f t="shared" si="149"/>
         <v>55</v>
       </c>
       <c r="B725" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C725" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34514,14 +34199,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
         <f t="shared" si="149"/>
         <v>56</v>
       </c>
       <c r="B726" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C726" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34552,14 +34237,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="2">
         <f t="shared" si="149"/>
         <v>57</v>
       </c>
       <c r="B727" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C727" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34590,14 +34275,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
         <f t="shared" si="149"/>
         <v>58</v>
       </c>
       <c r="B728" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C728" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34628,14 +34313,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="2">
         <f t="shared" si="149"/>
         <v>59</v>
       </c>
       <c r="B729" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C729" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34666,14 +34351,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
         <f t="shared" si="149"/>
         <v>60</v>
       </c>
       <c r="B730" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C730" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34704,14 +34389,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="2">
         <f t="shared" si="149"/>
         <v>61</v>
       </c>
       <c r="B731" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C731" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34742,14 +34427,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
         <f t="shared" si="149"/>
         <v>62</v>
       </c>
       <c r="B732" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C732" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34780,14 +34465,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="2">
         <f t="shared" si="149"/>
         <v>63</v>
       </c>
       <c r="B733" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C733" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34818,14 +34503,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
         <f t="shared" si="149"/>
         <v>64</v>
       </c>
       <c r="B734" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C734" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34856,14 +34541,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="2">
         <f t="shared" si="149"/>
         <v>65</v>
       </c>
       <c r="B735" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C735" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34894,14 +34579,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
         <f t="shared" si="149"/>
         <v>66</v>
       </c>
       <c r="B736" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C736" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34932,14 +34617,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="2">
         <f t="shared" si="149"/>
         <v>67</v>
       </c>
       <c r="B737" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C737" s="5" t="str">
         <f t="shared" si="151"/>
@@ -34970,14 +34655,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="2">
         <f t="shared" si="149"/>
         <v>68</v>
       </c>
       <c r="B738" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C738" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35008,14 +34693,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="2">
         <f t="shared" si="149"/>
         <v>69</v>
       </c>
       <c r="B739" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C739" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35046,14 +34731,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="2">
         <f t="shared" si="149"/>
         <v>70</v>
       </c>
       <c r="B740" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C740" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35084,14 +34769,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="2">
         <f t="shared" si="149"/>
         <v>71</v>
       </c>
       <c r="B741" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C741" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35122,14 +34807,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="2">
         <f t="shared" si="149"/>
         <v>72</v>
       </c>
       <c r="B742" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C742" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35160,14 +34845,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="2">
         <f t="shared" si="149"/>
         <v>73</v>
       </c>
       <c r="B743" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C743" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35198,14 +34883,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="2">
         <f t="shared" si="149"/>
         <v>74</v>
       </c>
       <c r="B744" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C744" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35236,14 +34921,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="2">
         <f t="shared" si="149"/>
         <v>75</v>
       </c>
       <c r="B745" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C745" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35274,14 +34959,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="2">
         <f t="shared" si="149"/>
         <v>76</v>
       </c>
       <c r="B746" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C746" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35312,14 +34997,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="2">
         <f t="shared" si="149"/>
         <v>77</v>
       </c>
       <c r="B747" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C747" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35350,14 +35035,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="2">
         <f t="shared" si="149"/>
         <v>78</v>
       </c>
       <c r="B748" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C748" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35388,14 +35073,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="2">
         <f t="shared" si="149"/>
         <v>79</v>
       </c>
       <c r="B749" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C749" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35426,14 +35111,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="2">
         <f t="shared" si="149"/>
         <v>80</v>
       </c>
       <c r="B750" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C750" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35464,14 +35149,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="2">
         <f t="shared" si="149"/>
         <v>81</v>
       </c>
       <c r="B751" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C751" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35502,14 +35187,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="2">
         <f t="shared" si="149"/>
         <v>82</v>
       </c>
       <c r="B752" s="2">
         <f t="shared" si="150"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C752" s="5" t="str">
         <f t="shared" si="151"/>
@@ -35540,14 +35225,14 @@
         <v xml:space="preserve">II 01 - </v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="2">
         <f>+A752+1</f>
         <v>83</v>
       </c>
       <c r="B753" s="2">
         <f>+B752</f>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C753" s="5" t="str">
         <f>+F753&amp;" - "&amp;J753</f>
@@ -35581,14 +35266,14 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2">
         <f t="shared" ref="A754:A768" si="158">+A753+1</f>
         <v>84</v>
       </c>
       <c r="B754" s="2">
         <f t="shared" ref="B754:B768" si="159">+B753</f>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C754" s="5" t="str">
         <f t="shared" ref="C754:C768" si="160">+F754&amp;" - "&amp;J754</f>
@@ -35625,14 +35310,14 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2">
         <f t="shared" si="158"/>
         <v>85</v>
       </c>
       <c r="B755" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C755" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35669,14 +35354,14 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2">
         <f t="shared" si="158"/>
         <v>86</v>
       </c>
       <c r="B756" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C756" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35713,14 +35398,14 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2">
         <f t="shared" si="158"/>
         <v>87</v>
       </c>
       <c r="B757" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C757" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35757,14 +35442,14 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2">
         <f t="shared" si="158"/>
         <v>88</v>
       </c>
       <c r="B758" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C758" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35801,14 +35486,14 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2">
         <f t="shared" si="158"/>
         <v>89</v>
       </c>
       <c r="B759" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C759" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35845,14 +35530,14 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2">
         <f t="shared" si="158"/>
         <v>90</v>
       </c>
       <c r="B760" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C760" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35889,14 +35574,14 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2">
         <f t="shared" si="158"/>
         <v>91</v>
       </c>
       <c r="B761" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C761" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35933,14 +35618,14 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2">
         <f t="shared" si="158"/>
         <v>92</v>
       </c>
       <c r="B762" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C762" s="5" t="str">
         <f t="shared" si="160"/>
@@ -35977,14 +35662,14 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2">
         <f t="shared" si="158"/>
         <v>93</v>
       </c>
       <c r="B763" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C763" s="5" t="str">
         <f t="shared" si="160"/>
@@ -36021,14 +35706,14 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2">
         <f t="shared" si="158"/>
         <v>94</v>
       </c>
       <c r="B764" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C764" s="5" t="str">
         <f t="shared" si="160"/>
@@ -36065,14 +35750,14 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2">
         <f t="shared" si="158"/>
         <v>95</v>
       </c>
       <c r="B765" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C765" s="5" t="str">
         <f t="shared" si="160"/>
@@ -36109,14 +35794,14 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2">
         <f t="shared" si="158"/>
         <v>96</v>
       </c>
       <c r="B766" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C766" s="5" t="str">
         <f t="shared" si="160"/>
@@ -36153,14 +35838,14 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2">
         <f t="shared" si="158"/>
         <v>97</v>
       </c>
       <c r="B767" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C767" s="5" t="str">
         <f t="shared" si="160"/>
@@ -36197,14 +35882,14 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2">
         <f t="shared" si="158"/>
         <v>98</v>
       </c>
       <c r="B768" s="2">
         <f t="shared" si="159"/>
-        <v>20.22</v>
+        <v>27.22</v>
       </c>
       <c r="C768" s="5" t="str">
         <f t="shared" si="160"/>
@@ -36243,15 +35928,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Y1048576">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36275,8 +35960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F00ED9-3952-4B35-81D2-83748AB1C51C}">
   <dimension ref="A10:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36997,15 +36682,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
       <c r="B29" s="81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">RP 01 - </v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>RP 01 - Casos de violencia hacia la mujer || Chile || periodo 2012-2020</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E29" s="4">
         <f>E28</f>
         <v>1</v>
@@ -37019,13 +36708,18 @@
       <c r="H29" t="s">
         <v>304</v>
       </c>
+      <c r="I29" t="s">
+        <v>315</v>
+      </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">RP 01 - </v>
+        <v>RP 01 - Casos de violencia hacia la mujer || Chile || periodo 2012-2020</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
       <c r="B30" s="2">
         <v>27.21</v>
       </c>
@@ -37034,7 +36728,7 @@
         <v>RP 01 - Tasa de mujeres que sufren violencia || Chile || periodo 2012-2020</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ref="E30:E37" si="3">+E29</f>
@@ -37047,10 +36741,10 @@
         <v>50</v>
       </c>
       <c r="H30" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" t="s">
         <v>309</v>
-      </c>
-      <c r="I30" t="s">
-        <v>310</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="1"/>
@@ -37058,7 +36752,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
       <c r="B31" s="84">
         <v>27.22</v>
       </c>
@@ -37067,7 +36763,7 @@
         <v>RP 01 - Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="3"/>
@@ -37080,10 +36776,10 @@
         <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="1"/>

--- a/Control Calidad - DATAMUJERES-Violencia.xlsx
+++ b/Control Calidad - DATAMUJERES-Violencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19366C-8D79-4ABC-A901-28FE77AED91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E3D93-4E93-4261-8344-0869AE413869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" xr2:uid="{690ACAAD-F20B-42F0-9863-A1E9DF93E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Violencia" sheetId="2" r:id="rId1"/>
@@ -1841,7 +1841,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>46355</xdr:colOff>
+      <xdr:colOff>49530</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
@@ -1849,7 +1849,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>535305</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>140971</xdr:rowOff>
+      <xdr:rowOff>144146</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1919,15 +1919,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>45085</xdr:colOff>
+      <xdr:colOff>48260</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
+      <xdr:rowOff>65406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
+      <xdr:colOff>772795</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>125096</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2396,7 +2396,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Tipo Gráfico" xr10:uid="{C49DBA04-9E81-45A9-ADAA-F2DC3CC0F776}" cache="SegmentaciónDeDatos_Tipo_Gráfico" caption="Tipo Gráfico" columnCount="3" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="FILTRO1" xr10:uid="{04ADE6D8-5730-40A6-8111-78919B07CF0E}" cache="SegmentaciónDeDatos_FILTRO1" caption="FILTRO1" columnCount="3" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Tabla Madre" xr10:uid="{A1C18DDD-325C-4443-B4A8-C04FBEA58E54}" cache="SegmentaciónDeDatos_Tabla_Madre" caption="Tabla Madre" columnCount="4" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Tabla Madre" xr10:uid="{A1C18DDD-325C-4443-B4A8-C04FBEA58E54}" cache="SegmentaciónDeDatos_Tabla_Madre" caption="Tabla Madre" startItem="12" columnCount="4" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -2413,7 +2413,7 @@
   <autoFilter ref="A10:Z768" xr:uid="{1EB939B5-BF13-4485-8A96-D15199EA19E6}">
     <filterColumn colId="1">
       <filters>
-        <filter val="27.16"/>
+        <filter val="27.20"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2815,10 +2815,10 @@
   <dimension ref="A1:Z768"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L316" sqref="L316"/>
+      <selection pane="bottomRight" activeCell="K645" sqref="K645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4824,7 +4824,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f>+HYPERLINK(D52,C52)</f>
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
         <v>168</v>
       </c>
       <c r="L296" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f>+HYPERLINK(D296,C296)</f>
         <v>II 03 - Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento</v>
       </c>
     </row>
@@ -15665,7 +15665,7 @@
         <v>II 03 - Acoso Sexual Lugares Públicos /Libre Acceso Público</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="76">
         <v>1</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <f t="shared" si="53"/>
         <v>2</v>
@@ -15750,7 +15750,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <f t="shared" si="53"/>
         <v>3</v>
@@ -15794,7 +15794,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <f t="shared" si="53"/>
         <v>4</v>
@@ -15838,7 +15838,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <f t="shared" si="53"/>
         <v>5</v>
@@ -15882,7 +15882,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <f t="shared" si="53"/>
         <v>6</v>
@@ -15926,7 +15926,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <f t="shared" si="53"/>
         <v>7</v>
@@ -15970,7 +15970,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <f t="shared" ref="A306:A369" si="65">+A305+1</f>
         <v>8</v>
@@ -16014,7 +16014,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <f t="shared" si="65"/>
         <v>9</v>
@@ -16058,7 +16058,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <f t="shared" si="65"/>
         <v>10</v>
@@ -16102,7 +16102,7 @@
         <v>II 01 - La Araucanía</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <f t="shared" si="65"/>
         <v>11</v>
@@ -16146,7 +16146,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <f t="shared" si="65"/>
         <v>12</v>
@@ -16190,7 +16190,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <f t="shared" si="65"/>
         <v>13</v>
@@ -16234,7 +16234,7 @@
         <v>II 01 - Magallanes</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <f t="shared" si="65"/>
         <v>14</v>
@@ -16278,7 +16278,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <f t="shared" si="65"/>
         <v>15</v>
@@ -16322,7 +16322,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <f t="shared" si="65"/>
         <v>16</v>
@@ -16366,7 +16366,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <f t="shared" si="65"/>
         <v>17</v>
@@ -16410,7 +16410,7 @@
         <v>II 01 - Ñuble</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="76">
         <v>1</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>II 02 - Juzgado de Garantía de Iquique</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <f t="shared" si="65"/>
         <v>2</v>
@@ -16496,7 +16496,7 @@
         <v>II 02 - Juzgado de Garantía de Antofagasta</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <f t="shared" si="65"/>
         <v>3</v>
@@ -16540,7 +16540,7 @@
         <v>II 02 - Juzgado de Garantía de Calama</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <f t="shared" si="65"/>
         <v>4</v>
@@ -16584,7 +16584,7 @@
         <v>II 02 - Juzgado de Garantía de Tocopilla</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <f t="shared" si="65"/>
         <v>5</v>
@@ -16628,7 +16628,7 @@
         <v>II 02 - Juzgado de Garantía de Copiapo</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <f t="shared" si="65"/>
         <v>6</v>
@@ -16672,7 +16672,7 @@
         <v>II 02 - Juzgado de Garantía de Diego de Almagro</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <f t="shared" si="65"/>
         <v>7</v>
@@ -16716,7 +16716,7 @@
         <v>II 02 - Juzgado de Garantía de Vallenar</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <f t="shared" si="65"/>
         <v>8</v>
@@ -16760,7 +16760,7 @@
         <v>II 02 - Juzgado de Garantía de Coquimbo</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <f t="shared" si="65"/>
         <v>9</v>
@@ -16804,7 +16804,7 @@
         <v>II 02 - Juzgado de Garantía de Illapel</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <f t="shared" si="65"/>
         <v>10</v>
@@ -16848,7 +16848,7 @@
         <v>II 02 - Juzgado de Garantía de La Serena</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <f t="shared" si="65"/>
         <v>11</v>
@@ -16892,7 +16892,7 @@
         <v>II 02 - Juzgado de Garantía de Ovalle</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <f t="shared" si="65"/>
         <v>12</v>
@@ -16936,7 +16936,7 @@
         <v>II 02 - Juzgado de Garantía de Vicuña</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <f t="shared" si="65"/>
         <v>13</v>
@@ -16980,7 +16980,7 @@
         <v>II 02 - Juzgado de Garantía de Calera</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <f t="shared" si="65"/>
         <v>14</v>
@@ -17024,7 +17024,7 @@
         <v>II 02 - Juzgado de Garantía de La Ligua</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <f t="shared" si="65"/>
         <v>15</v>
@@ -17068,7 +17068,7 @@
         <v>II 02 - Juzgado de Garantía de Limache</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <f t="shared" si="65"/>
         <v>16</v>
@@ -17112,7 +17112,7 @@
         <v>II 02 - Juzgado de Garantía de Los Andes</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <f t="shared" si="65"/>
         <v>17</v>
@@ -17156,7 +17156,7 @@
         <v>II 02 - Juzgado de Garantía de Quillota</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <f t="shared" si="65"/>
         <v>18</v>
@@ -17200,7 +17200,7 @@
         <v>II 02 - Juzgado de Garantía de Quilpue</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <f t="shared" si="65"/>
         <v>19</v>
@@ -17244,7 +17244,7 @@
         <v>II 02 - Juzgado de Garantía de San Felipe</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <f t="shared" si="65"/>
         <v>20</v>
@@ -17288,7 +17288,7 @@
         <v>II 02 - Juzgado de Garantía de Valparaiso</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <f t="shared" si="65"/>
         <v>21</v>
@@ -17332,7 +17332,7 @@
         <v>II 02 - Juzgado de Garantía de Villa Alemana</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <f t="shared" si="65"/>
         <v>22</v>
@@ -17376,7 +17376,7 @@
         <v>II 02 - Juzgado de Garantía de Viña Del Mar</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <f t="shared" si="65"/>
         <v>23</v>
@@ -17420,7 +17420,7 @@
         <v>II 02 - Juzgado de Garantía de Graneros</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <f t="shared" si="65"/>
         <v>24</v>
@@ -17464,7 +17464,7 @@
         <v>II 02 - Juzgado de Garantía de Rancagua</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <f t="shared" si="65"/>
         <v>25</v>
@@ -17508,7 +17508,7 @@
         <v>II 02 - Juzgado de Garantía de Rengo</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <f t="shared" si="65"/>
         <v>26</v>
@@ -17552,7 +17552,7 @@
         <v>II 02 - Juzgado de Garantía de San Fernando</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <f t="shared" si="65"/>
         <v>27</v>
@@ -17596,7 +17596,7 @@
         <v>II 02 - Juzgado de Garantía de San Vicente</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <f t="shared" si="65"/>
         <v>28</v>
@@ -17640,7 +17640,7 @@
         <v>II 02 - Juzgado de Garantía de Santa Cruz</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <f t="shared" si="65"/>
         <v>29</v>
@@ -17684,7 +17684,7 @@
         <v>II 02 - Juzgado de Garantía de Cauquenes</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <f t="shared" si="65"/>
         <v>30</v>
@@ -17728,7 +17728,7 @@
         <v>II 02 - Juzgado de Garantía de Constitucion</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <f t="shared" si="65"/>
         <v>31</v>
@@ -17772,7 +17772,7 @@
         <v>II 02 - Juzgado de Garantía de Curico</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <f t="shared" si="65"/>
         <v>32</v>
@@ -17816,7 +17816,7 @@
         <v>II 02 - Juzgado de Garantía de Linares</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <f t="shared" si="65"/>
         <v>33</v>
@@ -17860,7 +17860,7 @@
         <v>II 02 - Juzgado de Garantía de Molina</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <f t="shared" si="65"/>
         <v>34</v>
@@ -17904,7 +17904,7 @@
         <v>II 02 - Juzgado de Garantía de Parral</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <f t="shared" si="65"/>
         <v>35</v>
@@ -17948,7 +17948,7 @@
         <v>II 02 - Juzgado de Garantía de San Javier</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <f t="shared" si="65"/>
         <v>36</v>
@@ -17992,7 +17992,7 @@
         <v>II 02 - Juzgado de Garantía de Talca</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <f t="shared" si="65"/>
         <v>37</v>
@@ -18036,7 +18036,7 @@
         <v>II 02 - Juzgado de Garantía de Arauco</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <f t="shared" si="65"/>
         <v>38</v>
@@ -18080,7 +18080,7 @@
         <v>II 02 - Juzgado de Garantía de Cañete</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <f t="shared" si="65"/>
         <v>39</v>
@@ -18124,7 +18124,7 @@
         <v>II 02 - Juzgado de Garantía de Chiguayante</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <f t="shared" si="65"/>
         <v>40</v>
@@ -18168,7 +18168,7 @@
         <v>II 02 - Juzgado de Garantía de Concepcion</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <f t="shared" si="65"/>
         <v>41</v>
@@ -18212,7 +18212,7 @@
         <v>II 02 - Juzgado de Garantía de Coronel</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <f t="shared" si="65"/>
         <v>42</v>
@@ -18256,7 +18256,7 @@
         <v>II 02 - Juzgado de Garantía de Los Angeles</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <f t="shared" si="65"/>
         <v>43</v>
@@ -18300,7 +18300,7 @@
         <v>II 02 - Juzgado de Garantía de Talcahuano</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <f t="shared" si="65"/>
         <v>44</v>
@@ -18344,7 +18344,7 @@
         <v>II 02 - Juzgado de Garantía de Tome</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <f t="shared" si="65"/>
         <v>45</v>
@@ -18388,7 +18388,7 @@
         <v>II 02 - Juzgado de Garantía de Angol</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <f t="shared" si="65"/>
         <v>46</v>
@@ -18432,7 +18432,7 @@
         <v>II 02 - Juzgado de Garantía de Lautaro</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <f t="shared" si="65"/>
         <v>47</v>
@@ -18476,7 +18476,7 @@
         <v>II 02 - Juzgado de Garantía de Loncoche</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <f t="shared" si="65"/>
         <v>48</v>
@@ -18520,7 +18520,7 @@
         <v>II 02 - Juzgado de Garantía de Nueva Imperial</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <f t="shared" si="65"/>
         <v>49</v>
@@ -18564,7 +18564,7 @@
         <v>II 02 - Juzgado de Garantía de Pitrufquen</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <f t="shared" si="65"/>
         <v>50</v>
@@ -18608,7 +18608,7 @@
         <v>II 02 - Juzgado de Garantía de Temuco</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <f t="shared" si="65"/>
         <v>51</v>
@@ -18652,7 +18652,7 @@
         <v>II 02 - Juzgado de Garantía de Victoria</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <f t="shared" si="65"/>
         <v>52</v>
@@ -18696,7 +18696,7 @@
         <v>II 02 - Juzgado de Garantía de Villarrica</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <f t="shared" si="65"/>
         <v>53</v>
@@ -18740,7 +18740,7 @@
         <v>II 02 - Juzgado de Garantía de Ancud</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <f t="shared" si="65"/>
         <v>54</v>
@@ -18784,7 +18784,7 @@
         <v>II 02 - Juzgado de Garantía de Castro</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <f t="shared" ref="A370:A433" si="74">+A369+1</f>
         <v>55</v>
@@ -18828,7 +18828,7 @@
         <v>II 02 - Juzgado de Garantía de Osorno</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <f t="shared" si="74"/>
         <v>56</v>
@@ -18872,7 +18872,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Montt</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <f t="shared" si="74"/>
         <v>57</v>
@@ -18916,7 +18916,7 @@
         <v>II 02 - Juzgado de Garantía de Puerto Varas</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <f t="shared" si="74"/>
         <v>58</v>
@@ -18960,7 +18960,7 @@
         <v>II 02 - Juzgado de Garantía de Rio Negro</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <f t="shared" si="74"/>
         <v>59</v>
@@ -19004,7 +19004,7 @@
         <v>II 02 - Juzgado de Garantía de Coyhaique</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <f t="shared" si="74"/>
         <v>60</v>
@@ -19048,7 +19048,7 @@
         <v>II 02 - Juzgado de Garantía de Punta Arenas</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <f t="shared" si="74"/>
         <v>61</v>
@@ -19092,7 +19092,7 @@
         <v>II 02 - 10º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <f t="shared" si="74"/>
         <v>62</v>
@@ -19136,7 +19136,7 @@
         <v>II 02 - 11º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <f t="shared" si="74"/>
         <v>63</v>
@@ -19180,7 +19180,7 @@
         <v>II 02 - 12º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <f t="shared" si="74"/>
         <v>64</v>
@@ -19224,7 +19224,7 @@
         <v>II 02 - 13º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <f t="shared" si="74"/>
         <v>65</v>
@@ -19268,7 +19268,7 @@
         <v>II 02 - 14º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <f t="shared" si="74"/>
         <v>66</v>
@@ -19312,7 +19312,7 @@
         <v>II 02 - 15º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <f t="shared" si="74"/>
         <v>67</v>
@@ -19356,7 +19356,7 @@
         <v>II 02 - 1º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <f t="shared" si="74"/>
         <v>68</v>
@@ -19400,7 +19400,7 @@
         <v>II 02 - 2º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <f t="shared" si="74"/>
         <v>69</v>
@@ -19444,7 +19444,7 @@
         <v>II 02 - 3º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <f t="shared" si="74"/>
         <v>70</v>
@@ -19488,7 +19488,7 @@
         <v>II 02 - 4º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <f t="shared" si="74"/>
         <v>71</v>
@@ -19532,7 +19532,7 @@
         <v>II 02 - 5º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <f t="shared" si="74"/>
         <v>72</v>
@@ -19576,7 +19576,7 @@
         <v>II 02 - 6º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <f t="shared" si="74"/>
         <v>73</v>
@@ -19620,7 +19620,7 @@
         <v>II 02 - 7º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <f t="shared" si="74"/>
         <v>74</v>
@@ -19664,7 +19664,7 @@
         <v>II 02 - 8º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <f t="shared" si="74"/>
         <v>75</v>
@@ -19708,7 +19708,7 @@
         <v>II 02 - 9º Juzgado de Garantía de Santiago</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <f t="shared" si="74"/>
         <v>76</v>
@@ -19752,7 +19752,7 @@
         <v>II 02 - Juzgado de Garantía de Los Lagos</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <f t="shared" si="74"/>
         <v>77</v>
@@ -19796,7 +19796,7 @@
         <v>II 02 - Juzgado de Garantía de Mariquina</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <f t="shared" si="74"/>
         <v>78</v>
@@ -19840,7 +19840,7 @@
         <v>II 02 - Juzgado de Garantía de Valdivia</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <f t="shared" si="74"/>
         <v>79</v>
@@ -19884,7 +19884,7 @@
         <v>II 02 - Juzgado de Garantía de Arica</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <f t="shared" si="74"/>
         <v>80</v>
@@ -19928,7 +19928,7 @@
         <v>II 02 - Juzgado de Garantía de Chillan</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <f t="shared" si="74"/>
         <v>81</v>
@@ -19972,7 +19972,7 @@
         <v>II 02 - Juzgado de Garantía de San Carlos</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <f t="shared" si="74"/>
         <v>82</v>
@@ -20016,7 +20016,7 @@
         <v>II 02 - Juzgado de Garantía de Yungay</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="76">
         <v>1</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>II 03 - Femicidio Intimo</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <f t="shared" si="74"/>
         <v>2</v>
@@ -20102,7 +20102,7 @@
         <v>II 03 - Secuestro Con Violación</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <f t="shared" si="74"/>
         <v>3</v>
@@ -20146,7 +20146,7 @@
         <v>II 03 - Secuestro Con Homicidio, Violación O Lesiones</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <f t="shared" si="74"/>
         <v>4</v>
@@ -20190,7 +20190,7 @@
         <v>II 03 - Tortura Con Violación, Abuso Sexual Agravado/Otros</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <f t="shared" si="74"/>
         <v>5</v>
@@ -20234,7 +20234,7 @@
         <v>II 03 - Femicidio No Íntimo</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <f t="shared" si="74"/>
         <v>6</v>
@@ -20278,7 +20278,7 @@
         <v>II 03 - Maltrato Habitual (Violencia Intrafamiliar)</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <f t="shared" si="74"/>
         <v>7</v>
@@ -20322,7 +20322,7 @@
         <v>II 03 - Aborto Cometido Por Facultativo Por Causales No Reguladas</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <f t="shared" si="74"/>
         <v>8</v>
@@ -20366,7 +20366,7 @@
         <v>II 03 - Aborto Consentido Causales No Reguladas</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <f t="shared" si="74"/>
         <v>9</v>
@@ -28915,8 +28915,8 @@
         <v>II 01 - Tarapacá</v>
       </c>
       <c r="D599" s="127" t="str">
-        <f>+"https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%20"&amp;I599</f>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%201</v>
+        <f>+"https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I599</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%201</v>
       </c>
       <c r="E599" s="128">
         <v>16</v>
@@ -28958,8 +28958,8 @@
         <v>II 01 - Antofagasta</v>
       </c>
       <c r="D600" s="23" t="str">
-        <f t="shared" ref="D600:D614" si="125">+"https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%20"&amp;I600</f>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%202</v>
+        <f t="shared" ref="D600:D614" si="125">+"https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I600</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%202</v>
       </c>
       <c r="E600" s="4">
         <f t="shared" si="118"/>
@@ -29003,7 +29003,7 @@
       </c>
       <c r="D601" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%203</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%203</v>
       </c>
       <c r="E601" s="4">
         <f t="shared" si="118"/>
@@ -29047,7 +29047,7 @@
       </c>
       <c r="D602" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%204</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%204</v>
       </c>
       <c r="E602" s="4">
         <f t="shared" si="118"/>
@@ -29091,7 +29091,7 @@
       </c>
       <c r="D603" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%205</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%205</v>
       </c>
       <c r="E603" s="4">
         <f t="shared" si="118"/>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="D604" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%206</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%206</v>
       </c>
       <c r="E604" s="4">
         <f t="shared" si="118"/>
@@ -29179,7 +29179,7 @@
       </c>
       <c r="D605" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%207</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%207</v>
       </c>
       <c r="E605" s="4">
         <f t="shared" si="118"/>
@@ -29223,7 +29223,7 @@
       </c>
       <c r="D606" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%208</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%208</v>
       </c>
       <c r="E606" s="4">
         <f t="shared" si="118"/>
@@ -29267,7 +29267,7 @@
       </c>
       <c r="D607" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%209</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%209</v>
       </c>
       <c r="E607" s="4">
         <f t="shared" si="118"/>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="D608" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2010</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2010</v>
       </c>
       <c r="E608" s="4">
         <f t="shared" si="118"/>
@@ -29355,7 +29355,7 @@
       </c>
       <c r="D609" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2011</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2011</v>
       </c>
       <c r="E609" s="4">
         <f t="shared" si="118"/>
@@ -29399,7 +29399,7 @@
       </c>
       <c r="D610" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2012</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2012</v>
       </c>
       <c r="E610" s="4">
         <f t="shared" si="118"/>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="D611" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2013</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2013</v>
       </c>
       <c r="E611" s="4">
         <f t="shared" si="118"/>
@@ -29487,7 +29487,7 @@
       </c>
       <c r="D612" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2014</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2014</v>
       </c>
       <c r="E612" s="4">
         <f t="shared" si="118"/>
@@ -29531,7 +29531,7 @@
       </c>
       <c r="D613" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2015</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2015</v>
       </c>
       <c r="E613" s="4">
         <f t="shared" si="118"/>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="D614" s="23" t="str">
         <f t="shared" si="125"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007360543?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22A%C3%B1o%22%20%3D%202020%20and%20%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Regi%C3%B3n%22%20%3D%2016</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007408113?ZOHO_CRITERIA=%22Trasposicion_27.17%22.%22Valor%22%3E0.99%20and%20%22Trasposicion_27.17%22.%22Cod%20regi%C3%B3n%22%20%3D%2016</v>
       </c>
       <c r="E614" s="4">
         <f t="shared" si="118"/>
@@ -30654,7 +30654,7 @@
         <v>II 04 - Prevalencia Violencia Psicológica Leve Año</v>
       </c>
     </row>
-    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A639" s="130">
         <v>1</v>
       </c>
@@ -30666,8 +30666,8 @@
         <v>II 01 - Tarapacá</v>
       </c>
       <c r="D639" s="132" t="str">
-        <f>+"https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O"&amp;I639</f>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O1</v>
+        <f>+"https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I639</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%201</v>
       </c>
       <c r="E639" s="133">
         <v>16</v>
@@ -30695,7 +30695,7 @@
         <v>II 01 - Tarapacá</v>
       </c>
     </row>
-    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <f t="shared" ref="A640:A694" si="139">+A639+1</f>
         <v>2</v>
@@ -30709,8 +30709,8 @@
         <v>II 01 - Antofagasta</v>
       </c>
       <c r="D640" s="23" t="str">
-        <f t="shared" ref="D640:D654" si="141">+"https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O"&amp;I640</f>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O2</v>
+        <f t="shared" ref="D640:D654" si="141">+"https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20"&amp;I640</f>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%202</v>
       </c>
       <c r="E640" s="4">
         <f t="shared" ref="E640:E694" si="142">+E639</f>
@@ -30736,7 +30736,7 @@
         <v>II 01 - Antofagasta</v>
       </c>
     </row>
-    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <f t="shared" si="139"/>
         <v>3</v>
@@ -30751,7 +30751,7 @@
       </c>
       <c r="D641" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O3</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%203</v>
       </c>
       <c r="E641" s="4">
         <f t="shared" si="142"/>
@@ -30777,7 +30777,7 @@
         <v>II 01 - Atacama</v>
       </c>
     </row>
-    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <f t="shared" si="139"/>
         <v>4</v>
@@ -30792,7 +30792,7 @@
       </c>
       <c r="D642" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O4</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%204</v>
       </c>
       <c r="E642" s="4">
         <f t="shared" si="142"/>
@@ -30818,7 +30818,7 @@
         <v>II 01 - Coquimbo</v>
       </c>
     </row>
-    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <f t="shared" si="139"/>
         <v>5</v>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="D643" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O5</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%205</v>
       </c>
       <c r="E643" s="4">
         <f t="shared" si="142"/>
@@ -30859,7 +30859,7 @@
         <v>II 01 - Valparaíso</v>
       </c>
     </row>
-    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <f t="shared" si="139"/>
         <v>6</v>
@@ -30874,7 +30874,7 @@
       </c>
       <c r="D644" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O6</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%206</v>
       </c>
       <c r="E644" s="4">
         <f t="shared" si="142"/>
@@ -30900,7 +30900,7 @@
         <v>II 01 - O'Higgins</v>
       </c>
     </row>
-    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <f t="shared" si="139"/>
         <v>7</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="D645" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O7</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%207</v>
       </c>
       <c r="E645" s="4">
         <f t="shared" si="142"/>
@@ -30941,7 +30941,7 @@
         <v>II 01 - Maule</v>
       </c>
     </row>
-    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <f t="shared" si="139"/>
         <v>8</v>
@@ -30956,7 +30956,7 @@
       </c>
       <c r="D646" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O8</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%208</v>
       </c>
       <c r="E646" s="4">
         <f t="shared" si="142"/>
@@ -30982,7 +30982,7 @@
         <v>II 01 - Biobío</v>
       </c>
     </row>
-    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <f t="shared" si="139"/>
         <v>9</v>
@@ -30997,7 +30997,7 @@
       </c>
       <c r="D647" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O9</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%209</v>
       </c>
       <c r="E647" s="4">
         <f t="shared" si="142"/>
@@ -31023,7 +31023,7 @@
         <v>II 01 - Araucanía</v>
       </c>
     </row>
-    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <f t="shared" si="139"/>
         <v>10</v>
@@ -31038,7 +31038,7 @@
       </c>
       <c r="D648" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O10</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2010</v>
       </c>
       <c r="E648" s="4">
         <f t="shared" si="142"/>
@@ -31064,7 +31064,7 @@
         <v>II 01 - Los Lagos</v>
       </c>
     </row>
-    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <f t="shared" si="139"/>
         <v>11</v>
@@ -31079,7 +31079,7 @@
       </c>
       <c r="D649" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O11</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2011</v>
       </c>
       <c r="E649" s="4">
         <f t="shared" si="142"/>
@@ -31105,7 +31105,7 @@
         <v>II 01 - Aysén</v>
       </c>
     </row>
-    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <f t="shared" si="139"/>
         <v>12</v>
@@ -31120,7 +31120,7 @@
       </c>
       <c r="D650" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O12</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2012</v>
       </c>
       <c r="E650" s="4">
         <f t="shared" si="142"/>
@@ -31146,7 +31146,7 @@
         <v>II 01 - Magallanes y Antártica Chilena</v>
       </c>
     </row>
-    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <f t="shared" si="139"/>
         <v>13</v>
@@ -31161,7 +31161,7 @@
       </c>
       <c r="D651" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O13</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2013</v>
       </c>
       <c r="E651" s="4">
         <f t="shared" si="142"/>
@@ -31187,7 +31187,7 @@
         <v>II 01 - Metropolitana</v>
       </c>
     </row>
-    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <f t="shared" si="139"/>
         <v>14</v>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="D652" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O14</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2014</v>
       </c>
       <c r="E652" s="4">
         <f t="shared" si="142"/>
@@ -31228,7 +31228,7 @@
         <v>II 01 - Los Ríos</v>
       </c>
     </row>
-    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <f t="shared" si="139"/>
         <v>15</v>
@@ -31243,7 +31243,7 @@
       </c>
       <c r="D653" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O15</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2015</v>
       </c>
       <c r="E653" s="4">
         <f t="shared" si="142"/>
@@ -31269,7 +31269,7 @@
         <v>II 01 - Arica y Parinacota</v>
       </c>
     </row>
-    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <f t="shared" si="139"/>
         <v>16</v>
@@ -31284,7 +31284,7 @@
       </c>
       <c r="D654" s="23" t="str">
         <f t="shared" si="141"/>
-        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%20O16</v>
+        <v>https://analytics.zoho.com/open-view/2395394000007472947?ZOHO_CRITERIA=%22Trasposicion_27.18%22.%22Cod%20regi%C3%B3n%22%20%3D%2016</v>
       </c>
       <c r="E654" s="4">
         <f t="shared" si="142"/>
@@ -35961,7 +35961,7 @@
   <dimension ref="A10:U37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:I31"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
